--- a/Översikt LINDESBERG.xlsx
+++ b/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43746</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43759</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44406</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         <v>43766</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43759</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44060</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43732</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43732</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>43878</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44280</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>44320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>44472</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44484</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45021</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43526</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43560</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43588</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43737</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43746</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43746</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43766</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43773</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43936</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44320</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44484</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44512</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44522</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>44536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44789</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44979</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>45075</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45075</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45099</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>45099</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>45138</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45138</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>45160</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43339</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43374</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43390</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43390</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43409</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>43423</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>43429</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43441</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43444</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43444</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43453</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43467</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43467</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43468</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43468</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43468</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43479</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43494</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43497</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43500</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43521</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43523</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43524</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43526</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43529</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>43535</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>43538</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43539</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>43544</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43551</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43553</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43557</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43560</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43560</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43563</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43564</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43567</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43570</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43571</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43571</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43579</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43580</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43581</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43588</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43588</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>43588</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43588</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43592</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43592</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43594</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43594</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43594</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43598</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43598</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43599</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43599</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43599</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43600</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43601</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43601</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43601</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43605</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43605</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43606</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43608</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43612</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43612</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43616</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43619</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43626</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>43628</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43630</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43633</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43633</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43634</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43634</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43635</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43636</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>43642</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43642</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>43643</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43643</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43643</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43643</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43643</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12858,7 +12858,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43644</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>43655</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>43656</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>43661</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>43661</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>43663</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>43669</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43671</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43678</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43679</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43680</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43680</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43683</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43684</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43685</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43689</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43691</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43693</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43699</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43699</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43699</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43710</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43713</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43713</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43713</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43717</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>43720</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>43720</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>43723</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>43725</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43725</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43731</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>43731</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>43734</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>43734</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>43734</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>43738</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>43738</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>43740</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>43740</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>43740</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>43740</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>43745</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>43745</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>43746</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>43749</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>43749</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>43752</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>43752</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43755</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43755</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>43761</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>43762</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>43762</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>43764</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>43766</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>43766</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>43766</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>43766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>43767</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>43767</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>43773</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>43780</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>43786</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>43786</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>43788</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>43788</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43790</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43790</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43792</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43800</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43800</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43804</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43805</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43805</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43809</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43810</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43817</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43826</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43837</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43844</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43845</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43857</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43860</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43860</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>43861</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>43865</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>43866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>43867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>43871</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>43871</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43872</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>43875</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43885</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43892</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43895</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>43895</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>43897</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43899</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>43900</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>43900</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>43902</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>43904</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43904</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>43904</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>43907</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43910</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>43913</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>43914</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43921</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43923</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43923</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>43929</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>43930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>43941</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>43947</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20485,7 +20485,7 @@
         <v>43948</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43948</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43957</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43958</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43962</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43962</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43962</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43962</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43966</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>43969</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>43969</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>43971</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>43984</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>43984</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>43993</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>43999</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44000</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44000</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44000</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44004</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44005</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         <v>44006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>44006</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21940,7 +21940,7 @@
         <v>44006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21997,7 +21997,7 @@
         <v>44006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>44007</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44007</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44013</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44016</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44016</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44018</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>44018</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         <v>44018</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>44018</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>44018</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22639,7 +22639,7 @@
         <v>44020</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44046</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44047</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44049</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>44053</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44063</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44063</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44064</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44067</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44069</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>44069</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>44069</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>44069</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>44069</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44071</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44073</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>44076</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>44076</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44083</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>44085</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>44085</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44088</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>44088</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>44088</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>44091</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44091</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>44098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>44102</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>44102</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>44104</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>44107</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44113</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44113</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44113</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44114</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44116</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>44123</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>44123</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24959,7 +24959,7 @@
         <v>44124</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25016,7 +25016,7 @@
         <v>44124</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>44126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44126</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44126</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44130</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44133</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44145</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44150</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44151</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44151</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44154</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44161</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25715,7 +25715,7 @@
         <v>44162</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25772,7 +25772,7 @@
         <v>44162</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>44162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>44167</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>44169</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44169</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44171</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44175</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44176</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>44176</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44179</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44179</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>44183</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44187</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26558,7 +26558,7 @@
         <v>44187</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26615,7 +26615,7 @@
         <v>44197</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26672,7 +26672,7 @@
         <v>44201</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26729,7 +26729,7 @@
         <v>44208</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44210</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44224</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44227</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44228</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44231</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44236</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44242</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44242</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44257</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>44258</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44258</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44259</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44259</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44259</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44263</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44267</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44267</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27780,7 +27780,7 @@
         <v>44267</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         <v>44271</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27894,7 +27894,7 @@
         <v>44273</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>44276</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28008,7 +28008,7 @@
         <v>44276</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28065,7 +28065,7 @@
         <v>44280</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>44281</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>44298</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>44300</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28298,7 +28298,7 @@
         <v>44300</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28355,7 +28355,7 @@
         <v>44301</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>44305</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>44308</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44319</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44325</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44326</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44327</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44332</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44348</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44348</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>44355</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44357</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>44361</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>44363</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>44375</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>44375</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44375</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>44375</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>44375</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>44376</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>44377</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>44377</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>44378</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29711,7 +29711,7 @@
         <v>44383</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>44386</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>44389</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>44389</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>44389</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>44389</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30068,7 +30068,7 @@
         <v>44389</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>44389</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>44389</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30244,7 +30244,7 @@
         <v>44389</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         <v>44420</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30363,7 +30363,7 @@
         <v>44420</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30420,7 +30420,7 @@
         <v>44425</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30482,7 +30482,7 @@
         <v>44425</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>44425</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44431</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44431</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44432</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30782,7 +30782,7 @@
         <v>44434</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30839,7 +30839,7 @@
         <v>44438</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30901,7 +30901,7 @@
         <v>44445</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30963,7 +30963,7 @@
         <v>44445</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31025,7 +31025,7 @@
         <v>44446</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31082,7 +31082,7 @@
         <v>44447</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31139,7 +31139,7 @@
         <v>44447</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>44449</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31253,7 +31253,7 @@
         <v>44449</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31310,7 +31310,7 @@
         <v>44451</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31367,7 +31367,7 @@
         <v>44452</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>44453</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31481,7 +31481,7 @@
         <v>44453</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31538,7 +31538,7 @@
         <v>44456</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>44457</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44460</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44461</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>44462</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31828,7 +31828,7 @@
         <v>44463</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31885,7 +31885,7 @@
         <v>44481</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31942,7 +31942,7 @@
         <v>44484</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31999,7 +31999,7 @@
         <v>44484</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32056,7 +32056,7 @@
         <v>44490</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32113,7 +32113,7 @@
         <v>44490</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32170,7 +32170,7 @@
         <v>44491</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32227,7 +32227,7 @@
         <v>44491</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32284,7 +32284,7 @@
         <v>44494</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32341,7 +32341,7 @@
         <v>44497</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32398,7 +32398,7 @@
         <v>44501</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32455,7 +32455,7 @@
         <v>44502</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32512,7 +32512,7 @@
         <v>44503</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32569,7 +32569,7 @@
         <v>44503</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         <v>44505</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32683,7 +32683,7 @@
         <v>44508</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32740,7 +32740,7 @@
         <v>44511</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32797,7 +32797,7 @@
         <v>44517</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32854,7 +32854,7 @@
         <v>44522</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>44523</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32973,7 +32973,7 @@
         <v>44526</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>44533</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33087,7 +33087,7 @@
         <v>44536</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33144,7 +33144,7 @@
         <v>44536</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33201,7 +33201,7 @@
         <v>44539</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33258,7 +33258,7 @@
         <v>44544</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
         <v>44545</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33372,7 +33372,7 @@
         <v>44551</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33429,7 +33429,7 @@
         <v>44564</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44566</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33543,7 +33543,7 @@
         <v>44585</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33600,7 +33600,7 @@
         <v>44594</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33657,7 +33657,7 @@
         <v>44602</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33714,7 +33714,7 @@
         <v>44603</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>44603</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>44608</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33895,7 +33895,7 @@
         <v>44613</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44613</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>44618</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44619</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>44627</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>44627</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>44629</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>44629</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44630</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44638</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44648</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44665</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44665</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44665</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44665</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44665</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44665</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44671</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>44671</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>44672</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>44673</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>44675</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35211,7 +35211,7 @@
         <v>44675</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44676</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44679</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44683</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44684</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>44685</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>44686</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>44690</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>44691</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>44691</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>44691</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>44691</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>44697</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35962,7 +35962,7 @@
         <v>44701</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         <v>44701</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>44714</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44728</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>44728</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>44742</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36304,7 +36304,7 @@
         <v>44753</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
         <v>44754</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36418,7 +36418,7 @@
         <v>44777</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36475,7 +36475,7 @@
         <v>44784</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44789</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>44789</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>44789</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>44790</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36760,7 +36760,7 @@
         <v>44791</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36817,7 +36817,7 @@
         <v>44796</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36874,7 +36874,7 @@
         <v>44806</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36931,7 +36931,7 @@
         <v>44810</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36988,7 +36988,7 @@
         <v>44819</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37045,7 +37045,7 @@
         <v>44820</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37102,7 +37102,7 @@
         <v>44822</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37159,7 +37159,7 @@
         <v>44825</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44833</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44837</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>44841</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37397,7 +37397,7 @@
         <v>44841</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>44846</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37511,7 +37511,7 @@
         <v>44860</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>44860</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37630,7 +37630,7 @@
         <v>44860</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37692,7 +37692,7 @@
         <v>44862</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37754,7 +37754,7 @@
         <v>44862</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
         <v>44872</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37873,7 +37873,7 @@
         <v>44883</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37930,7 +37930,7 @@
         <v>44883</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37987,7 +37987,7 @@
         <v>44889</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38044,7 +38044,7 @@
         <v>44893</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38101,7 +38101,7 @@
         <v>44894</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38158,7 +38158,7 @@
         <v>44895</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38215,7 +38215,7 @@
         <v>44900</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38272,7 +38272,7 @@
         <v>44902</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38329,7 +38329,7 @@
         <v>44902</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         <v>44902</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38448,7 +38448,7 @@
         <v>44902</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38510,7 +38510,7 @@
         <v>44902</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38567,7 +38567,7 @@
         <v>44904</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38624,7 +38624,7 @@
         <v>44909</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38681,7 +38681,7 @@
         <v>44911</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38738,7 +38738,7 @@
         <v>44916</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38795,7 +38795,7 @@
         <v>44924</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38852,7 +38852,7 @@
         <v>44927</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38909,7 +38909,7 @@
         <v>44928</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38966,7 +38966,7 @@
         <v>44945</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39023,7 +39023,7 @@
         <v>44945</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39080,7 +39080,7 @@
         <v>44946</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39137,7 +39137,7 @@
         <v>44949</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39194,7 +39194,7 @@
         <v>44949</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>44949</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39308,7 +39308,7 @@
         <v>44950</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39365,7 +39365,7 @@
         <v>44957</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>44963</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39479,7 +39479,7 @@
         <v>44970</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39536,7 +39536,7 @@
         <v>44974</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39593,7 +39593,7 @@
         <v>44974</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39650,7 +39650,7 @@
         <v>44977</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39712,7 +39712,7 @@
         <v>44978</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39769,7 +39769,7 @@
         <v>44978</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         <v>44979</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39883,7 +39883,7 @@
         <v>44979</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39940,7 +39940,7 @@
         <v>44981</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39997,7 +39997,7 @@
         <v>44981</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40054,7 +40054,7 @@
         <v>44981</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40111,7 +40111,7 @@
         <v>44984</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40168,7 +40168,7 @@
         <v>44988</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40230,7 +40230,7 @@
         <v>44990</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40287,7 +40287,7 @@
         <v>44990</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40344,7 +40344,7 @@
         <v>44993</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>45005</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>45005</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>45005</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>45005</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>45007</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>45008</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40768,7 +40768,7 @@
         <v>45016</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40825,7 +40825,7 @@
         <v>45021</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>45025</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>45027</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>45030</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41058,7 +41058,7 @@
         <v>45035</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41115,7 +41115,7 @@
         <v>45036</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41172,7 +41172,7 @@
         <v>45040</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41234,7 +41234,7 @@
         <v>45043</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41291,7 +41291,7 @@
         <v>45048</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41348,7 +41348,7 @@
         <v>45050</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41405,7 +41405,7 @@
         <v>45054</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41462,7 +41462,7 @@
         <v>45054</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>45054</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>45054</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>45054</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>45056</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45057</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41804,7 +41804,7 @@
         <v>45061</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41861,7 +41861,7 @@
         <v>45063</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41918,7 +41918,7 @@
         <v>45068</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41975,7 +41975,7 @@
         <v>45068</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42032,7 +42032,7 @@
         <v>45071</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42094,7 +42094,7 @@
         <v>45071</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42156,7 +42156,7 @@
         <v>45072</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45072</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42280,7 +42280,7 @@
         <v>45072</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42342,7 +42342,7 @@
         <v>45072</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42404,7 +42404,7 @@
         <v>45074</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42461,7 +42461,7 @@
         <v>45075</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42523,7 +42523,7 @@
         <v>45075</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>45077</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42647,7 +42647,7 @@
         <v>45077</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42709,7 +42709,7 @@
         <v>45077</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42771,7 +42771,7 @@
         <v>45077</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42833,7 +42833,7 @@
         <v>45079</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>45079</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         <v>45079</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43019,7 +43019,7 @@
         <v>45082</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43081,7 +43081,7 @@
         <v>45085</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43138,7 +43138,7 @@
         <v>45095</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43195,7 +43195,7 @@
         <v>45095</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43252,7 +43252,7 @@
         <v>45096</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43314,7 +43314,7 @@
         <v>45096</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43376,7 +43376,7 @@
         <v>45099</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>45103</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43495,7 +43495,7 @@
         <v>45103</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43552,7 +43552,7 @@
         <v>45104</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43614,7 +43614,7 @@
         <v>45106</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43671,7 +43671,7 @@
         <v>45107</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45107</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45107</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45107</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43909,7 +43909,7 @@
         <v>45110</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43971,7 +43971,7 @@
         <v>45111</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44028,7 +44028,7 @@
         <v>45113</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44085,7 +44085,7 @@
         <v>45113</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44142,7 +44142,7 @@
         <v>45119</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>45119</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>45119</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>45119</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>45119</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44452,7 +44452,7 @@
         <v>45121</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>45131</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>45138</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>45140</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>45142</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>45142</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>45145</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>45147</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45148</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45149</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45149</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45166,7 +45166,7 @@
         <v>45152</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45152</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45290,7 +45290,7 @@
         <v>45155</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45340,14 +45340,14 @@
     <row r="748" ht="15" customHeight="1">
       <c r="A748" t="inlineStr">
         <is>
-          <t>A 40456-2023</t>
+          <t>A 40450-2023</t>
         </is>
       </c>
       <c r="B748" s="1" t="n">
         <v>45170</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45365,7 +45365,7 @@
         </is>
       </c>
       <c r="G748" t="n">
-        <v>0.6</v>
+        <v>4.3</v>
       </c>
       <c r="H748" t="n">
         <v>0</v>
@@ -45402,14 +45402,14 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>A 40450-2023</t>
+          <t>A 40456-2023</t>
         </is>
       </c>
       <c r="B749" s="1" t="n">
         <v>45170</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45427,7 +45427,7 @@
         </is>
       </c>
       <c r="G749" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H749" t="n">
         <v>0</v>

--- a/Översikt LINDESBERG.xlsx
+++ b/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43746</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43759</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44406</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         <v>43766</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43759</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44060</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43732</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43732</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>43878</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44280</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>44320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>44472</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44484</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45021</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43526</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43560</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43588</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43737</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43746</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43746</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43766</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43773</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43936</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44320</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44484</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44512</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44522</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>44536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44789</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44979</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>45075</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45075</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45099</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>45099</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>45138</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45138</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>45160</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43339</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43374</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43390</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43390</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43409</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>43423</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>43429</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43441</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43444</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43444</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43453</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43467</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43467</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43468</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43468</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43468</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43479</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43494</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43497</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43500</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43521</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43523</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43524</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43526</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43529</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>43535</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>43538</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43539</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>43544</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43551</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43553</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43557</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43560</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43560</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43563</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43564</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43567</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43570</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43571</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43571</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43579</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43580</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43581</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43588</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43588</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>43588</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43588</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43592</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43592</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43594</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43594</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43594</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43598</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43598</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43599</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43599</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43599</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43600</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43601</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43601</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43601</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43605</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43605</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43606</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43608</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43612</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43612</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43616</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43619</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43626</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>43628</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43630</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43633</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43633</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43634</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43634</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43635</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43636</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>43642</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43642</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>43643</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43643</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43643</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43643</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43643</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12858,7 +12858,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43644</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>43655</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>43656</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>43661</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>43661</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>43663</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>43669</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43671</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43678</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43679</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43680</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43680</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43683</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43684</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43685</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43689</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43691</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43693</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43699</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43699</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43699</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43710</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43713</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43713</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43713</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43717</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>43720</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>43720</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>43723</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>43725</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43725</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43731</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>43731</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>43734</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>43734</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>43734</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>43738</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>43738</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>43740</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>43740</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>43740</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>43740</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>43745</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>43745</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>43746</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>43749</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>43749</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>43752</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>43752</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43755</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43755</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>43761</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>43762</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>43762</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>43764</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>43766</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>43766</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>43766</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>43766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>43767</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>43767</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>43773</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>43780</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>43786</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>43786</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>43788</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>43788</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43790</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43790</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43792</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43800</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43800</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43804</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43805</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43805</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43809</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43810</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43817</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43826</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43837</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43844</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43845</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43857</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43860</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43860</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>43861</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>43865</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>43866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>43867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>43871</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>43871</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43872</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>43875</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43885</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43892</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43895</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>43895</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>43897</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43899</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>43900</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>43900</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>43902</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>43904</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43904</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>43904</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>43907</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43910</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>43913</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>43914</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43921</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43923</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43923</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>43929</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>43930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>43941</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>43947</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20485,7 +20485,7 @@
         <v>43948</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43948</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43957</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43958</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43962</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43962</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43962</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43962</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43966</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>43969</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>43969</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>43971</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>43984</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>43984</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>43993</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>43999</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44000</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44000</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44000</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44004</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44005</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         <v>44006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>44006</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21940,7 +21940,7 @@
         <v>44006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21997,7 +21997,7 @@
         <v>44006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>44007</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44007</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44013</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44016</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44016</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44018</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>44018</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         <v>44018</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>44018</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>44018</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22639,7 +22639,7 @@
         <v>44020</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44046</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44047</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44049</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>44053</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44063</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44063</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44064</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44067</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44069</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>44069</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>44069</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>44069</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>44069</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44071</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44073</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>44076</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>44076</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44083</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>44085</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>44085</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44088</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>44088</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>44088</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>44091</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44091</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>44098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>44102</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>44102</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>44104</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>44107</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44113</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44113</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44113</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44114</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44116</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>44123</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>44123</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24959,7 +24959,7 @@
         <v>44124</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25016,7 +25016,7 @@
         <v>44124</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>44126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44126</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44126</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44130</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44133</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44145</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44150</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44151</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44151</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44154</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44161</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25715,7 +25715,7 @@
         <v>44162</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25772,7 +25772,7 @@
         <v>44162</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>44162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>44167</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>44169</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44169</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44171</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44175</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44176</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>44176</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44179</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44179</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>44183</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44187</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26558,7 +26558,7 @@
         <v>44187</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26615,7 +26615,7 @@
         <v>44197</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26672,7 +26672,7 @@
         <v>44201</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26729,7 +26729,7 @@
         <v>44208</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44210</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44224</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44227</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44228</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44231</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44236</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44242</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44242</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44257</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>44258</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44258</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44259</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44259</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44259</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44263</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44267</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44267</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27780,7 +27780,7 @@
         <v>44267</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         <v>44271</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27894,7 +27894,7 @@
         <v>44273</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>44276</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28008,7 +28008,7 @@
         <v>44276</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28065,7 +28065,7 @@
         <v>44280</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>44281</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>44298</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>44300</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28298,7 +28298,7 @@
         <v>44300</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28355,7 +28355,7 @@
         <v>44301</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>44305</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>44308</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44319</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44325</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44326</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44327</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44332</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44348</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44348</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>44355</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44357</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>44361</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>44363</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>44375</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>44375</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44375</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>44375</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>44375</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>44376</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>44377</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>44377</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>44378</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29711,7 +29711,7 @@
         <v>44383</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>44386</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>44389</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>44389</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>44389</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>44389</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30068,7 +30068,7 @@
         <v>44389</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>44389</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>44389</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30244,7 +30244,7 @@
         <v>44389</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         <v>44420</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30363,7 +30363,7 @@
         <v>44420</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30420,7 +30420,7 @@
         <v>44425</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30482,7 +30482,7 @@
         <v>44425</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>44425</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44431</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44431</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44432</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30782,7 +30782,7 @@
         <v>44434</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30839,7 +30839,7 @@
         <v>44438</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30901,7 +30901,7 @@
         <v>44445</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30963,7 +30963,7 @@
         <v>44445</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31025,7 +31025,7 @@
         <v>44446</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31082,7 +31082,7 @@
         <v>44447</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31139,7 +31139,7 @@
         <v>44447</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>44449</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31253,7 +31253,7 @@
         <v>44449</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31310,7 +31310,7 @@
         <v>44451</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31367,7 +31367,7 @@
         <v>44452</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>44453</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31481,7 +31481,7 @@
         <v>44453</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31538,7 +31538,7 @@
         <v>44456</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>44457</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44460</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44461</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>44462</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31828,7 +31828,7 @@
         <v>44463</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31885,7 +31885,7 @@
         <v>44481</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31942,7 +31942,7 @@
         <v>44484</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31999,7 +31999,7 @@
         <v>44484</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32056,7 +32056,7 @@
         <v>44490</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32113,7 +32113,7 @@
         <v>44490</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32170,7 +32170,7 @@
         <v>44491</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32227,7 +32227,7 @@
         <v>44491</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32284,7 +32284,7 @@
         <v>44494</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32341,7 +32341,7 @@
         <v>44497</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32398,7 +32398,7 @@
         <v>44501</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32455,7 +32455,7 @@
         <v>44502</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32512,7 +32512,7 @@
         <v>44503</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32569,7 +32569,7 @@
         <v>44503</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         <v>44505</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32683,7 +32683,7 @@
         <v>44508</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32740,7 +32740,7 @@
         <v>44511</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32797,7 +32797,7 @@
         <v>44517</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32854,7 +32854,7 @@
         <v>44522</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>44523</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32973,7 +32973,7 @@
         <v>44526</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>44533</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33087,7 +33087,7 @@
         <v>44536</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33144,7 +33144,7 @@
         <v>44536</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33201,7 +33201,7 @@
         <v>44539</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33258,7 +33258,7 @@
         <v>44544</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
         <v>44545</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33372,7 +33372,7 @@
         <v>44551</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33429,7 +33429,7 @@
         <v>44564</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44566</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33543,7 +33543,7 @@
         <v>44585</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33600,7 +33600,7 @@
         <v>44594</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33657,7 +33657,7 @@
         <v>44602</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33714,7 +33714,7 @@
         <v>44603</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>44603</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>44608</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33895,7 +33895,7 @@
         <v>44613</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44613</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>44618</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44619</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>44627</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>44627</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>44629</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>44629</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44630</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44638</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44648</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44665</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44665</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44665</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44665</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44665</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44665</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44671</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>44671</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>44672</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>44673</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>44675</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35211,7 +35211,7 @@
         <v>44675</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44676</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44679</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44683</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44684</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>44685</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>44686</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>44690</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>44691</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>44691</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>44691</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>44691</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>44697</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35962,7 +35962,7 @@
         <v>44701</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         <v>44701</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>44714</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44728</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>44728</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>44742</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36304,7 +36304,7 @@
         <v>44753</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
         <v>44754</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36418,7 +36418,7 @@
         <v>44777</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36475,7 +36475,7 @@
         <v>44784</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44789</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>44789</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>44789</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>44790</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36760,7 +36760,7 @@
         <v>44791</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36817,7 +36817,7 @@
         <v>44796</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36874,7 +36874,7 @@
         <v>44806</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36931,7 +36931,7 @@
         <v>44810</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36988,7 +36988,7 @@
         <v>44819</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37045,7 +37045,7 @@
         <v>44820</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37102,7 +37102,7 @@
         <v>44822</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37159,7 +37159,7 @@
         <v>44825</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44833</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44837</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>44841</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37397,7 +37397,7 @@
         <v>44841</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>44846</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37511,7 +37511,7 @@
         <v>44860</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>44860</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37630,7 +37630,7 @@
         <v>44860</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37692,7 +37692,7 @@
         <v>44862</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37754,7 +37754,7 @@
         <v>44862</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
         <v>44872</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37873,7 +37873,7 @@
         <v>44883</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37930,7 +37930,7 @@
         <v>44883</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37987,7 +37987,7 @@
         <v>44889</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38044,7 +38044,7 @@
         <v>44893</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38101,7 +38101,7 @@
         <v>44894</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38158,7 +38158,7 @@
         <v>44895</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38215,7 +38215,7 @@
         <v>44900</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38272,7 +38272,7 @@
         <v>44902</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38329,7 +38329,7 @@
         <v>44902</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         <v>44902</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38448,7 +38448,7 @@
         <v>44902</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38510,7 +38510,7 @@
         <v>44902</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38567,7 +38567,7 @@
         <v>44904</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38624,7 +38624,7 @@
         <v>44909</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38681,7 +38681,7 @@
         <v>44911</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38738,7 +38738,7 @@
         <v>44916</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38795,7 +38795,7 @@
         <v>44924</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38852,7 +38852,7 @@
         <v>44927</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38909,7 +38909,7 @@
         <v>44928</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38966,7 +38966,7 @@
         <v>44945</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39023,7 +39023,7 @@
         <v>44945</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39080,7 +39080,7 @@
         <v>44946</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39137,7 +39137,7 @@
         <v>44949</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39194,7 +39194,7 @@
         <v>44949</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>44949</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39308,7 +39308,7 @@
         <v>44950</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39365,7 +39365,7 @@
         <v>44957</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>44963</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39479,7 +39479,7 @@
         <v>44970</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39536,7 +39536,7 @@
         <v>44974</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39593,7 +39593,7 @@
         <v>44974</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39650,7 +39650,7 @@
         <v>44977</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39712,7 +39712,7 @@
         <v>44978</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39769,7 +39769,7 @@
         <v>44978</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         <v>44979</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39883,7 +39883,7 @@
         <v>44979</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39940,7 +39940,7 @@
         <v>44981</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39997,7 +39997,7 @@
         <v>44981</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40054,7 +40054,7 @@
         <v>44981</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40111,7 +40111,7 @@
         <v>44984</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40168,7 +40168,7 @@
         <v>44988</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40230,7 +40230,7 @@
         <v>44990</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40287,7 +40287,7 @@
         <v>44990</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40344,7 +40344,7 @@
         <v>44993</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>45005</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>45005</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>45005</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>45005</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>45007</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>45008</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40768,7 +40768,7 @@
         <v>45016</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40825,7 +40825,7 @@
         <v>45021</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>45025</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>45027</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>45030</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41058,7 +41058,7 @@
         <v>45035</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41115,7 +41115,7 @@
         <v>45036</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41172,7 +41172,7 @@
         <v>45040</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41234,7 +41234,7 @@
         <v>45043</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41291,7 +41291,7 @@
         <v>45048</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41348,7 +41348,7 @@
         <v>45050</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41405,7 +41405,7 @@
         <v>45054</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41462,7 +41462,7 @@
         <v>45054</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>45054</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>45054</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>45054</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>45056</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45057</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41804,7 +41804,7 @@
         <v>45061</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41861,7 +41861,7 @@
         <v>45063</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41918,7 +41918,7 @@
         <v>45068</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41975,7 +41975,7 @@
         <v>45068</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42032,7 +42032,7 @@
         <v>45071</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42094,7 +42094,7 @@
         <v>45071</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42156,7 +42156,7 @@
         <v>45072</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45072</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42280,7 +42280,7 @@
         <v>45072</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42342,7 +42342,7 @@
         <v>45072</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42404,7 +42404,7 @@
         <v>45074</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42461,7 +42461,7 @@
         <v>45075</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42523,7 +42523,7 @@
         <v>45075</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>45077</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42647,7 +42647,7 @@
         <v>45077</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42709,7 +42709,7 @@
         <v>45077</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42771,7 +42771,7 @@
         <v>45077</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42833,7 +42833,7 @@
         <v>45079</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>45079</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         <v>45079</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43019,7 +43019,7 @@
         <v>45082</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43081,7 +43081,7 @@
         <v>45085</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43138,7 +43138,7 @@
         <v>45095</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43195,7 +43195,7 @@
         <v>45095</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43252,7 +43252,7 @@
         <v>45096</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43314,7 +43314,7 @@
         <v>45096</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43376,7 +43376,7 @@
         <v>45099</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>45103</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43495,7 +43495,7 @@
         <v>45103</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43552,7 +43552,7 @@
         <v>45104</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43614,7 +43614,7 @@
         <v>45106</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43671,7 +43671,7 @@
         <v>45107</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45107</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45107</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45107</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43909,7 +43909,7 @@
         <v>45110</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43971,7 +43971,7 @@
         <v>45111</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44028,7 +44028,7 @@
         <v>45113</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44085,7 +44085,7 @@
         <v>45113</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44142,7 +44142,7 @@
         <v>45119</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>45119</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>45119</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>45119</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>45119</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44452,7 +44452,7 @@
         <v>45121</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>45131</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>45138</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>45140</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>45142</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>45142</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>45145</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>45147</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45148</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45149</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45149</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45166,7 +45166,7 @@
         <v>45152</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45152</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45290,7 +45290,7 @@
         <v>45155</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>45170</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45409,7 +45409,7 @@
         <v>45170</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>

--- a/Översikt LINDESBERG.xlsx
+++ b/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43746</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43759</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44406</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         <v>43766</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43759</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44060</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43732</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43732</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>43878</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44280</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>44320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>44472</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44484</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45021</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43526</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43560</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43588</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43737</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43746</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43746</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43766</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43773</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43936</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44320</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44484</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44512</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44522</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>44536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44789</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44979</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>45075</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45075</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45099</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>45099</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>45138</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45138</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>45160</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43339</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43374</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43390</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43390</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43409</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>43423</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>43429</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43441</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43444</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43444</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43453</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43467</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43467</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43468</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43468</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43468</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43479</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43494</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43497</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43500</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43521</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43523</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43524</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43526</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43529</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>43535</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>43538</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43539</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>43544</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43551</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43553</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43557</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43560</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43560</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43563</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43564</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43567</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43570</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43571</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43571</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43579</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43580</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43581</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43588</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43588</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>43588</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43588</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43592</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43592</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43594</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43594</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43594</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43598</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43598</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43599</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43599</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43599</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43600</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43601</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43601</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43601</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43605</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43605</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43606</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43608</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43612</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43612</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43616</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43619</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43626</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>43628</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43630</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43633</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43633</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43634</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43634</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43635</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43636</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>43642</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43642</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>43643</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43643</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43643</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43643</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43643</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12858,7 +12858,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43644</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>43655</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>43656</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>43661</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>43661</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>43663</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>43669</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43671</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43678</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43679</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43680</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43680</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43683</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43684</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43685</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43689</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43691</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43693</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43699</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43699</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43699</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43710</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43713</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43713</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43713</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43717</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>43720</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>43720</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>43723</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>43725</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43725</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43731</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>43731</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>43734</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>43734</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>43734</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>43738</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>43738</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>43740</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>43740</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>43740</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>43740</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>43745</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>43745</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>43746</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>43749</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>43749</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>43752</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>43752</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43755</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43755</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>43761</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>43762</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>43762</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>43764</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>43766</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>43766</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>43766</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>43766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>43767</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>43767</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>43773</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>43780</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>43786</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>43786</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>43788</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>43788</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43790</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43790</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43792</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43800</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43800</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43804</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43805</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43805</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43809</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43810</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43817</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43826</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43837</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43844</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43845</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43857</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43860</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43860</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>43861</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>43865</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>43866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>43867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>43871</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>43871</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43872</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>43875</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43885</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43892</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43895</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>43895</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>43897</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43899</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>43900</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>43900</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>43902</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>43904</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43904</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>43904</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>43907</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43910</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>43913</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>43914</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43921</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43923</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43923</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>43929</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>43930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>43941</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>43947</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20485,7 +20485,7 @@
         <v>43948</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43948</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43957</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43958</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43962</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43962</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43962</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43962</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43966</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>43969</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>43969</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>43971</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>43984</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>43984</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>43993</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>43999</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44000</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44000</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44000</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44004</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44005</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         <v>44006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>44006</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21940,7 +21940,7 @@
         <v>44006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21997,7 +21997,7 @@
         <v>44006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>44007</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44007</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44013</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44016</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44016</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44018</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>44018</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         <v>44018</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>44018</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>44018</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22639,7 +22639,7 @@
         <v>44020</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44046</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44047</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44049</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>44053</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44063</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44063</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44064</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44067</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44069</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>44069</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>44069</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>44069</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>44069</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44071</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44073</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>44076</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>44076</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44083</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>44085</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>44085</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44088</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>44088</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>44088</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>44091</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44091</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>44098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>44102</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>44102</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>44104</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>44107</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44113</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44113</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44113</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44114</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44116</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>44123</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>44123</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24959,7 +24959,7 @@
         <v>44124</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25016,7 +25016,7 @@
         <v>44124</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>44126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44126</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44126</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44130</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44133</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44145</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44150</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44151</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44151</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44154</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44161</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25715,7 +25715,7 @@
         <v>44162</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25772,7 +25772,7 @@
         <v>44162</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>44162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>44167</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>44169</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44169</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44171</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44175</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44176</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>44176</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44179</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44179</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>44183</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44187</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26558,7 +26558,7 @@
         <v>44187</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26615,7 +26615,7 @@
         <v>44197</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26672,7 +26672,7 @@
         <v>44201</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26729,7 +26729,7 @@
         <v>44208</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44210</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44224</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44227</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44228</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44231</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44236</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44242</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44242</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44257</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>44258</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44258</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44259</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44259</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44259</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44263</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44267</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44267</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27780,7 +27780,7 @@
         <v>44267</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         <v>44271</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27894,7 +27894,7 @@
         <v>44273</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>44276</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28008,7 +28008,7 @@
         <v>44276</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28065,7 +28065,7 @@
         <v>44280</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>44281</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>44298</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>44300</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28298,7 +28298,7 @@
         <v>44300</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28355,7 +28355,7 @@
         <v>44301</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>44305</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>44308</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44319</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44325</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44326</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44327</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44332</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44348</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44348</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>44355</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44357</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>44361</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>44363</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>44375</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>44375</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44375</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>44375</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>44375</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>44376</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>44377</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>44377</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>44378</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29711,7 +29711,7 @@
         <v>44383</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>44386</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>44389</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>44389</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>44389</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>44389</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30068,7 +30068,7 @@
         <v>44389</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>44389</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>44389</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30244,7 +30244,7 @@
         <v>44389</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         <v>44420</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30363,7 +30363,7 @@
         <v>44420</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30420,7 +30420,7 @@
         <v>44425</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30482,7 +30482,7 @@
         <v>44425</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>44425</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44431</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44431</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44432</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30782,7 +30782,7 @@
         <v>44434</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30839,7 +30839,7 @@
         <v>44438</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30901,7 +30901,7 @@
         <v>44445</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30963,7 +30963,7 @@
         <v>44445</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31025,7 +31025,7 @@
         <v>44446</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31082,7 +31082,7 @@
         <v>44447</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31139,7 +31139,7 @@
         <v>44447</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>44449</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31253,7 +31253,7 @@
         <v>44449</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31310,7 +31310,7 @@
         <v>44451</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31367,7 +31367,7 @@
         <v>44452</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>44453</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31481,7 +31481,7 @@
         <v>44453</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31538,7 +31538,7 @@
         <v>44456</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>44457</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44460</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44461</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>44462</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31828,7 +31828,7 @@
         <v>44463</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31885,7 +31885,7 @@
         <v>44481</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31942,7 +31942,7 @@
         <v>44484</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31999,7 +31999,7 @@
         <v>44484</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32056,7 +32056,7 @@
         <v>44490</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32113,7 +32113,7 @@
         <v>44490</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32170,7 +32170,7 @@
         <v>44491</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32227,7 +32227,7 @@
         <v>44491</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32284,7 +32284,7 @@
         <v>44494</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32341,7 +32341,7 @@
         <v>44497</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32398,7 +32398,7 @@
         <v>44501</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32455,7 +32455,7 @@
         <v>44502</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32512,7 +32512,7 @@
         <v>44503</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32569,7 +32569,7 @@
         <v>44503</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         <v>44505</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32683,7 +32683,7 @@
         <v>44508</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32740,7 +32740,7 @@
         <v>44511</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32797,7 +32797,7 @@
         <v>44517</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32854,7 +32854,7 @@
         <v>44522</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>44523</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32973,7 +32973,7 @@
         <v>44526</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>44533</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33087,7 +33087,7 @@
         <v>44536</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33144,7 +33144,7 @@
         <v>44536</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33201,7 +33201,7 @@
         <v>44539</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33258,7 +33258,7 @@
         <v>44544</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
         <v>44545</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33372,7 +33372,7 @@
         <v>44551</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33429,7 +33429,7 @@
         <v>44564</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44566</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33543,7 +33543,7 @@
         <v>44585</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33600,7 +33600,7 @@
         <v>44594</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33657,7 +33657,7 @@
         <v>44602</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33714,7 +33714,7 @@
         <v>44603</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>44603</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>44608</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33895,7 +33895,7 @@
         <v>44613</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44613</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>44618</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44619</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>44627</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>44627</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>44629</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>44629</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44630</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44638</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44648</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44665</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44665</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44665</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44665</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44665</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44665</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44671</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>44671</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>44672</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>44673</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>44675</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35211,7 +35211,7 @@
         <v>44675</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44676</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44679</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44683</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44684</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>44685</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>44686</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>44690</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>44691</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>44691</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>44691</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>44691</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>44697</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35962,7 +35962,7 @@
         <v>44701</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         <v>44701</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>44714</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44728</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>44728</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>44742</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36304,7 +36304,7 @@
         <v>44753</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
         <v>44754</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36418,7 +36418,7 @@
         <v>44777</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36475,7 +36475,7 @@
         <v>44784</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44789</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>44789</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>44789</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>44790</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36760,7 +36760,7 @@
         <v>44791</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36817,7 +36817,7 @@
         <v>44796</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36874,7 +36874,7 @@
         <v>44806</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36931,7 +36931,7 @@
         <v>44810</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36988,7 +36988,7 @@
         <v>44819</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37045,7 +37045,7 @@
         <v>44820</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37102,7 +37102,7 @@
         <v>44822</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37159,7 +37159,7 @@
         <v>44825</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44833</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44837</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>44841</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37397,7 +37397,7 @@
         <v>44841</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>44846</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37511,7 +37511,7 @@
         <v>44860</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>44860</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37630,7 +37630,7 @@
         <v>44860</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37692,7 +37692,7 @@
         <v>44862</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37754,7 +37754,7 @@
         <v>44862</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
         <v>44872</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37873,7 +37873,7 @@
         <v>44883</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37930,7 +37930,7 @@
         <v>44883</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37987,7 +37987,7 @@
         <v>44889</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38044,7 +38044,7 @@
         <v>44893</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38101,7 +38101,7 @@
         <v>44894</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38158,7 +38158,7 @@
         <v>44895</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38215,7 +38215,7 @@
         <v>44900</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38272,7 +38272,7 @@
         <v>44902</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38329,7 +38329,7 @@
         <v>44902</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         <v>44902</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38448,7 +38448,7 @@
         <v>44902</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38510,7 +38510,7 @@
         <v>44902</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38567,7 +38567,7 @@
         <v>44904</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38624,7 +38624,7 @@
         <v>44909</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38681,7 +38681,7 @@
         <v>44911</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38738,7 +38738,7 @@
         <v>44916</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38795,7 +38795,7 @@
         <v>44924</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38852,7 +38852,7 @@
         <v>44927</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38909,7 +38909,7 @@
         <v>44928</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38966,7 +38966,7 @@
         <v>44945</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39023,7 +39023,7 @@
         <v>44945</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39080,7 +39080,7 @@
         <v>44946</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39137,7 +39137,7 @@
         <v>44949</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39194,7 +39194,7 @@
         <v>44949</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>44949</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39308,7 +39308,7 @@
         <v>44950</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39365,7 +39365,7 @@
         <v>44957</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>44963</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39479,7 +39479,7 @@
         <v>44970</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39536,7 +39536,7 @@
         <v>44974</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39593,7 +39593,7 @@
         <v>44974</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39650,7 +39650,7 @@
         <v>44977</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39712,7 +39712,7 @@
         <v>44978</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39769,7 +39769,7 @@
         <v>44978</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         <v>44979</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39883,7 +39883,7 @@
         <v>44979</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39940,7 +39940,7 @@
         <v>44981</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39997,7 +39997,7 @@
         <v>44981</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40054,7 +40054,7 @@
         <v>44981</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40111,7 +40111,7 @@
         <v>44984</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40168,7 +40168,7 @@
         <v>44988</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40230,7 +40230,7 @@
         <v>44990</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40287,7 +40287,7 @@
         <v>44990</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40344,7 +40344,7 @@
         <v>44993</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>45005</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>45005</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>45005</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>45005</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>45007</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>45008</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40768,7 +40768,7 @@
         <v>45016</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40825,7 +40825,7 @@
         <v>45021</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>45025</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>45027</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>45030</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41058,7 +41058,7 @@
         <v>45035</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41115,7 +41115,7 @@
         <v>45036</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41172,7 +41172,7 @@
         <v>45040</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41234,7 +41234,7 @@
         <v>45043</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41291,7 +41291,7 @@
         <v>45048</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41348,7 +41348,7 @@
         <v>45050</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41405,7 +41405,7 @@
         <v>45054</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41462,7 +41462,7 @@
         <v>45054</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>45054</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>45054</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>45054</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>45056</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45057</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41804,7 +41804,7 @@
         <v>45061</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41861,7 +41861,7 @@
         <v>45063</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41918,7 +41918,7 @@
         <v>45068</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41975,7 +41975,7 @@
         <v>45068</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42032,7 +42032,7 @@
         <v>45071</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42094,7 +42094,7 @@
         <v>45071</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42156,7 +42156,7 @@
         <v>45072</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45072</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42280,7 +42280,7 @@
         <v>45072</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42342,7 +42342,7 @@
         <v>45072</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42404,7 +42404,7 @@
         <v>45074</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42461,7 +42461,7 @@
         <v>45075</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42523,7 +42523,7 @@
         <v>45075</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>45077</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42647,7 +42647,7 @@
         <v>45077</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42709,7 +42709,7 @@
         <v>45077</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42771,7 +42771,7 @@
         <v>45077</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42833,7 +42833,7 @@
         <v>45079</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>45079</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         <v>45079</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43019,7 +43019,7 @@
         <v>45082</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43081,7 +43081,7 @@
         <v>45085</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43138,7 +43138,7 @@
         <v>45095</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43195,7 +43195,7 @@
         <v>45095</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43252,7 +43252,7 @@
         <v>45096</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43314,7 +43314,7 @@
         <v>45096</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43376,7 +43376,7 @@
         <v>45099</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>45103</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43495,7 +43495,7 @@
         <v>45103</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43552,7 +43552,7 @@
         <v>45104</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43614,7 +43614,7 @@
         <v>45106</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43671,7 +43671,7 @@
         <v>45107</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45107</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45107</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45107</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43909,7 +43909,7 @@
         <v>45110</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43971,7 +43971,7 @@
         <v>45111</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44028,7 +44028,7 @@
         <v>45113</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44085,7 +44085,7 @@
         <v>45113</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44142,7 +44142,7 @@
         <v>45119</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>45119</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>45119</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>45119</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>45119</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44452,7 +44452,7 @@
         <v>45121</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>45131</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>45138</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>45140</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>45142</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>45142</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>45145</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>45147</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45148</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45149</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45149</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45166,7 +45166,7 @@
         <v>45152</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45152</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45290,7 +45290,7 @@
         <v>45155</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>45170</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45409,7 +45409,7 @@
         <v>45170</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>

--- a/Översikt LINDESBERG.xlsx
+++ b/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43746</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43759</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44406</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         <v>43766</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43759</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44060</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43732</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43732</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>43878</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44280</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>44320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>44472</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44484</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45021</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43526</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43560</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43588</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43737</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43746</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43746</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43766</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43773</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43936</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44320</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44484</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44512</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44522</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>44536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44789</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44979</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>45075</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45075</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45099</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>45099</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>45138</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45138</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>45160</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43339</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43374</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43390</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43390</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43409</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>43423</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>43429</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43441</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43444</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43444</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43453</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43467</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43467</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43468</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43468</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43468</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43479</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43494</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43497</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43500</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43521</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43523</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43524</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43526</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43529</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>43535</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>43538</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43539</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>43544</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43551</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43553</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43557</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43560</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43560</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43563</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43564</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43567</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43570</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43571</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43571</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43579</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43580</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43581</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43588</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43588</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>43588</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43588</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43592</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43592</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43594</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43594</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43594</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43598</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43598</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43599</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43599</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43599</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43600</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43601</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43601</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43601</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43605</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43605</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43606</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43608</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43612</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43612</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43616</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43619</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43626</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>43628</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43630</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43633</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43633</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43634</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43634</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43635</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43636</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>43642</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43642</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>43643</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43643</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43643</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43643</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43643</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12858,7 +12858,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43644</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>43655</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>43656</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>43661</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>43661</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>43663</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>43669</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43671</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43678</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43679</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43680</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43680</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43683</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43684</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43685</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43689</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43691</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43693</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43699</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43699</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43699</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43710</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43713</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43713</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43713</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43717</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>43720</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>43720</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>43723</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>43725</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43725</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43731</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>43731</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>43734</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>43734</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>43734</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>43738</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>43738</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>43740</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>43740</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>43740</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>43740</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>43745</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>43745</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>43746</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>43749</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>43749</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>43752</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>43752</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43755</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43755</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>43761</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>43762</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>43762</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>43764</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>43766</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>43766</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>43766</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>43766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>43767</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>43767</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>43773</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>43780</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>43786</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>43786</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>43788</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>43788</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43790</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43790</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43792</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43800</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43800</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43804</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43805</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43805</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43809</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43810</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43817</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43826</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43837</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43844</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43845</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43857</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43860</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43860</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>43861</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>43865</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>43866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>43867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>43871</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>43871</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43872</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>43875</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43885</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43892</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43895</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>43895</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>43897</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43899</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>43900</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>43900</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>43902</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>43904</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43904</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>43904</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>43907</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43910</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>43913</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>43914</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43921</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43923</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43923</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>43929</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>43930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>43941</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>43947</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20485,7 +20485,7 @@
         <v>43948</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43948</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43957</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43958</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43962</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43962</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43962</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43962</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43966</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>43969</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>43969</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>43971</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>43984</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>43984</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>43993</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>43999</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44000</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44000</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44000</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44004</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44005</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         <v>44006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>44006</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21940,7 +21940,7 @@
         <v>44006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21997,7 +21997,7 @@
         <v>44006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>44007</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44007</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44013</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44016</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44016</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44018</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>44018</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         <v>44018</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>44018</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>44018</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22639,7 +22639,7 @@
         <v>44020</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44046</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44047</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44049</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>44053</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44063</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44063</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44064</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44067</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44069</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>44069</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>44069</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>44069</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>44069</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44071</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44073</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>44076</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>44076</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44083</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>44085</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>44085</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44088</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>44088</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>44088</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>44091</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44091</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>44098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>44102</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>44102</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>44104</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>44107</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44113</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44113</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44113</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44114</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44116</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>44123</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>44123</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24959,7 +24959,7 @@
         <v>44124</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25016,7 +25016,7 @@
         <v>44124</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>44126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44126</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44126</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44130</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44133</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44145</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44150</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44151</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44151</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44154</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44161</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25715,7 +25715,7 @@
         <v>44162</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25772,7 +25772,7 @@
         <v>44162</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>44162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>44167</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>44169</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44169</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44171</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44175</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44176</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>44176</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44179</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44179</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>44183</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44187</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26558,7 +26558,7 @@
         <v>44187</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26615,7 +26615,7 @@
         <v>44197</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26672,7 +26672,7 @@
         <v>44201</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26729,7 +26729,7 @@
         <v>44208</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44210</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44224</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44227</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44228</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44231</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44236</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44242</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44242</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44257</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>44258</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44258</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44259</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44259</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44259</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44263</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44267</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44267</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27780,7 +27780,7 @@
         <v>44267</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         <v>44271</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27894,7 +27894,7 @@
         <v>44273</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>44276</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28008,7 +28008,7 @@
         <v>44276</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28065,7 +28065,7 @@
         <v>44280</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>44281</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>44298</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>44300</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28298,7 +28298,7 @@
         <v>44300</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28355,7 +28355,7 @@
         <v>44301</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>44305</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>44308</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44319</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44325</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44326</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44327</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44332</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44348</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44348</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>44355</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44357</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>44361</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>44363</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>44375</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>44375</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44375</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>44375</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>44375</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>44376</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>44377</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>44377</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>44378</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29711,7 +29711,7 @@
         <v>44383</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>44386</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>44389</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>44389</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>44389</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>44389</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30068,7 +30068,7 @@
         <v>44389</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>44389</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>44389</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30244,7 +30244,7 @@
         <v>44389</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         <v>44420</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30363,7 +30363,7 @@
         <v>44420</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30420,7 +30420,7 @@
         <v>44425</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30482,7 +30482,7 @@
         <v>44425</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>44425</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44431</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44431</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44432</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30782,7 +30782,7 @@
         <v>44434</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30839,7 +30839,7 @@
         <v>44438</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30901,7 +30901,7 @@
         <v>44445</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30963,7 +30963,7 @@
         <v>44445</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31025,7 +31025,7 @@
         <v>44446</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31082,7 +31082,7 @@
         <v>44447</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31139,7 +31139,7 @@
         <v>44447</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>44449</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31253,7 +31253,7 @@
         <v>44449</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31310,7 +31310,7 @@
         <v>44451</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31367,7 +31367,7 @@
         <v>44452</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>44453</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31481,7 +31481,7 @@
         <v>44453</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31538,7 +31538,7 @@
         <v>44456</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>44457</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44460</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44461</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>44462</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31828,7 +31828,7 @@
         <v>44463</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31885,7 +31885,7 @@
         <v>44481</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31942,7 +31942,7 @@
         <v>44484</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31999,7 +31999,7 @@
         <v>44484</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32056,7 +32056,7 @@
         <v>44490</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32113,7 +32113,7 @@
         <v>44490</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32170,7 +32170,7 @@
         <v>44491</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32227,7 +32227,7 @@
         <v>44491</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32284,7 +32284,7 @@
         <v>44494</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32341,7 +32341,7 @@
         <v>44497</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32398,7 +32398,7 @@
         <v>44501</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32455,7 +32455,7 @@
         <v>44502</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32512,7 +32512,7 @@
         <v>44503</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32569,7 +32569,7 @@
         <v>44503</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         <v>44505</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32683,7 +32683,7 @@
         <v>44508</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32740,7 +32740,7 @@
         <v>44511</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32797,7 +32797,7 @@
         <v>44517</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32854,7 +32854,7 @@
         <v>44522</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>44523</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32973,7 +32973,7 @@
         <v>44526</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>44533</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33087,7 +33087,7 @@
         <v>44536</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33144,7 +33144,7 @@
         <v>44536</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33201,7 +33201,7 @@
         <v>44539</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33258,7 +33258,7 @@
         <v>44544</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
         <v>44545</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33372,7 +33372,7 @@
         <v>44551</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33429,7 +33429,7 @@
         <v>44564</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44566</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33543,7 +33543,7 @@
         <v>44585</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33600,7 +33600,7 @@
         <v>44594</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33657,7 +33657,7 @@
         <v>44602</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33714,7 +33714,7 @@
         <v>44603</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>44603</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>44608</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33895,7 +33895,7 @@
         <v>44613</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44613</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>44618</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44619</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>44627</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>44627</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>44629</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>44629</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44630</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44638</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44648</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44665</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44665</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44665</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44665</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44665</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44665</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44671</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>44671</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>44672</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>44673</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>44675</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35211,7 +35211,7 @@
         <v>44675</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44676</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44679</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44683</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44684</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>44685</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>44686</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>44690</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>44691</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>44691</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>44691</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>44691</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>44697</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35962,7 +35962,7 @@
         <v>44701</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         <v>44701</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>44714</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44728</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>44728</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>44742</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36304,7 +36304,7 @@
         <v>44753</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
         <v>44754</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36418,7 +36418,7 @@
         <v>44777</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36475,7 +36475,7 @@
         <v>44784</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44789</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>44789</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>44789</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>44790</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36760,7 +36760,7 @@
         <v>44791</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36817,7 +36817,7 @@
         <v>44796</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36874,7 +36874,7 @@
         <v>44806</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36931,7 +36931,7 @@
         <v>44810</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36988,7 +36988,7 @@
         <v>44819</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37045,7 +37045,7 @@
         <v>44820</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37102,7 +37102,7 @@
         <v>44822</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37159,7 +37159,7 @@
         <v>44825</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44833</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44837</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>44841</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37397,7 +37397,7 @@
         <v>44841</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>44846</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37511,7 +37511,7 @@
         <v>44860</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>44860</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37630,7 +37630,7 @@
         <v>44860</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37692,7 +37692,7 @@
         <v>44862</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37754,7 +37754,7 @@
         <v>44862</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
         <v>44872</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37873,7 +37873,7 @@
         <v>44883</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37930,7 +37930,7 @@
         <v>44883</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37987,7 +37987,7 @@
         <v>44889</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38044,7 +38044,7 @@
         <v>44893</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38101,7 +38101,7 @@
         <v>44894</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38158,7 +38158,7 @@
         <v>44895</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38215,7 +38215,7 @@
         <v>44900</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38272,7 +38272,7 @@
         <v>44902</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38329,7 +38329,7 @@
         <v>44902</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         <v>44902</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38448,7 +38448,7 @@
         <v>44902</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38510,7 +38510,7 @@
         <v>44902</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38567,7 +38567,7 @@
         <v>44904</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38624,7 +38624,7 @@
         <v>44909</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38681,7 +38681,7 @@
         <v>44911</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38738,7 +38738,7 @@
         <v>44916</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38795,7 +38795,7 @@
         <v>44924</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38852,7 +38852,7 @@
         <v>44927</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38909,7 +38909,7 @@
         <v>44928</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38966,7 +38966,7 @@
         <v>44945</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39023,7 +39023,7 @@
         <v>44945</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39080,7 +39080,7 @@
         <v>44946</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39137,7 +39137,7 @@
         <v>44949</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39194,7 +39194,7 @@
         <v>44949</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>44949</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39308,7 +39308,7 @@
         <v>44950</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39365,7 +39365,7 @@
         <v>44957</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>44963</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39479,7 +39479,7 @@
         <v>44970</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39536,7 +39536,7 @@
         <v>44974</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39593,7 +39593,7 @@
         <v>44974</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39650,7 +39650,7 @@
         <v>44977</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39712,7 +39712,7 @@
         <v>44978</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39769,7 +39769,7 @@
         <v>44978</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         <v>44979</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39883,7 +39883,7 @@
         <v>44979</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39940,7 +39940,7 @@
         <v>44981</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39997,7 +39997,7 @@
         <v>44981</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40054,7 +40054,7 @@
         <v>44981</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40111,7 +40111,7 @@
         <v>44984</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40168,7 +40168,7 @@
         <v>44988</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40230,7 +40230,7 @@
         <v>44990</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40287,7 +40287,7 @@
         <v>44990</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40344,7 +40344,7 @@
         <v>44993</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>45005</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>45005</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>45005</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>45005</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>45007</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>45008</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40768,7 +40768,7 @@
         <v>45016</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40825,7 +40825,7 @@
         <v>45021</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>45025</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>45027</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>45030</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41058,7 +41058,7 @@
         <v>45035</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41115,7 +41115,7 @@
         <v>45036</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41172,7 +41172,7 @@
         <v>45040</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41234,7 +41234,7 @@
         <v>45043</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41291,7 +41291,7 @@
         <v>45048</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41348,7 +41348,7 @@
         <v>45050</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41405,7 +41405,7 @@
         <v>45054</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41462,7 +41462,7 @@
         <v>45054</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>45054</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>45054</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>45054</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>45056</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45057</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41804,7 +41804,7 @@
         <v>45061</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41861,7 +41861,7 @@
         <v>45063</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41918,7 +41918,7 @@
         <v>45068</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41975,7 +41975,7 @@
         <v>45068</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42032,7 +42032,7 @@
         <v>45071</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42094,7 +42094,7 @@
         <v>45071</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42156,7 +42156,7 @@
         <v>45072</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45072</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42280,7 +42280,7 @@
         <v>45072</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42342,7 +42342,7 @@
         <v>45072</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42404,7 +42404,7 @@
         <v>45074</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42461,7 +42461,7 @@
         <v>45075</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42523,7 +42523,7 @@
         <v>45075</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>45077</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42647,7 +42647,7 @@
         <v>45077</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42709,7 +42709,7 @@
         <v>45077</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42771,7 +42771,7 @@
         <v>45077</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42833,7 +42833,7 @@
         <v>45079</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>45079</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         <v>45079</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43019,7 +43019,7 @@
         <v>45082</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43081,7 +43081,7 @@
         <v>45085</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43138,7 +43138,7 @@
         <v>45095</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43195,7 +43195,7 @@
         <v>45095</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43252,7 +43252,7 @@
         <v>45096</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43314,7 +43314,7 @@
         <v>45096</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43376,7 +43376,7 @@
         <v>45099</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>45103</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43495,7 +43495,7 @@
         <v>45103</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43552,7 +43552,7 @@
         <v>45104</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43614,7 +43614,7 @@
         <v>45106</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43671,7 +43671,7 @@
         <v>45107</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45107</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45107</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45107</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43909,7 +43909,7 @@
         <v>45110</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43971,7 +43971,7 @@
         <v>45111</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44028,7 +44028,7 @@
         <v>45113</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44085,7 +44085,7 @@
         <v>45113</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44142,7 +44142,7 @@
         <v>45119</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>45119</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>45119</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>45119</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>45119</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44452,7 +44452,7 @@
         <v>45121</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>45131</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>45138</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>45140</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>45142</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>45142</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>45145</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>45147</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45148</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45149</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45149</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45166,7 +45166,7 @@
         <v>45152</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45152</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45290,7 +45290,7 @@
         <v>45155</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>45170</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45409,7 +45409,7 @@
         <v>45170</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>

--- a/Översikt LINDESBERG.xlsx
+++ b/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43746</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43759</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44406</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         <v>43766</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43759</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44060</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43732</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43732</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>43878</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44280</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>44320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>44472</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44484</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45021</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43526</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43560</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43588</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43737</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43746</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43746</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43766</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43773</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43936</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44320</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44484</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44512</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44522</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>44536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44789</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44979</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>45075</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45075</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45099</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>45099</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>45138</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45138</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>45160</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43339</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43374</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43390</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43390</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43409</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>43423</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>43429</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43441</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43444</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43444</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43453</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43467</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43467</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43468</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43468</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43468</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43479</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43494</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43497</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43500</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43521</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43523</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43524</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43526</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43529</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>43535</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>43538</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43539</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>43544</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43551</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43553</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43557</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43560</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43560</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43563</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43564</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43567</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43570</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43571</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43571</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43579</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43580</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43581</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43588</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43588</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>43588</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43588</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43592</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43592</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43594</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43594</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43594</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43598</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43598</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43599</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43599</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43599</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43600</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43601</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43601</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43601</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43605</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43605</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43606</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43608</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43612</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43612</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43616</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43619</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43626</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>43628</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43630</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43633</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43633</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43634</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43634</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43635</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43636</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>43642</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43642</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>43643</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43643</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43643</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43643</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43643</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12858,7 +12858,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43644</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>43655</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>43656</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>43661</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>43661</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>43663</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>43669</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43671</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43678</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43679</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43680</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43680</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43683</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43684</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43685</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43689</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43691</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43693</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43699</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43699</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43699</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43710</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43713</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43713</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43713</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43717</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>43720</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>43720</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>43723</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>43725</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43725</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43731</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>43731</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>43734</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>43734</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>43734</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>43738</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>43738</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>43740</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>43740</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>43740</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>43740</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>43745</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>43745</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>43746</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>43749</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>43749</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>43752</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>43752</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43755</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43755</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>43761</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>43762</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>43762</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>43764</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>43766</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>43766</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>43766</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>43766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>43767</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>43767</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>43773</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>43780</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>43786</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>43786</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>43788</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>43788</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43790</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43790</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43792</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43800</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43800</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43804</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43805</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43805</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43809</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43810</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43817</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43826</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43837</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43844</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43845</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43857</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43860</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43860</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>43861</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>43865</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>43866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>43867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>43871</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>43871</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43872</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>43875</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43885</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43892</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43895</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>43895</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>43897</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43899</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>43900</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>43900</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>43902</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>43904</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43904</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>43904</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>43907</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43910</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>43913</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>43914</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43921</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43923</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43923</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>43929</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>43930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>43941</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>43947</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20485,7 +20485,7 @@
         <v>43948</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43948</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43957</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43958</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43962</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43962</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43962</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43962</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43966</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>43969</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>43969</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>43971</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>43984</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>43984</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>43993</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>43999</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44000</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44000</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44000</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44004</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44005</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         <v>44006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>44006</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21940,7 +21940,7 @@
         <v>44006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21997,7 +21997,7 @@
         <v>44006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>44007</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44007</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44013</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44016</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44016</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44018</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>44018</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         <v>44018</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>44018</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>44018</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22639,7 +22639,7 @@
         <v>44020</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44046</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44047</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44049</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>44053</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44063</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44063</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44064</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44067</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44069</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>44069</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>44069</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>44069</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>44069</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44071</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44073</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>44076</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>44076</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44083</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>44085</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>44085</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44088</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>44088</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>44088</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>44091</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44091</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>44098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>44102</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>44102</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>44104</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>44107</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44113</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44113</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44113</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44114</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44116</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>44123</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>44123</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24959,7 +24959,7 @@
         <v>44124</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25016,7 +25016,7 @@
         <v>44124</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>44126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44126</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44126</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44130</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44133</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44145</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44150</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44151</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44151</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44154</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44161</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25715,7 +25715,7 @@
         <v>44162</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25772,7 +25772,7 @@
         <v>44162</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>44162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>44167</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>44169</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44169</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44171</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44175</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44176</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>44176</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44179</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44179</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>44183</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44187</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26558,7 +26558,7 @@
         <v>44187</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26615,7 +26615,7 @@
         <v>44197</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26672,7 +26672,7 @@
         <v>44201</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26729,7 +26729,7 @@
         <v>44208</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44210</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44224</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44227</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44228</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44231</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44236</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44242</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44242</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44257</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>44258</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44258</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44259</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44259</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44259</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44263</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44267</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44267</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27780,7 +27780,7 @@
         <v>44267</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         <v>44271</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27894,7 +27894,7 @@
         <v>44273</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>44276</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28008,7 +28008,7 @@
         <v>44276</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28065,7 +28065,7 @@
         <v>44280</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>44281</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>44298</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>44300</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28298,7 +28298,7 @@
         <v>44300</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28355,7 +28355,7 @@
         <v>44301</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>44305</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>44308</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44319</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44325</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44326</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44327</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44332</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44348</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44348</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>44355</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44357</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>44361</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>44363</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>44375</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>44375</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44375</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>44375</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>44375</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>44376</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>44377</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>44377</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>44378</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29711,7 +29711,7 @@
         <v>44383</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>44386</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>44389</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>44389</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>44389</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>44389</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30068,7 +30068,7 @@
         <v>44389</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>44389</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>44389</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30244,7 +30244,7 @@
         <v>44389</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         <v>44420</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30363,7 +30363,7 @@
         <v>44420</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30420,7 +30420,7 @@
         <v>44425</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30482,7 +30482,7 @@
         <v>44425</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>44425</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44431</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44431</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44432</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30782,7 +30782,7 @@
         <v>44434</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30839,7 +30839,7 @@
         <v>44438</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30901,7 +30901,7 @@
         <v>44445</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30963,7 +30963,7 @@
         <v>44445</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31025,7 +31025,7 @@
         <v>44446</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31082,7 +31082,7 @@
         <v>44447</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31139,7 +31139,7 @@
         <v>44447</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>44449</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31253,7 +31253,7 @@
         <v>44449</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31310,7 +31310,7 @@
         <v>44451</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31367,7 +31367,7 @@
         <v>44452</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>44453</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31481,7 +31481,7 @@
         <v>44453</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31538,7 +31538,7 @@
         <v>44456</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>44457</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44460</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44461</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>44462</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31828,7 +31828,7 @@
         <v>44463</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31885,7 +31885,7 @@
         <v>44481</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31942,7 +31942,7 @@
         <v>44484</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31999,7 +31999,7 @@
         <v>44484</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32056,7 +32056,7 @@
         <v>44490</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32113,7 +32113,7 @@
         <v>44490</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32170,7 +32170,7 @@
         <v>44491</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32227,7 +32227,7 @@
         <v>44491</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32284,7 +32284,7 @@
         <v>44494</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32341,7 +32341,7 @@
         <v>44497</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32398,7 +32398,7 @@
         <v>44501</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32455,7 +32455,7 @@
         <v>44502</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32512,7 +32512,7 @@
         <v>44503</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32569,7 +32569,7 @@
         <v>44503</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         <v>44505</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32683,7 +32683,7 @@
         <v>44508</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32740,7 +32740,7 @@
         <v>44511</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32797,7 +32797,7 @@
         <v>44517</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32854,7 +32854,7 @@
         <v>44522</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>44523</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32973,7 +32973,7 @@
         <v>44526</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>44533</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33087,7 +33087,7 @@
         <v>44536</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33144,7 +33144,7 @@
         <v>44536</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33201,7 +33201,7 @@
         <v>44539</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33258,7 +33258,7 @@
         <v>44544</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
         <v>44545</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33372,7 +33372,7 @@
         <v>44551</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33429,7 +33429,7 @@
         <v>44564</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44566</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33543,7 +33543,7 @@
         <v>44585</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33600,7 +33600,7 @@
         <v>44594</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33657,7 +33657,7 @@
         <v>44602</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33714,7 +33714,7 @@
         <v>44603</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>44603</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>44608</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33895,7 +33895,7 @@
         <v>44613</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44613</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>44618</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44619</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>44627</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>44627</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>44629</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>44629</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44630</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44638</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44648</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44665</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44665</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44665</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44665</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44665</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44665</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44671</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>44671</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>44672</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>44673</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>44675</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35211,7 +35211,7 @@
         <v>44675</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44676</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44679</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44683</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44684</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>44685</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>44686</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>44690</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>44691</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>44691</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>44691</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>44691</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>44697</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35962,7 +35962,7 @@
         <v>44701</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         <v>44701</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>44714</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44728</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>44728</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>44742</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36304,7 +36304,7 @@
         <v>44753</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
         <v>44754</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36418,7 +36418,7 @@
         <v>44777</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36475,7 +36475,7 @@
         <v>44784</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44789</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>44789</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>44789</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>44790</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36760,7 +36760,7 @@
         <v>44791</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36817,7 +36817,7 @@
         <v>44796</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36874,7 +36874,7 @@
         <v>44806</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36931,7 +36931,7 @@
         <v>44810</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36988,7 +36988,7 @@
         <v>44819</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37045,7 +37045,7 @@
         <v>44820</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37102,7 +37102,7 @@
         <v>44822</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37159,7 +37159,7 @@
         <v>44825</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44833</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44837</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>44841</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37397,7 +37397,7 @@
         <v>44841</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>44846</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37511,7 +37511,7 @@
         <v>44860</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>44860</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37630,7 +37630,7 @@
         <v>44860</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37692,7 +37692,7 @@
         <v>44862</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37754,7 +37754,7 @@
         <v>44862</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
         <v>44872</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37873,7 +37873,7 @@
         <v>44883</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37930,7 +37930,7 @@
         <v>44883</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37987,7 +37987,7 @@
         <v>44889</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38044,7 +38044,7 @@
         <v>44893</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38101,7 +38101,7 @@
         <v>44894</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38158,7 +38158,7 @@
         <v>44895</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38215,7 +38215,7 @@
         <v>44900</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38272,7 +38272,7 @@
         <v>44902</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38329,7 +38329,7 @@
         <v>44902</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         <v>44902</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38448,7 +38448,7 @@
         <v>44902</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38510,7 +38510,7 @@
         <v>44902</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38567,7 +38567,7 @@
         <v>44904</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38624,7 +38624,7 @@
         <v>44909</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38681,7 +38681,7 @@
         <v>44911</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38738,7 +38738,7 @@
         <v>44916</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38795,7 +38795,7 @@
         <v>44924</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38852,7 +38852,7 @@
         <v>44927</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38909,7 +38909,7 @@
         <v>44928</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38966,7 +38966,7 @@
         <v>44945</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39023,7 +39023,7 @@
         <v>44945</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39080,7 +39080,7 @@
         <v>44946</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39137,7 +39137,7 @@
         <v>44949</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39194,7 +39194,7 @@
         <v>44949</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>44949</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39308,7 +39308,7 @@
         <v>44950</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39365,7 +39365,7 @@
         <v>44957</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>44963</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39479,7 +39479,7 @@
         <v>44970</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39536,7 +39536,7 @@
         <v>44974</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39593,7 +39593,7 @@
         <v>44974</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39650,7 +39650,7 @@
         <v>44977</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39712,7 +39712,7 @@
         <v>44978</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39769,7 +39769,7 @@
         <v>44978</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         <v>44979</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39883,7 +39883,7 @@
         <v>44979</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39940,7 +39940,7 @@
         <v>44981</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39997,7 +39997,7 @@
         <v>44981</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40054,7 +40054,7 @@
         <v>44981</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40111,7 +40111,7 @@
         <v>44984</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40168,7 +40168,7 @@
         <v>44988</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40230,7 +40230,7 @@
         <v>44990</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40287,7 +40287,7 @@
         <v>44990</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40344,7 +40344,7 @@
         <v>44993</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>45005</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>45005</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>45005</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>45005</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>45007</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>45008</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40768,7 +40768,7 @@
         <v>45016</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40825,7 +40825,7 @@
         <v>45021</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>45025</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>45027</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>45030</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41058,7 +41058,7 @@
         <v>45035</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41115,7 +41115,7 @@
         <v>45036</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41172,7 +41172,7 @@
         <v>45040</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41234,7 +41234,7 @@
         <v>45043</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41291,7 +41291,7 @@
         <v>45048</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41348,7 +41348,7 @@
         <v>45050</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41405,7 +41405,7 @@
         <v>45054</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41462,7 +41462,7 @@
         <v>45054</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>45054</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>45054</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>45054</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>45056</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45057</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41804,7 +41804,7 @@
         <v>45061</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41861,7 +41861,7 @@
         <v>45063</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41918,7 +41918,7 @@
         <v>45068</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41975,7 +41975,7 @@
         <v>45068</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42032,7 +42032,7 @@
         <v>45071</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42094,7 +42094,7 @@
         <v>45071</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42156,7 +42156,7 @@
         <v>45072</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45072</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42280,7 +42280,7 @@
         <v>45072</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42342,7 +42342,7 @@
         <v>45072</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42404,7 +42404,7 @@
         <v>45074</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42461,7 +42461,7 @@
         <v>45075</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42523,7 +42523,7 @@
         <v>45075</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>45077</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42647,7 +42647,7 @@
         <v>45077</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42709,7 +42709,7 @@
         <v>45077</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42771,7 +42771,7 @@
         <v>45077</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42833,7 +42833,7 @@
         <v>45079</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>45079</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         <v>45079</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43019,7 +43019,7 @@
         <v>45082</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43081,7 +43081,7 @@
         <v>45085</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43138,7 +43138,7 @@
         <v>45095</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43195,7 +43195,7 @@
         <v>45095</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43252,7 +43252,7 @@
         <v>45096</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43314,7 +43314,7 @@
         <v>45096</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43376,7 +43376,7 @@
         <v>45099</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>45103</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43495,7 +43495,7 @@
         <v>45103</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43552,7 +43552,7 @@
         <v>45104</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43614,7 +43614,7 @@
         <v>45106</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43671,7 +43671,7 @@
         <v>45107</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45107</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45107</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45107</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43909,7 +43909,7 @@
         <v>45110</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43971,7 +43971,7 @@
         <v>45111</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44028,7 +44028,7 @@
         <v>45113</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44085,7 +44085,7 @@
         <v>45113</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44142,7 +44142,7 @@
         <v>45119</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>45119</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>45119</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>45119</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>45119</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44452,7 +44452,7 @@
         <v>45121</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>45131</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>45138</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>45140</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>45142</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>45142</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>45145</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>45147</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45148</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45149</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45149</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45166,7 +45166,7 @@
         <v>45152</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45152</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45290,7 +45290,7 @@
         <v>45155</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>45170</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45409,7 +45409,7 @@
         <v>45170</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>

--- a/Översikt LINDESBERG.xlsx
+++ b/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43746</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43759</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44406</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         <v>43766</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43759</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44060</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43732</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43732</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>43878</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44280</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>44320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>44472</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44484</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45021</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43526</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43560</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43588</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43737</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43746</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43746</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43766</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43773</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43936</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44320</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44484</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44512</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44522</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>44536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44789</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44979</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>45075</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45075</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45099</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>45099</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>45138</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45138</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>45160</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43339</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43374</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43390</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43390</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43409</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>43423</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>43429</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43441</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43444</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43444</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43453</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43467</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43467</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43468</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43468</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43468</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43479</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43494</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43497</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43500</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43521</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43523</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43524</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43526</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43529</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>43535</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>43538</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43539</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>43544</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43551</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43553</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43557</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43560</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43560</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43563</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43564</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43567</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43570</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43571</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43571</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43579</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43580</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43581</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43588</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43588</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>43588</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43588</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43592</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43592</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43594</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43594</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43594</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43598</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43598</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43599</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43599</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43599</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43600</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43601</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43601</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43601</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43605</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43605</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43606</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43608</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43612</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43612</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43616</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43619</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43626</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>43628</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43630</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43633</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43633</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43634</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43634</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43635</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43636</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>43642</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43642</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>43643</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43643</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43643</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43643</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43643</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12858,7 +12858,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43644</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>43655</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>43656</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>43661</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>43661</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>43663</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>43669</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43671</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43678</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43679</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43680</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43680</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43683</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43684</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43685</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43689</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43691</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43693</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43699</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43699</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43699</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43710</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43713</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43713</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43713</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43717</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>43720</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>43720</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>43723</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>43725</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43725</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43731</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>43731</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>43734</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>43734</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>43734</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>43738</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>43738</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>43740</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>43740</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>43740</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>43740</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>43745</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>43745</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>43746</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>43749</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>43749</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>43752</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>43752</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43755</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43755</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>43761</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>43762</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>43762</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>43764</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>43766</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>43766</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>43766</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>43766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>43767</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>43767</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>43773</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>43780</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>43786</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>43786</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>43788</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>43788</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43790</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43790</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43792</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43800</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43800</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43804</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43805</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43805</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43809</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43810</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43817</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43826</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43837</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43844</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43845</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43857</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43860</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43860</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>43861</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>43865</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>43866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>43867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>43871</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>43871</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43872</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>43875</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43885</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43892</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43895</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>43895</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>43897</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43899</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>43900</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>43900</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>43902</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>43904</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43904</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>43904</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>43907</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43910</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>43913</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>43914</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43921</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43923</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43923</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>43929</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>43930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>43941</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>43947</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20485,7 +20485,7 @@
         <v>43948</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43948</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43957</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43958</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43962</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43962</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43962</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43962</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43966</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>43969</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>43969</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>43971</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>43984</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>43984</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>43993</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>43999</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44000</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44000</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44000</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44004</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44005</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         <v>44006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>44006</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21940,7 +21940,7 @@
         <v>44006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21997,7 +21997,7 @@
         <v>44006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>44007</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44007</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44013</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44016</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44016</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44018</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>44018</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         <v>44018</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>44018</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>44018</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22639,7 +22639,7 @@
         <v>44020</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44046</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44047</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44049</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>44053</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44063</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44063</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44064</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44067</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44069</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>44069</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>44069</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>44069</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>44069</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44071</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44073</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>44076</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>44076</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44083</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>44085</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>44085</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44088</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>44088</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>44088</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>44091</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44091</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>44098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>44102</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>44102</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>44104</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>44107</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44113</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44113</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44113</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44114</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44116</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>44123</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>44123</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24959,7 +24959,7 @@
         <v>44124</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25016,7 +25016,7 @@
         <v>44124</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>44126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44126</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44126</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44130</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44133</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44145</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44150</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44151</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44151</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44154</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44161</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25715,7 +25715,7 @@
         <v>44162</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25772,7 +25772,7 @@
         <v>44162</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>44162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>44167</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>44169</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44169</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44171</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44175</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44176</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>44176</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44179</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44179</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>44183</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44187</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26558,7 +26558,7 @@
         <v>44187</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26615,7 +26615,7 @@
         <v>44197</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26672,7 +26672,7 @@
         <v>44201</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26729,7 +26729,7 @@
         <v>44208</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44210</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44224</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44227</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44228</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44231</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44236</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44242</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44242</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44257</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>44258</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44258</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44259</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44259</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44259</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44263</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44267</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44267</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27780,7 +27780,7 @@
         <v>44267</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         <v>44271</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27894,7 +27894,7 @@
         <v>44273</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>44276</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28008,7 +28008,7 @@
         <v>44276</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28065,7 +28065,7 @@
         <v>44280</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>44281</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>44298</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>44300</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28298,7 +28298,7 @@
         <v>44300</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28355,7 +28355,7 @@
         <v>44301</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>44305</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>44308</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44319</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44325</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44326</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44327</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44332</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44348</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44348</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>44355</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44357</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>44361</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>44363</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>44375</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>44375</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44375</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>44375</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>44375</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>44376</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>44377</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>44377</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>44378</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29711,7 +29711,7 @@
         <v>44383</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>44386</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>44389</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>44389</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>44389</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>44389</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30068,7 +30068,7 @@
         <v>44389</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>44389</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>44389</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30244,7 +30244,7 @@
         <v>44389</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         <v>44420</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30363,7 +30363,7 @@
         <v>44420</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30420,7 +30420,7 @@
         <v>44425</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30482,7 +30482,7 @@
         <v>44425</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>44425</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44431</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44431</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44432</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30782,7 +30782,7 @@
         <v>44434</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30839,7 +30839,7 @@
         <v>44438</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30901,7 +30901,7 @@
         <v>44445</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30963,7 +30963,7 @@
         <v>44445</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31025,7 +31025,7 @@
         <v>44446</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31082,7 +31082,7 @@
         <v>44447</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31139,7 +31139,7 @@
         <v>44447</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>44449</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31253,7 +31253,7 @@
         <v>44449</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31310,7 +31310,7 @@
         <v>44451</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31367,7 +31367,7 @@
         <v>44452</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>44453</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31481,7 +31481,7 @@
         <v>44453</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31538,7 +31538,7 @@
         <v>44456</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>44457</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44460</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44461</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>44462</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31828,7 +31828,7 @@
         <v>44463</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31885,7 +31885,7 @@
         <v>44481</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31942,7 +31942,7 @@
         <v>44484</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31999,7 +31999,7 @@
         <v>44484</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32056,7 +32056,7 @@
         <v>44490</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32113,7 +32113,7 @@
         <v>44490</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32170,7 +32170,7 @@
         <v>44491</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32227,7 +32227,7 @@
         <v>44491</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32284,7 +32284,7 @@
         <v>44494</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32341,7 +32341,7 @@
         <v>44497</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32398,7 +32398,7 @@
         <v>44501</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32455,7 +32455,7 @@
         <v>44502</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32512,7 +32512,7 @@
         <v>44503</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32569,7 +32569,7 @@
         <v>44503</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         <v>44505</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32683,7 +32683,7 @@
         <v>44508</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32740,7 +32740,7 @@
         <v>44511</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32797,7 +32797,7 @@
         <v>44517</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32854,7 +32854,7 @@
         <v>44522</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>44523</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32973,7 +32973,7 @@
         <v>44526</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>44533</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33087,7 +33087,7 @@
         <v>44536</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33144,7 +33144,7 @@
         <v>44536</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33201,7 +33201,7 @@
         <v>44539</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33258,7 +33258,7 @@
         <v>44544</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
         <v>44545</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33372,7 +33372,7 @@
         <v>44551</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33429,7 +33429,7 @@
         <v>44564</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44566</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33543,7 +33543,7 @@
         <v>44585</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33600,7 +33600,7 @@
         <v>44594</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33657,7 +33657,7 @@
         <v>44602</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33714,7 +33714,7 @@
         <v>44603</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>44603</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>44608</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33895,7 +33895,7 @@
         <v>44613</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44613</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>44618</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44619</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>44627</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>44627</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>44629</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>44629</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44630</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44638</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44648</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44665</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44665</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44665</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44665</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44665</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44665</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44671</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>44671</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>44672</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>44673</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>44675</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35211,7 +35211,7 @@
         <v>44675</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44676</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44679</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44683</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44684</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>44685</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>44686</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>44690</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>44691</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>44691</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>44691</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>44691</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>44697</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35962,7 +35962,7 @@
         <v>44701</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         <v>44701</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>44714</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44728</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>44728</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>44742</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36304,7 +36304,7 @@
         <v>44753</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
         <v>44754</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36418,7 +36418,7 @@
         <v>44777</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36475,7 +36475,7 @@
         <v>44784</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44789</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>44789</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>44789</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>44790</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36760,7 +36760,7 @@
         <v>44791</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36817,7 +36817,7 @@
         <v>44796</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36874,7 +36874,7 @@
         <v>44806</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36931,7 +36931,7 @@
         <v>44810</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36988,7 +36988,7 @@
         <v>44819</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37045,7 +37045,7 @@
         <v>44820</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37102,7 +37102,7 @@
         <v>44822</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37159,7 +37159,7 @@
         <v>44825</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44833</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44837</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>44841</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37397,7 +37397,7 @@
         <v>44841</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>44846</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37511,7 +37511,7 @@
         <v>44860</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>44860</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37630,7 +37630,7 @@
         <v>44860</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37692,7 +37692,7 @@
         <v>44862</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37754,7 +37754,7 @@
         <v>44862</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
         <v>44872</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37873,7 +37873,7 @@
         <v>44883</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37930,7 +37930,7 @@
         <v>44883</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37987,7 +37987,7 @@
         <v>44889</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38044,7 +38044,7 @@
         <v>44893</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38101,7 +38101,7 @@
         <v>44894</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38158,7 +38158,7 @@
         <v>44895</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38215,7 +38215,7 @@
         <v>44900</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38272,7 +38272,7 @@
         <v>44902</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38329,7 +38329,7 @@
         <v>44902</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         <v>44902</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38448,7 +38448,7 @@
         <v>44902</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38510,7 +38510,7 @@
         <v>44902</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38567,7 +38567,7 @@
         <v>44904</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38624,7 +38624,7 @@
         <v>44909</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38681,7 +38681,7 @@
         <v>44911</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38738,7 +38738,7 @@
         <v>44916</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38795,7 +38795,7 @@
         <v>44924</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38852,7 +38852,7 @@
         <v>44927</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38909,7 +38909,7 @@
         <v>44928</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38966,7 +38966,7 @@
         <v>44945</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39023,7 +39023,7 @@
         <v>44945</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39080,7 +39080,7 @@
         <v>44946</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39137,7 +39137,7 @@
         <v>44949</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39194,7 +39194,7 @@
         <v>44949</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>44949</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39308,7 +39308,7 @@
         <v>44950</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39365,7 +39365,7 @@
         <v>44957</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>44963</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39479,7 +39479,7 @@
         <v>44970</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39536,7 +39536,7 @@
         <v>44974</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39593,7 +39593,7 @@
         <v>44974</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39650,7 +39650,7 @@
         <v>44977</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39712,7 +39712,7 @@
         <v>44978</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39769,7 +39769,7 @@
         <v>44978</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         <v>44979</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39883,7 +39883,7 @@
         <v>44979</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39940,7 +39940,7 @@
         <v>44981</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39997,7 +39997,7 @@
         <v>44981</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40054,7 +40054,7 @@
         <v>44981</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40111,7 +40111,7 @@
         <v>44984</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40168,7 +40168,7 @@
         <v>44988</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40230,7 +40230,7 @@
         <v>44990</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40287,7 +40287,7 @@
         <v>44990</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40344,7 +40344,7 @@
         <v>44993</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>45005</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>45005</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>45005</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>45005</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>45007</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>45008</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40768,7 +40768,7 @@
         <v>45016</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40825,7 +40825,7 @@
         <v>45021</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>45025</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>45027</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>45030</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41058,7 +41058,7 @@
         <v>45035</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41115,7 +41115,7 @@
         <v>45036</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41172,7 +41172,7 @@
         <v>45040</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41234,7 +41234,7 @@
         <v>45043</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41291,7 +41291,7 @@
         <v>45048</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41348,7 +41348,7 @@
         <v>45050</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41405,7 +41405,7 @@
         <v>45054</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41462,7 +41462,7 @@
         <v>45054</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>45054</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>45054</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>45054</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>45056</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45057</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41804,7 +41804,7 @@
         <v>45061</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41861,7 +41861,7 @@
         <v>45063</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41918,7 +41918,7 @@
         <v>45068</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41975,7 +41975,7 @@
         <v>45068</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42032,7 +42032,7 @@
         <v>45071</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42094,7 +42094,7 @@
         <v>45071</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42156,7 +42156,7 @@
         <v>45072</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45072</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42280,7 +42280,7 @@
         <v>45072</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42342,7 +42342,7 @@
         <v>45072</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42404,7 +42404,7 @@
         <v>45074</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42461,7 +42461,7 @@
         <v>45075</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42523,7 +42523,7 @@
         <v>45075</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>45077</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42647,7 +42647,7 @@
         <v>45077</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42709,7 +42709,7 @@
         <v>45077</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42771,7 +42771,7 @@
         <v>45077</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42833,7 +42833,7 @@
         <v>45079</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>45079</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         <v>45079</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43019,7 +43019,7 @@
         <v>45082</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43081,7 +43081,7 @@
         <v>45085</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43138,7 +43138,7 @@
         <v>45095</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43195,7 +43195,7 @@
         <v>45095</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43252,7 +43252,7 @@
         <v>45096</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43314,7 +43314,7 @@
         <v>45096</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43376,7 +43376,7 @@
         <v>45099</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>45103</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43495,7 +43495,7 @@
         <v>45103</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43552,7 +43552,7 @@
         <v>45104</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43614,7 +43614,7 @@
         <v>45106</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43671,7 +43671,7 @@
         <v>45107</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45107</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45107</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45107</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43909,7 +43909,7 @@
         <v>45110</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43971,7 +43971,7 @@
         <v>45111</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44028,7 +44028,7 @@
         <v>45113</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44085,7 +44085,7 @@
         <v>45113</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44142,7 +44142,7 @@
         <v>45119</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>45119</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>45119</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>45119</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>45119</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44452,7 +44452,7 @@
         <v>45121</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>45131</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>45138</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>45140</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>45142</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>45142</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>45145</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>45147</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45148</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45149</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45149</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45166,7 +45166,7 @@
         <v>45152</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45152</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45290,7 +45290,7 @@
         <v>45155</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>45170</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45409,7 +45409,7 @@
         <v>45170</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>

--- a/Översikt LINDESBERG.xlsx
+++ b/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43746</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43759</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44406</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         <v>43766</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43759</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44060</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43732</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43732</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>43878</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44280</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>44320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>44472</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44484</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45021</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43526</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43560</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43588</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43737</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43746</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43746</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43766</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43773</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43936</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44320</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44484</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44512</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44522</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>44536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44789</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44979</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>45075</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45075</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45099</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>45099</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>45138</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45138</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>45160</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43339</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43374</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43390</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43390</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43409</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>43423</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>43429</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43441</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43444</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43444</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43453</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43467</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43467</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43468</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43468</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43468</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43479</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43494</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43497</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43500</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43521</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43523</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43524</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43526</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43529</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>43535</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>43538</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43539</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>43544</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43551</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43553</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43557</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43560</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43560</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43563</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43564</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43567</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43570</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43571</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43571</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43579</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43580</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43581</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43588</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43588</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>43588</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43588</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43592</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43592</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43594</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43594</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43594</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43598</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43598</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43599</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43599</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43599</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43600</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43601</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43601</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43601</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43605</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43605</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43606</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43608</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43612</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43612</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43616</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43619</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43626</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>43628</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43630</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43633</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43633</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43634</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43634</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43635</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43636</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>43642</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43642</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>43643</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43643</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43643</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43643</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43643</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12858,7 +12858,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43644</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>43655</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>43656</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>43661</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>43661</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>43663</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>43669</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43671</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43678</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43679</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43680</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43680</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43683</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43684</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43685</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43689</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43691</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43693</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43699</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43699</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43699</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43710</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43713</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43713</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43713</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43717</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>43720</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>43720</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>43723</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>43725</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43725</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43731</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>43731</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>43734</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>43734</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>43734</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>43738</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>43738</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>43740</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>43740</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>43740</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>43740</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>43745</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>43745</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>43746</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>43749</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>43749</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>43752</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>43752</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43755</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43755</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>43761</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>43762</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>43762</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>43764</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>43766</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>43766</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>43766</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>43766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>43767</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>43767</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>43773</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>43780</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>43786</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>43786</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>43788</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>43788</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43790</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43790</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43792</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43800</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43800</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43804</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43805</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43805</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43809</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43810</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43817</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43826</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43837</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43844</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43845</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43857</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43860</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43860</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>43861</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>43865</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>43866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>43867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>43871</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>43871</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43872</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>43875</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43885</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43892</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43895</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>43895</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>43897</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43899</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>43900</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>43900</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>43902</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>43904</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43904</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>43904</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>43907</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43910</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>43913</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>43914</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43921</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43923</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43923</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>43929</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>43930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>43941</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>43947</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20485,7 +20485,7 @@
         <v>43948</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43948</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43957</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43958</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43962</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43962</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43962</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43962</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43966</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>43969</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>43969</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>43971</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>43984</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>43984</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>43993</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>43999</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44000</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44000</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44000</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44004</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44005</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         <v>44006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>44006</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21940,7 +21940,7 @@
         <v>44006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21997,7 +21997,7 @@
         <v>44006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>44007</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44007</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44013</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44016</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44016</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44018</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>44018</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         <v>44018</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>44018</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>44018</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22639,7 +22639,7 @@
         <v>44020</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44046</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44047</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44049</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>44053</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44063</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44063</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44064</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44067</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44069</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>44069</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>44069</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>44069</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>44069</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44071</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44073</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>44076</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>44076</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44083</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>44085</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>44085</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44088</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>44088</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>44088</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>44091</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44091</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>44098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>44102</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>44102</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>44104</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>44107</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44113</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44113</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44113</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44114</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44116</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>44123</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>44123</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24959,7 +24959,7 @@
         <v>44124</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25016,7 +25016,7 @@
         <v>44124</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>44126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44126</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44126</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44130</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44133</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44145</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44150</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44151</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44151</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44154</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44161</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25715,7 +25715,7 @@
         <v>44162</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25772,7 +25772,7 @@
         <v>44162</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>44162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>44167</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>44169</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44169</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44171</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44175</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44176</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>44176</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44179</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44179</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>44183</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44187</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26558,7 +26558,7 @@
         <v>44187</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26615,7 +26615,7 @@
         <v>44197</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26672,7 +26672,7 @@
         <v>44201</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26729,7 +26729,7 @@
         <v>44208</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44210</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44224</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44227</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44228</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44231</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44236</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44242</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44242</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44257</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>44258</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44258</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44259</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44259</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44259</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44263</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44267</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44267</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27780,7 +27780,7 @@
         <v>44267</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         <v>44271</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27894,7 +27894,7 @@
         <v>44273</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>44276</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28008,7 +28008,7 @@
         <v>44276</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28065,7 +28065,7 @@
         <v>44280</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>44281</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>44298</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>44300</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28298,7 +28298,7 @@
         <v>44300</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28355,7 +28355,7 @@
         <v>44301</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>44305</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>44308</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44319</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44325</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44326</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44327</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44332</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44348</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44348</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>44355</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44357</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>44361</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>44363</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>44375</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>44375</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44375</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>44375</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>44375</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>44376</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>44377</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>44377</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>44378</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29711,7 +29711,7 @@
         <v>44383</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>44386</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>44389</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>44389</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>44389</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>44389</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30068,7 +30068,7 @@
         <v>44389</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>44389</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>44389</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30244,7 +30244,7 @@
         <v>44389</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         <v>44420</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30363,7 +30363,7 @@
         <v>44420</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30420,7 +30420,7 @@
         <v>44425</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30482,7 +30482,7 @@
         <v>44425</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>44425</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44431</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44431</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44432</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30782,7 +30782,7 @@
         <v>44434</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30839,7 +30839,7 @@
         <v>44438</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30901,7 +30901,7 @@
         <v>44445</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30963,7 +30963,7 @@
         <v>44445</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31025,7 +31025,7 @@
         <v>44446</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31082,7 +31082,7 @@
         <v>44447</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31139,7 +31139,7 @@
         <v>44447</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>44449</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31253,7 +31253,7 @@
         <v>44449</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31310,7 +31310,7 @@
         <v>44451</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31367,7 +31367,7 @@
         <v>44452</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>44453</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31481,7 +31481,7 @@
         <v>44453</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31538,7 +31538,7 @@
         <v>44456</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>44457</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44460</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44461</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>44462</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31828,7 +31828,7 @@
         <v>44463</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31885,7 +31885,7 @@
         <v>44481</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31942,7 +31942,7 @@
         <v>44484</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31999,7 +31999,7 @@
         <v>44484</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32056,7 +32056,7 @@
         <v>44490</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32113,7 +32113,7 @@
         <v>44490</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32170,7 +32170,7 @@
         <v>44491</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32227,7 +32227,7 @@
         <v>44491</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32284,7 +32284,7 @@
         <v>44494</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32341,7 +32341,7 @@
         <v>44497</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32398,7 +32398,7 @@
         <v>44501</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32455,7 +32455,7 @@
         <v>44502</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32512,7 +32512,7 @@
         <v>44503</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32569,7 +32569,7 @@
         <v>44503</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         <v>44505</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32683,7 +32683,7 @@
         <v>44508</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32740,7 +32740,7 @@
         <v>44511</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32797,7 +32797,7 @@
         <v>44517</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32854,7 +32854,7 @@
         <v>44522</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>44523</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32973,7 +32973,7 @@
         <v>44526</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>44533</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33087,7 +33087,7 @@
         <v>44536</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33144,7 +33144,7 @@
         <v>44536</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33201,7 +33201,7 @@
         <v>44539</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33258,7 +33258,7 @@
         <v>44544</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
         <v>44545</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33372,7 +33372,7 @@
         <v>44551</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33429,7 +33429,7 @@
         <v>44564</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44566</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33543,7 +33543,7 @@
         <v>44585</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33600,7 +33600,7 @@
         <v>44594</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33657,7 +33657,7 @@
         <v>44602</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33714,7 +33714,7 @@
         <v>44603</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>44603</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>44608</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33895,7 +33895,7 @@
         <v>44613</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44613</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>44618</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44619</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>44627</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>44627</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>44629</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>44629</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44630</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44638</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44648</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44665</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44665</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44665</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44665</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44665</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44665</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44671</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>44671</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>44672</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>44673</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>44675</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35211,7 +35211,7 @@
         <v>44675</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44676</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44679</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44683</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44684</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>44685</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>44686</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>44690</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>44691</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>44691</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>44691</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>44691</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>44697</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35962,7 +35962,7 @@
         <v>44701</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         <v>44701</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>44714</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44728</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>44728</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>44742</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36304,7 +36304,7 @@
         <v>44753</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
         <v>44754</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36418,7 +36418,7 @@
         <v>44777</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36475,7 +36475,7 @@
         <v>44784</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44789</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>44789</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>44789</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>44790</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36760,7 +36760,7 @@
         <v>44791</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36817,7 +36817,7 @@
         <v>44796</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36874,7 +36874,7 @@
         <v>44806</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36931,7 +36931,7 @@
         <v>44810</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36988,7 +36988,7 @@
         <v>44819</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37045,7 +37045,7 @@
         <v>44820</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37102,7 +37102,7 @@
         <v>44822</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37159,7 +37159,7 @@
         <v>44825</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44833</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44837</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>44841</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37397,7 +37397,7 @@
         <v>44841</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>44846</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37511,7 +37511,7 @@
         <v>44860</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>44860</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37630,7 +37630,7 @@
         <v>44860</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37692,7 +37692,7 @@
         <v>44862</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37754,7 +37754,7 @@
         <v>44862</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
         <v>44872</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37873,7 +37873,7 @@
         <v>44883</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37930,7 +37930,7 @@
         <v>44883</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37987,7 +37987,7 @@
         <v>44889</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38044,7 +38044,7 @@
         <v>44893</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38101,7 +38101,7 @@
         <v>44894</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38158,7 +38158,7 @@
         <v>44895</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38215,7 +38215,7 @@
         <v>44900</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38272,7 +38272,7 @@
         <v>44902</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38329,7 +38329,7 @@
         <v>44902</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         <v>44902</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38448,7 +38448,7 @@
         <v>44902</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38510,7 +38510,7 @@
         <v>44902</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38567,7 +38567,7 @@
         <v>44904</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38624,7 +38624,7 @@
         <v>44909</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38681,7 +38681,7 @@
         <v>44911</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38738,7 +38738,7 @@
         <v>44916</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38795,7 +38795,7 @@
         <v>44924</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38852,7 +38852,7 @@
         <v>44927</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38909,7 +38909,7 @@
         <v>44928</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38966,7 +38966,7 @@
         <v>44945</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39023,7 +39023,7 @@
         <v>44945</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39080,7 +39080,7 @@
         <v>44946</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39137,7 +39137,7 @@
         <v>44949</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39194,7 +39194,7 @@
         <v>44949</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>44949</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39308,7 +39308,7 @@
         <v>44950</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39365,7 +39365,7 @@
         <v>44957</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>44963</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39479,7 +39479,7 @@
         <v>44970</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39536,7 +39536,7 @@
         <v>44974</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39593,7 +39593,7 @@
         <v>44974</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39650,7 +39650,7 @@
         <v>44977</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39712,7 +39712,7 @@
         <v>44978</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39769,7 +39769,7 @@
         <v>44978</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         <v>44979</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39883,7 +39883,7 @@
         <v>44979</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39940,7 +39940,7 @@
         <v>44981</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39997,7 +39997,7 @@
         <v>44981</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40054,7 +40054,7 @@
         <v>44981</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40111,7 +40111,7 @@
         <v>44984</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40168,7 +40168,7 @@
         <v>44988</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40230,7 +40230,7 @@
         <v>44990</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40287,7 +40287,7 @@
         <v>44990</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40344,7 +40344,7 @@
         <v>44993</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>45005</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>45005</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>45005</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>45005</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>45007</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>45008</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40768,7 +40768,7 @@
         <v>45016</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40825,7 +40825,7 @@
         <v>45021</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>45025</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>45027</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>45030</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41058,7 +41058,7 @@
         <v>45035</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41115,7 +41115,7 @@
         <v>45036</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41172,7 +41172,7 @@
         <v>45040</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41234,7 +41234,7 @@
         <v>45043</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41291,7 +41291,7 @@
         <v>45048</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41348,7 +41348,7 @@
         <v>45050</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41405,7 +41405,7 @@
         <v>45054</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41462,7 +41462,7 @@
         <v>45054</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>45054</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>45054</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>45054</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>45056</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45057</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41804,7 +41804,7 @@
         <v>45061</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41861,7 +41861,7 @@
         <v>45063</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41918,7 +41918,7 @@
         <v>45068</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41975,7 +41975,7 @@
         <v>45068</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42032,7 +42032,7 @@
         <v>45071</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42094,7 +42094,7 @@
         <v>45071</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42156,7 +42156,7 @@
         <v>45072</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45072</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42280,7 +42280,7 @@
         <v>45072</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42342,7 +42342,7 @@
         <v>45072</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42404,7 +42404,7 @@
         <v>45074</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42461,7 +42461,7 @@
         <v>45075</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42523,7 +42523,7 @@
         <v>45075</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>45077</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42647,7 +42647,7 @@
         <v>45077</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42709,7 +42709,7 @@
         <v>45077</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42771,7 +42771,7 @@
         <v>45077</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42833,7 +42833,7 @@
         <v>45079</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>45079</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         <v>45079</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43019,7 +43019,7 @@
         <v>45082</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43081,7 +43081,7 @@
         <v>45085</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43138,7 +43138,7 @@
         <v>45095</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43195,7 +43195,7 @@
         <v>45095</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43252,7 +43252,7 @@
         <v>45096</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43314,7 +43314,7 @@
         <v>45096</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43376,7 +43376,7 @@
         <v>45099</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>45103</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43495,7 +43495,7 @@
         <v>45103</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43552,7 +43552,7 @@
         <v>45104</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43614,7 +43614,7 @@
         <v>45106</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43671,7 +43671,7 @@
         <v>45107</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45107</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45107</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45107</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43909,7 +43909,7 @@
         <v>45110</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43971,7 +43971,7 @@
         <v>45111</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44028,7 +44028,7 @@
         <v>45113</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44085,7 +44085,7 @@
         <v>45113</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44142,7 +44142,7 @@
         <v>45119</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>45119</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>45119</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>45119</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>45119</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44452,7 +44452,7 @@
         <v>45121</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>45131</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>45138</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>45140</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>45142</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>45142</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>45145</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>45147</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45148</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45149</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45149</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45166,7 +45166,7 @@
         <v>45152</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45152</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45290,7 +45290,7 @@
         <v>45155</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>45170</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45409,7 +45409,7 @@
         <v>45170</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>

--- a/Översikt LINDESBERG.xlsx
+++ b/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43746</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43759</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44406</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         <v>43766</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43759</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44060</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43732</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43732</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>43878</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44280</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>44320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>44472</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44484</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45021</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43526</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43560</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43588</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43737</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43746</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43746</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43766</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43773</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43936</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44320</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44484</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44512</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44522</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>44536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44789</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44979</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>45075</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45075</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45099</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>45099</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>45138</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45138</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>45160</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43339</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43374</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43390</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43390</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43409</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>43423</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>43429</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43441</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43444</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43444</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43453</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43467</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43467</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43468</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43468</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43468</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43479</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43494</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43497</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43500</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43521</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43523</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43524</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43526</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43529</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>43535</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>43538</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43539</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>43544</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43551</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43553</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43557</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43560</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43560</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43563</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43564</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43567</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43570</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43571</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43571</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43579</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43580</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43581</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43588</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43588</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>43588</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43588</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43592</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43592</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43594</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43594</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43594</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43598</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43598</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43599</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43599</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43599</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43600</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43601</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43601</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43601</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43605</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43605</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43606</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43608</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43612</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43612</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43616</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43619</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43626</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>43628</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43630</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43633</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43633</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43634</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43634</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43635</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43636</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>43642</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43642</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>43643</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43643</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43643</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43643</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43643</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12858,7 +12858,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43644</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>43655</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>43656</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>43661</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>43661</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>43663</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>43669</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43671</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43678</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43679</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43680</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43680</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43683</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43684</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43685</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43689</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43691</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43693</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43699</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43699</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43699</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43710</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43713</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43713</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43713</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43717</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>43720</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>43720</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>43723</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>43725</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43725</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43731</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>43731</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>43734</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>43734</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>43734</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>43738</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>43738</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>43740</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>43740</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>43740</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>43740</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>43745</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>43745</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>43746</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>43749</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>43749</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>43752</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>43752</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43755</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43755</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>43761</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>43762</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>43762</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>43764</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>43766</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>43766</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>43766</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>43766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>43767</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>43767</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>43773</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>43780</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>43786</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>43786</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>43788</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>43788</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43790</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43790</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43792</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43800</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43800</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43804</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43805</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43805</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43809</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43810</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43817</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43826</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43837</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43844</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43845</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43857</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43860</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43860</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>43861</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>43865</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>43866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>43867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>43871</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>43871</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43872</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>43875</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43885</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43892</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43895</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>43895</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>43897</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43899</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>43900</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>43900</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>43902</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>43904</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43904</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>43904</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>43907</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43910</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>43913</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>43914</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43921</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43923</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43923</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>43929</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>43930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>43941</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>43947</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20485,7 +20485,7 @@
         <v>43948</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43948</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43957</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43958</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43962</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43962</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43962</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43962</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43966</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>43969</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>43969</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>43971</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>43984</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>43984</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>43993</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>43999</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44000</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44000</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44000</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44004</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44005</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         <v>44006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>44006</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21940,7 +21940,7 @@
         <v>44006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21997,7 +21997,7 @@
         <v>44006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>44007</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44007</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44013</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44016</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44016</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44018</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>44018</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         <v>44018</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>44018</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>44018</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22639,7 +22639,7 @@
         <v>44020</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44046</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44047</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44049</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>44053</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44063</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44063</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44064</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44067</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44069</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>44069</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>44069</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>44069</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>44069</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44071</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44073</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>44076</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>44076</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44083</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>44085</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>44085</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44088</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>44088</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>44088</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>44091</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44091</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>44098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>44102</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>44102</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>44104</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>44107</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44113</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44113</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44113</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44114</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44116</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>44123</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>44123</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24959,7 +24959,7 @@
         <v>44124</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25016,7 +25016,7 @@
         <v>44124</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>44126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44126</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44126</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44130</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44133</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44145</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44150</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44151</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44151</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44154</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44161</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25715,7 +25715,7 @@
         <v>44162</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25772,7 +25772,7 @@
         <v>44162</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>44162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>44167</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>44169</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44169</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44171</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44175</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44176</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>44176</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44179</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44179</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>44183</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44187</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26558,7 +26558,7 @@
         <v>44187</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26615,7 +26615,7 @@
         <v>44197</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26672,7 +26672,7 @@
         <v>44201</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26729,7 +26729,7 @@
         <v>44208</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44210</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44224</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44227</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44228</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44231</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44236</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44242</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44242</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44257</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>44258</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44258</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44259</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44259</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44259</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44263</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44267</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44267</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27780,7 +27780,7 @@
         <v>44267</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         <v>44271</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27894,7 +27894,7 @@
         <v>44273</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>44276</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28008,7 +28008,7 @@
         <v>44276</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28065,7 +28065,7 @@
         <v>44280</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>44281</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>44298</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>44300</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28298,7 +28298,7 @@
         <v>44300</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28355,7 +28355,7 @@
         <v>44301</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>44305</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>44308</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44319</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44325</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44326</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44327</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44332</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44348</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44348</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>44355</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44357</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>44361</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>44363</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>44375</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>44375</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44375</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>44375</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>44375</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>44376</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>44377</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>44377</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>44378</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29711,7 +29711,7 @@
         <v>44383</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>44386</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>44389</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>44389</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>44389</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>44389</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30068,7 +30068,7 @@
         <v>44389</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>44389</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>44389</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30244,7 +30244,7 @@
         <v>44389</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         <v>44420</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30363,7 +30363,7 @@
         <v>44420</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30420,7 +30420,7 @@
         <v>44425</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30482,7 +30482,7 @@
         <v>44425</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>44425</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44431</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44431</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44432</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30782,7 +30782,7 @@
         <v>44434</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30839,7 +30839,7 @@
         <v>44438</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30901,7 +30901,7 @@
         <v>44445</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30963,7 +30963,7 @@
         <v>44445</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31025,7 +31025,7 @@
         <v>44446</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31082,7 +31082,7 @@
         <v>44447</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31139,7 +31139,7 @@
         <v>44447</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>44449</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31253,7 +31253,7 @@
         <v>44449</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31310,7 +31310,7 @@
         <v>44451</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31367,7 +31367,7 @@
         <v>44452</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>44453</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31481,7 +31481,7 @@
         <v>44453</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31538,7 +31538,7 @@
         <v>44456</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>44457</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44460</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44461</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>44462</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31828,7 +31828,7 @@
         <v>44463</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31885,7 +31885,7 @@
         <v>44481</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31942,7 +31942,7 @@
         <v>44484</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31999,7 +31999,7 @@
         <v>44484</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32056,7 +32056,7 @@
         <v>44490</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32113,7 +32113,7 @@
         <v>44490</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32170,7 +32170,7 @@
         <v>44491</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32227,7 +32227,7 @@
         <v>44491</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32284,7 +32284,7 @@
         <v>44494</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32341,7 +32341,7 @@
         <v>44497</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32398,7 +32398,7 @@
         <v>44501</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32455,7 +32455,7 @@
         <v>44502</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32512,7 +32512,7 @@
         <v>44503</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32569,7 +32569,7 @@
         <v>44503</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         <v>44505</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32683,7 +32683,7 @@
         <v>44508</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32740,7 +32740,7 @@
         <v>44511</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32797,7 +32797,7 @@
         <v>44517</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32854,7 +32854,7 @@
         <v>44522</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>44523</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32973,7 +32973,7 @@
         <v>44526</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>44533</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33087,7 +33087,7 @@
         <v>44536</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33144,7 +33144,7 @@
         <v>44536</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33201,7 +33201,7 @@
         <v>44539</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33258,7 +33258,7 @@
         <v>44544</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
         <v>44545</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33372,7 +33372,7 @@
         <v>44551</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33429,7 +33429,7 @@
         <v>44564</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44566</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33543,7 +33543,7 @@
         <v>44585</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33600,7 +33600,7 @@
         <v>44594</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33657,7 +33657,7 @@
         <v>44602</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33714,7 +33714,7 @@
         <v>44603</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>44603</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>44608</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33895,7 +33895,7 @@
         <v>44613</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44613</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>44618</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44619</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>44627</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>44627</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>44629</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>44629</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44630</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44638</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44648</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44665</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44665</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44665</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44665</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44665</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44665</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44671</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>44671</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>44672</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>44673</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>44675</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35211,7 +35211,7 @@
         <v>44675</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44676</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44679</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44683</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44684</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>44685</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>44686</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>44690</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>44691</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>44691</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>44691</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>44691</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>44697</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35962,7 +35962,7 @@
         <v>44701</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         <v>44701</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>44714</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44728</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>44728</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>44742</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36304,7 +36304,7 @@
         <v>44753</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
         <v>44754</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36418,7 +36418,7 @@
         <v>44777</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36475,7 +36475,7 @@
         <v>44784</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44789</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>44789</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>44789</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>44790</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36760,7 +36760,7 @@
         <v>44791</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36817,7 +36817,7 @@
         <v>44796</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36874,7 +36874,7 @@
         <v>44806</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36931,7 +36931,7 @@
         <v>44810</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36988,7 +36988,7 @@
         <v>44819</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37045,7 +37045,7 @@
         <v>44820</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37102,7 +37102,7 @@
         <v>44822</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37159,7 +37159,7 @@
         <v>44825</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44833</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44837</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>44841</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37397,7 +37397,7 @@
         <v>44841</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>44846</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37511,7 +37511,7 @@
         <v>44860</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>44860</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37630,7 +37630,7 @@
         <v>44860</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37692,7 +37692,7 @@
         <v>44862</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37754,7 +37754,7 @@
         <v>44862</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
         <v>44872</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37873,7 +37873,7 @@
         <v>44883</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37930,7 +37930,7 @@
         <v>44883</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37987,7 +37987,7 @@
         <v>44889</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38044,7 +38044,7 @@
         <v>44893</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38101,7 +38101,7 @@
         <v>44894</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38158,7 +38158,7 @@
         <v>44895</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38215,7 +38215,7 @@
         <v>44900</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38272,7 +38272,7 @@
         <v>44902</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38329,7 +38329,7 @@
         <v>44902</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         <v>44902</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38448,7 +38448,7 @@
         <v>44902</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38510,7 +38510,7 @@
         <v>44902</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38567,7 +38567,7 @@
         <v>44904</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38624,7 +38624,7 @@
         <v>44909</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38681,7 +38681,7 @@
         <v>44911</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38738,7 +38738,7 @@
         <v>44916</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38795,7 +38795,7 @@
         <v>44924</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38852,7 +38852,7 @@
         <v>44927</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38909,7 +38909,7 @@
         <v>44928</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38966,7 +38966,7 @@
         <v>44945</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39023,7 +39023,7 @@
         <v>44945</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39080,7 +39080,7 @@
         <v>44946</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39137,7 +39137,7 @@
         <v>44949</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39194,7 +39194,7 @@
         <v>44949</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>44949</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39308,7 +39308,7 @@
         <v>44950</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39365,7 +39365,7 @@
         <v>44957</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>44963</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39479,7 +39479,7 @@
         <v>44970</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39536,7 +39536,7 @@
         <v>44974</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39593,7 +39593,7 @@
         <v>44974</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39650,7 +39650,7 @@
         <v>44977</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39712,7 +39712,7 @@
         <v>44978</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39769,7 +39769,7 @@
         <v>44978</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         <v>44979</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39883,7 +39883,7 @@
         <v>44979</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39940,7 +39940,7 @@
         <v>44981</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39997,7 +39997,7 @@
         <v>44981</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40054,7 +40054,7 @@
         <v>44981</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40111,7 +40111,7 @@
         <v>44984</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40168,7 +40168,7 @@
         <v>44988</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40230,7 +40230,7 @@
         <v>44990</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40287,7 +40287,7 @@
         <v>44990</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40344,7 +40344,7 @@
         <v>44993</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>45005</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>45005</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>45005</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>45005</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>45007</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>45008</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40768,7 +40768,7 @@
         <v>45016</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40825,7 +40825,7 @@
         <v>45021</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>45025</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>45027</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>45030</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41058,7 +41058,7 @@
         <v>45035</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41115,7 +41115,7 @@
         <v>45036</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41172,7 +41172,7 @@
         <v>45040</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41234,7 +41234,7 @@
         <v>45043</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41291,7 +41291,7 @@
         <v>45048</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41348,7 +41348,7 @@
         <v>45050</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41405,7 +41405,7 @@
         <v>45054</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41462,7 +41462,7 @@
         <v>45054</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>45054</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>45054</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>45054</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>45056</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45057</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41804,7 +41804,7 @@
         <v>45061</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41861,7 +41861,7 @@
         <v>45063</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41918,7 +41918,7 @@
         <v>45068</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41975,7 +41975,7 @@
         <v>45068</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42032,7 +42032,7 @@
         <v>45071</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42094,7 +42094,7 @@
         <v>45071</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42156,7 +42156,7 @@
         <v>45072</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45072</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42280,7 +42280,7 @@
         <v>45072</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42342,7 +42342,7 @@
         <v>45072</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42404,7 +42404,7 @@
         <v>45074</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42461,7 +42461,7 @@
         <v>45075</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42523,7 +42523,7 @@
         <v>45075</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>45077</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42647,7 +42647,7 @@
         <v>45077</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42709,7 +42709,7 @@
         <v>45077</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42771,7 +42771,7 @@
         <v>45077</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42833,7 +42833,7 @@
         <v>45079</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>45079</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         <v>45079</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43019,7 +43019,7 @@
         <v>45082</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43081,7 +43081,7 @@
         <v>45085</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43138,7 +43138,7 @@
         <v>45095</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43195,7 +43195,7 @@
         <v>45095</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43252,7 +43252,7 @@
         <v>45096</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43314,7 +43314,7 @@
         <v>45096</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43376,7 +43376,7 @@
         <v>45099</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>45103</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43495,7 +43495,7 @@
         <v>45103</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43552,7 +43552,7 @@
         <v>45104</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43614,7 +43614,7 @@
         <v>45106</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43671,7 +43671,7 @@
         <v>45107</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45107</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45107</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45107</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43909,7 +43909,7 @@
         <v>45110</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43971,7 +43971,7 @@
         <v>45111</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44028,7 +44028,7 @@
         <v>45113</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44085,7 +44085,7 @@
         <v>45113</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44142,7 +44142,7 @@
         <v>45119</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>45119</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>45119</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>45119</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>45119</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44452,7 +44452,7 @@
         <v>45121</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>45131</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>45138</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>45140</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>45142</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>45142</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>45145</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>45147</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45148</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45149</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45149</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45166,7 +45166,7 @@
         <v>45152</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45152</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45290,7 +45290,7 @@
         <v>45155</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>45170</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45409,7 +45409,7 @@
         <v>45170</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>

--- a/Översikt LINDESBERG.xlsx
+++ b/Översikt LINDESBERG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y749"/>
+  <dimension ref="A1:Y751"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43746</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43759</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44406</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         <v>43766</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43759</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44060</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43732</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43732</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>43878</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44280</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>44320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>44472</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44484</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45021</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43526</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43560</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43588</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43737</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43746</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43746</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43766</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43773</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43936</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44320</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44484</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44512</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44522</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>44536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44789</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44979</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>45075</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45075</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45099</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>45099</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>45138</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45138</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>45160</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43339</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43374</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43390</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43390</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43409</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>43423</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>43429</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43441</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43444</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43444</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43453</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43467</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43467</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43468</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43468</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43468</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43479</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43494</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43497</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43500</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43521</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43523</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43524</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43526</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43529</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>43535</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>43538</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43539</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>43544</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43551</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43553</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43557</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43560</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43560</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43563</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43564</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43567</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43570</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43571</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43571</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43579</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43580</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43581</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43588</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43588</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>43588</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43588</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43592</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43592</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43594</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43594</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43594</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43598</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43598</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43599</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43599</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43599</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43600</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43601</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43601</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43601</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43605</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43605</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43606</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43608</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43612</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43612</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43616</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43619</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43626</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>43628</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43630</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43633</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43633</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43634</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43634</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43635</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43636</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>43642</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43642</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>43643</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43643</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43643</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43643</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43643</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12858,7 +12858,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43644</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>43655</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>43656</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>43661</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>43661</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>43663</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>43669</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43671</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43678</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43679</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43680</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43680</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43683</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43684</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43685</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43689</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43691</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43693</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43699</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43699</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43699</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43710</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43713</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43713</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43713</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43717</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>43720</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>43720</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>43723</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>43725</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43725</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43731</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>43731</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>43734</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>43734</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>43734</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>43738</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>43738</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>43740</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>43740</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>43740</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>43740</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>43745</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>43745</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>43746</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>43749</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>43749</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>43752</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>43752</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43755</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43755</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>43761</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>43762</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>43762</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>43764</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>43766</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>43766</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>43766</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>43766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>43767</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>43767</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>43773</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>43780</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>43786</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>43786</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>43788</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>43788</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43790</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43790</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43792</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43800</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43800</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43804</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43805</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43805</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43809</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43810</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43817</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43826</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43837</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43844</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43845</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43857</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43860</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43860</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>43861</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>43865</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>43866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>43867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>43871</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>43871</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43872</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>43875</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43885</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43892</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43895</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>43895</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>43897</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43899</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>43900</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>43900</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>43902</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>43904</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43904</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>43904</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>43907</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43910</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>43913</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>43914</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43921</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43923</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43923</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>43929</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>43930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>43941</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>43947</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20485,7 +20485,7 @@
         <v>43948</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43948</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43957</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43958</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43962</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43962</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43962</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43962</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43966</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>43969</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>43969</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>43971</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>43984</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>43984</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>43993</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>43999</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44000</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44000</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44000</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44004</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44005</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         <v>44006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>44006</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21940,7 +21940,7 @@
         <v>44006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21997,7 +21997,7 @@
         <v>44006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>44007</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44007</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44013</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44016</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44016</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44018</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>44018</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         <v>44018</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>44018</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>44018</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22639,7 +22639,7 @@
         <v>44020</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44046</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44047</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44049</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>44053</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44063</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44063</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44064</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44067</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44069</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>44069</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>44069</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>44069</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>44069</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44071</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44073</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>44076</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>44076</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44083</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>44085</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>44085</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44088</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>44088</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>44088</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>44091</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44091</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>44098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>44102</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>44102</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>44104</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>44107</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44113</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44113</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44113</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44114</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44116</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>44123</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>44123</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24959,7 +24959,7 @@
         <v>44124</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25016,7 +25016,7 @@
         <v>44124</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>44126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44126</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44126</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44130</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44133</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44145</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44150</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44151</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44151</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44154</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44161</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25715,7 +25715,7 @@
         <v>44162</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25772,7 +25772,7 @@
         <v>44162</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>44162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>44167</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>44169</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44169</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44171</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44175</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44176</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>44176</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44179</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44179</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>44183</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44187</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26558,7 +26558,7 @@
         <v>44187</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26615,7 +26615,7 @@
         <v>44197</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26672,7 +26672,7 @@
         <v>44201</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26729,7 +26729,7 @@
         <v>44208</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44210</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44224</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44227</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44228</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44231</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44236</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44242</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44242</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44257</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>44258</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44258</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44259</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44259</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44259</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44263</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44267</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44267</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27780,7 +27780,7 @@
         <v>44267</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         <v>44271</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27894,7 +27894,7 @@
         <v>44273</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>44276</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28008,7 +28008,7 @@
         <v>44276</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28065,7 +28065,7 @@
         <v>44280</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>44281</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>44298</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>44300</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28298,7 +28298,7 @@
         <v>44300</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28355,7 +28355,7 @@
         <v>44301</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>44305</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>44308</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44319</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44325</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44326</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44327</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44332</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44348</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44348</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>44355</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44357</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>44361</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>44363</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>44375</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>44375</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44375</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>44375</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>44375</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>44376</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>44377</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>44377</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>44378</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29711,7 +29711,7 @@
         <v>44383</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>44386</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>44389</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>44389</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>44389</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>44389</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30068,7 +30068,7 @@
         <v>44389</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>44389</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>44389</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30244,7 +30244,7 @@
         <v>44389</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         <v>44420</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30363,7 +30363,7 @@
         <v>44420</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30420,7 +30420,7 @@
         <v>44425</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30482,7 +30482,7 @@
         <v>44425</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>44425</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44431</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44431</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44432</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30782,7 +30782,7 @@
         <v>44434</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30839,7 +30839,7 @@
         <v>44438</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30901,7 +30901,7 @@
         <v>44445</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30963,7 +30963,7 @@
         <v>44445</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31025,7 +31025,7 @@
         <v>44446</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31082,7 +31082,7 @@
         <v>44447</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31139,7 +31139,7 @@
         <v>44447</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>44449</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31253,7 +31253,7 @@
         <v>44449</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31310,7 +31310,7 @@
         <v>44451</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31367,7 +31367,7 @@
         <v>44452</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>44453</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31481,7 +31481,7 @@
         <v>44453</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31538,7 +31538,7 @@
         <v>44456</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>44457</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44460</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44461</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>44462</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31828,7 +31828,7 @@
         <v>44463</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31885,7 +31885,7 @@
         <v>44481</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31942,7 +31942,7 @@
         <v>44484</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31999,7 +31999,7 @@
         <v>44484</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32056,7 +32056,7 @@
         <v>44490</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32113,7 +32113,7 @@
         <v>44490</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32170,7 +32170,7 @@
         <v>44491</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32227,7 +32227,7 @@
         <v>44491</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32284,7 +32284,7 @@
         <v>44494</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32341,7 +32341,7 @@
         <v>44497</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32398,7 +32398,7 @@
         <v>44501</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32455,7 +32455,7 @@
         <v>44502</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32512,7 +32512,7 @@
         <v>44503</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32569,7 +32569,7 @@
         <v>44503</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         <v>44505</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32683,7 +32683,7 @@
         <v>44508</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32740,7 +32740,7 @@
         <v>44511</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32797,7 +32797,7 @@
         <v>44517</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32854,7 +32854,7 @@
         <v>44522</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>44523</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32973,7 +32973,7 @@
         <v>44526</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>44533</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33087,7 +33087,7 @@
         <v>44536</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33144,7 +33144,7 @@
         <v>44536</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33201,7 +33201,7 @@
         <v>44539</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33258,7 +33258,7 @@
         <v>44544</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
         <v>44545</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33372,7 +33372,7 @@
         <v>44551</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33429,7 +33429,7 @@
         <v>44564</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44566</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33543,7 +33543,7 @@
         <v>44585</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33600,7 +33600,7 @@
         <v>44594</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33657,7 +33657,7 @@
         <v>44602</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33714,7 +33714,7 @@
         <v>44603</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>44603</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>44608</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33895,7 +33895,7 @@
         <v>44613</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44613</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>44618</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44619</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>44627</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>44627</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>44629</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>44629</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44630</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44638</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44648</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44665</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44665</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44665</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44665</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44665</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44665</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44671</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>44671</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>44672</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>44673</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>44675</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35211,7 +35211,7 @@
         <v>44675</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44676</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44679</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44683</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44684</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>44685</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>44686</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>44690</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>44691</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>44691</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>44691</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>44691</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>44697</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35962,7 +35962,7 @@
         <v>44701</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         <v>44701</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>44714</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44728</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>44728</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>44742</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36304,7 +36304,7 @@
         <v>44753</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
         <v>44754</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36418,7 +36418,7 @@
         <v>44777</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36475,7 +36475,7 @@
         <v>44784</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44789</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>44789</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>44789</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>44790</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36760,7 +36760,7 @@
         <v>44791</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36817,7 +36817,7 @@
         <v>44796</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36874,7 +36874,7 @@
         <v>44806</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36931,7 +36931,7 @@
         <v>44810</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36988,7 +36988,7 @@
         <v>44819</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37045,7 +37045,7 @@
         <v>44820</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37102,7 +37102,7 @@
         <v>44822</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37159,7 +37159,7 @@
         <v>44825</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44833</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44837</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>44841</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37397,7 +37397,7 @@
         <v>44841</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>44846</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37511,7 +37511,7 @@
         <v>44860</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>44860</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37630,7 +37630,7 @@
         <v>44860</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37692,7 +37692,7 @@
         <v>44862</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37754,7 +37754,7 @@
         <v>44862</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
         <v>44872</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37873,7 +37873,7 @@
         <v>44883</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37930,7 +37930,7 @@
         <v>44883</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37987,7 +37987,7 @@
         <v>44889</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38044,7 +38044,7 @@
         <v>44893</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38101,7 +38101,7 @@
         <v>44894</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38158,7 +38158,7 @@
         <v>44895</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38215,7 +38215,7 @@
         <v>44900</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38272,7 +38272,7 @@
         <v>44902</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38329,7 +38329,7 @@
         <v>44902</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         <v>44902</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38448,7 +38448,7 @@
         <v>44902</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38510,7 +38510,7 @@
         <v>44902</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38567,7 +38567,7 @@
         <v>44904</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38624,7 +38624,7 @@
         <v>44909</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38681,7 +38681,7 @@
         <v>44911</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38738,7 +38738,7 @@
         <v>44916</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38795,7 +38795,7 @@
         <v>44924</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38852,7 +38852,7 @@
         <v>44927</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38909,7 +38909,7 @@
         <v>44928</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38966,7 +38966,7 @@
         <v>44945</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39023,7 +39023,7 @@
         <v>44945</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39080,7 +39080,7 @@
         <v>44946</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39137,7 +39137,7 @@
         <v>44949</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39194,7 +39194,7 @@
         <v>44949</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>44949</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39308,7 +39308,7 @@
         <v>44950</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39365,7 +39365,7 @@
         <v>44957</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>44963</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39479,7 +39479,7 @@
         <v>44970</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39536,7 +39536,7 @@
         <v>44974</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39593,7 +39593,7 @@
         <v>44974</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39650,7 +39650,7 @@
         <v>44977</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39712,7 +39712,7 @@
         <v>44978</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39769,7 +39769,7 @@
         <v>44978</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         <v>44979</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39883,7 +39883,7 @@
         <v>44979</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39940,7 +39940,7 @@
         <v>44981</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39997,7 +39997,7 @@
         <v>44981</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40054,7 +40054,7 @@
         <v>44981</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40111,7 +40111,7 @@
         <v>44984</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40168,7 +40168,7 @@
         <v>44988</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40230,7 +40230,7 @@
         <v>44990</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40287,7 +40287,7 @@
         <v>44990</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40344,7 +40344,7 @@
         <v>44993</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>45005</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>45005</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>45005</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>45005</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>45007</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>45008</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40768,7 +40768,7 @@
         <v>45016</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40825,7 +40825,7 @@
         <v>45021</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>45025</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>45027</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>45030</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41058,7 +41058,7 @@
         <v>45035</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41115,7 +41115,7 @@
         <v>45036</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41172,7 +41172,7 @@
         <v>45040</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41234,7 +41234,7 @@
         <v>45043</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41291,7 +41291,7 @@
         <v>45048</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41348,7 +41348,7 @@
         <v>45050</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41405,7 +41405,7 @@
         <v>45054</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41462,7 +41462,7 @@
         <v>45054</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>45054</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>45054</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>45054</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>45056</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45057</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41804,7 +41804,7 @@
         <v>45061</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41861,7 +41861,7 @@
         <v>45063</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41918,7 +41918,7 @@
         <v>45068</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41975,7 +41975,7 @@
         <v>45068</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42032,7 +42032,7 @@
         <v>45071</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42094,7 +42094,7 @@
         <v>45071</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42156,7 +42156,7 @@
         <v>45072</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45072</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42280,7 +42280,7 @@
         <v>45072</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42342,7 +42342,7 @@
         <v>45072</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42404,7 +42404,7 @@
         <v>45074</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42461,7 +42461,7 @@
         <v>45075</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42523,7 +42523,7 @@
         <v>45075</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>45077</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42647,7 +42647,7 @@
         <v>45077</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42709,7 +42709,7 @@
         <v>45077</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42771,7 +42771,7 @@
         <v>45077</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42833,7 +42833,7 @@
         <v>45079</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>45079</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         <v>45079</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43019,7 +43019,7 @@
         <v>45082</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43081,7 +43081,7 @@
         <v>45085</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43138,7 +43138,7 @@
         <v>45095</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43195,7 +43195,7 @@
         <v>45095</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43252,7 +43252,7 @@
         <v>45096</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43314,7 +43314,7 @@
         <v>45096</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43376,7 +43376,7 @@
         <v>45099</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>45103</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43495,7 +43495,7 @@
         <v>45103</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43552,7 +43552,7 @@
         <v>45104</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43614,7 +43614,7 @@
         <v>45106</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43671,7 +43671,7 @@
         <v>45107</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45107</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45107</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45107</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43909,7 +43909,7 @@
         <v>45110</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43971,7 +43971,7 @@
         <v>45111</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44028,7 +44028,7 @@
         <v>45113</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44085,7 +44085,7 @@
         <v>45113</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44142,7 +44142,7 @@
         <v>45119</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>45119</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>45119</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>45119</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>45119</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44452,7 +44452,7 @@
         <v>45121</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>45131</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>45138</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>45140</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>45142</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>45142</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>45145</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>45147</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45148</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45149</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45149</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45166,7 +45166,7 @@
         <v>45152</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45152</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45290,7 +45290,7 @@
         <v>45155</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>45170</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45399,7 +45399,7 @@
       </c>
       <c r="R748" s="2" t="inlineStr"/>
     </row>
-    <row r="749">
+    <row r="749" ht="15" customHeight="1">
       <c r="A749" t="inlineStr">
         <is>
           <t>A 40456-2023</t>
@@ -45409,7 +45409,7 @@
         <v>45170</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45460,6 +45460,125 @@
         <v>0</v>
       </c>
       <c r="R749" s="2" t="inlineStr"/>
+    </row>
+    <row r="750" ht="15" customHeight="1">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>A 42578-2023</t>
+        </is>
+      </c>
+      <c r="B750" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C750" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>LINDESBERG</t>
+        </is>
+      </c>
+      <c r="G750" t="n">
+        <v>3</v>
+      </c>
+      <c r="H750" t="n">
+        <v>0</v>
+      </c>
+      <c r="I750" t="n">
+        <v>0</v>
+      </c>
+      <c r="J750" t="n">
+        <v>0</v>
+      </c>
+      <c r="K750" t="n">
+        <v>0</v>
+      </c>
+      <c r="L750" t="n">
+        <v>0</v>
+      </c>
+      <c r="M750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N750" t="n">
+        <v>0</v>
+      </c>
+      <c r="O750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q750" t="n">
+        <v>0</v>
+      </c>
+      <c r="R750" s="2" t="inlineStr"/>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>A 42707-2023</t>
+        </is>
+      </c>
+      <c r="B751" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C751" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>LINDESBERG</t>
+        </is>
+      </c>
+      <c r="F751" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G751" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H751" t="n">
+        <v>0</v>
+      </c>
+      <c r="I751" t="n">
+        <v>0</v>
+      </c>
+      <c r="J751" t="n">
+        <v>0</v>
+      </c>
+      <c r="K751" t="n">
+        <v>0</v>
+      </c>
+      <c r="L751" t="n">
+        <v>0</v>
+      </c>
+      <c r="M751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N751" t="n">
+        <v>0</v>
+      </c>
+      <c r="O751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R751" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt LINDESBERG.xlsx
+++ b/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43746</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -636,27 +636,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 52815-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 52815-2019.xlsx", "A 52815-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 52815-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 52815-2019.png", "A 52815-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 52815-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 52815-2019.docx", "A 52815-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 52815-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 52815-2019.docx", "A 52815-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 52815-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 52815-2019.docx", "A 52815-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 52815-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 52815-2019.docx", "A 52815-2019")</f>
         <v/>
       </c>
     </row>
@@ -670,7 +670,7 @@
         <v>43759</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -731,27 +731,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 55478-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 55478-2019.xlsx", "A 55478-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 55478-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 55478-2019.png", "A 55478-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 55478-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 55478-2019.docx", "A 55478-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 55478-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 55478-2019.docx", "A 55478-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 55478-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 55478-2019.docx", "A 55478-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 55478-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 55478-2019.docx", "A 55478-2019")</f>
         <v/>
       </c>
     </row>
@@ -765,7 +765,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -826,27 +826,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 32697-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 32697-2021.xlsx", "A 32697-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 32697-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 32697-2021.png", "A 32697-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 32697-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 32697-2021.docx", "A 32697-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 32697-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 32697-2021.docx", "A 32697-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 32697-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 32697-2021.docx", "A 32697-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 32697-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 32697-2021.docx", "A 32697-2021")</f>
         <v/>
       </c>
     </row>
@@ -860,7 +860,7 @@
         <v>44406</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,27 +921,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 38385-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 38385-2021.xlsx", "A 38385-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 38385-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 38385-2021.png", "A 38385-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 38385-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 38385-2021.docx", "A 38385-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 38385-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 38385-2021.docx", "A 38385-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 38385-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 38385-2021.docx", "A 38385-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 38385-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 38385-2021.docx", "A 38385-2021")</f>
         <v/>
       </c>
     </row>
@@ -955,7 +955,7 @@
         <v>43766</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,27 +1015,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 56889-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 56889-2019.xlsx", "A 56889-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 56889-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 56889-2019.png", "A 56889-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 56889-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 56889-2019.docx", "A 56889-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 56889-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 56889-2019.docx", "A 56889-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 56889-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 56889-2019.docx", "A 56889-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 56889-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 56889-2019.docx", "A 56889-2019")</f>
         <v/>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
         <v>43759</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,27 +1108,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 55487-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 55487-2019.xlsx", "A 55487-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 55487-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 55487-2019.png", "A 55487-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 55487-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 55487-2019.docx", "A 55487-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 55487-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 55487-2019.docx", "A 55487-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 55487-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 55487-2019.docx", "A 55487-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 55487-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 55487-2019.docx", "A 55487-2019")</f>
         <v/>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
         <v>44060</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,27 +1196,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 38299-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 38299-2020.xlsx", "A 38299-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 38299-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 38299-2020.png", "A 38299-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 38299-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 38299-2020.docx", "A 38299-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 38299-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 38299-2020.docx", "A 38299-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 38299-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 38299-2020.docx", "A 38299-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 38299-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 38299-2020.docx", "A 38299-2020")</f>
         <v/>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,27 +1288,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 34293-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 34293-2023.xlsx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 34293-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 34293-2023.png", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 34293-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 34293-2023.docx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 34293-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 34293-2023.docx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 34293-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 34293-2023.docx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx", "A 34293-2023")</f>
         <v/>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,27 +1379,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 26686-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 26686-2019.xlsx", "A 26686-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 26686-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 26686-2019.png", "A 26686-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 26686-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 26686-2019.docx", "A 26686-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 26686-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 26686-2019.docx", "A 26686-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 26686-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 26686-2019.docx", "A 26686-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 26686-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 26686-2019.docx", "A 26686-2019")</f>
         <v/>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
         <v>43732</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,27 +1470,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 49416-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 49416-2019.xlsx", "A 49416-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 49416-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 49416-2019.png", "A 49416-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 49416-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 49416-2019.docx", "A 49416-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 49416-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 49416-2019.docx", "A 49416-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 49416-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 49416-2019.docx", "A 49416-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 49416-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 49416-2019.docx", "A 49416-2019")</f>
         <v/>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
         <v>43732</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,27 +1561,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 49419-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 49419-2019.xlsx", "A 49419-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 49419-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 49419-2019.png", "A 49419-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 49419-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 49419-2019.docx", "A 49419-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 49419-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 49419-2019.docx", "A 49419-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 49419-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 49419-2019.docx", "A 49419-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 49419-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 49419-2019.docx", "A 49419-2019")</f>
         <v/>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
         <v>43878</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1652,27 +1652,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 8922-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 8922-2020.xlsx", "A 8922-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 8922-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 8922-2020.png", "A 8922-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 8922-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 8922-2020.docx", "A 8922-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 8922-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 8922-2020.docx", "A 8922-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 8922-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 8922-2020.docx", "A 8922-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 8922-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 8922-2020.docx", "A 8922-2020")</f>
         <v/>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
         <v>44280</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1738,27 +1738,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 14807-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 14807-2021.xlsx", "A 14807-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 14807-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 14807-2021.png", "A 14807-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 14807-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 14807-2021.docx", "A 14807-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 14807-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 14807-2021.docx", "A 14807-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 14807-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 14807-2021.docx", "A 14807-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 14807-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 14807-2021.docx", "A 14807-2021")</f>
         <v/>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
         <v>44320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1829,27 +1829,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 21177-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 21177-2021.xlsx", "A 21177-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 21177-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 21177-2021.png", "A 21177-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 21177-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 21177-2021.docx", "A 21177-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 21177-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 21177-2021.docx", "A 21177-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 21177-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 21177-2021.docx", "A 21177-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 21177-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 21177-2021.docx", "A 21177-2021")</f>
         <v/>
       </c>
     </row>
@@ -1863,7 +1863,7 @@
         <v>44472</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,27 +1915,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 54332-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 54332-2021.xlsx", "A 54332-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 54332-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 54332-2021.png", "A 54332-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 54332-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 54332-2021.docx", "A 54332-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 54332-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 54332-2021.docx", "A 54332-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 54332-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 54332-2021.docx", "A 54332-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 54332-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 54332-2021.docx", "A 54332-2021")</f>
         <v/>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
         <v>44484</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2001,27 +2001,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 57803-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 57803-2021.xlsx", "A 57803-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 57803-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 57803-2021.png", "A 57803-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 57803-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 57803-2021.docx", "A 57803-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 57803-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 57803-2021.docx", "A 57803-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 57803-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 57803-2021.docx", "A 57803-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 57803-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 57803-2021.docx", "A 57803-2021")</f>
         <v/>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
         <v>45021</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2087,27 +2087,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 15687-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 15687-2023.xlsx", "A 15687-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 15687-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 15687-2023.png", "A 15687-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 15687-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 15687-2023.docx", "A 15687-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 15687-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 15687-2023.docx", "A 15687-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 15687-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 15687-2023.docx", "A 15687-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 15687-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 15687-2023.docx", "A 15687-2023")</f>
         <v/>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
         <v>43526</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2172,27 +2172,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 12961-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 12961-2019.xlsx", "A 12961-2019")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 12961-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 12961-2019.png", "A 12961-2019")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 12961-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 12961-2019.docx", "A 12961-2019")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 12961-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 12961-2019.docx", "A 12961-2019")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 12961-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 12961-2019.docx", "A 12961-2019")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 12961-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 12961-2019.docx", "A 12961-2019")</f>
         <v/>
       </c>
     </row>
@@ -2206,7 +2206,7 @@
         <v>43560</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2257,27 +2257,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 18741-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 18741-2019.xlsx", "A 18741-2019")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 18741-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 18741-2019.png", "A 18741-2019")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 18741-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 18741-2019.docx", "A 18741-2019")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 18741-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 18741-2019.docx", "A 18741-2019")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 18741-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 18741-2019.docx", "A 18741-2019")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 18741-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 18741-2019.docx", "A 18741-2019")</f>
         <v/>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
         <v>43588</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2347,27 +2347,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 22674-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 22674-2019.xlsx", "A 22674-2019")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 22674-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 22674-2019.png", "A 22674-2019")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 22674-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 22674-2019.docx", "A 22674-2019")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 22674-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 22674-2019.docx", "A 22674-2019")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 22674-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 22674-2019.docx", "A 22674-2019")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 22674-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 22674-2019.docx", "A 22674-2019")</f>
         <v/>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
         <v>43737</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2432,27 +2432,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 52363-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 52363-2019.xlsx", "A 52363-2019")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 52363-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 52363-2019.png", "A 52363-2019")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 52363-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 52363-2019.docx", "A 52363-2019")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 52363-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 52363-2019.docx", "A 52363-2019")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 52363-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 52363-2019.docx", "A 52363-2019")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 52363-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 52363-2019.docx", "A 52363-2019")</f>
         <v/>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
         <v>43746</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2522,27 +2522,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 52821-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 52821-2019.xlsx", "A 52821-2019")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 52821-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 52821-2019.png", "A 52821-2019")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 52821-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 52821-2019.docx", "A 52821-2019")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 52821-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 52821-2019.docx", "A 52821-2019")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 52821-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 52821-2019.docx", "A 52821-2019")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 52821-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 52821-2019.docx", "A 52821-2019")</f>
         <v/>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
         <v>43746</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2607,27 +2607,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 52662-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 52662-2019.xlsx", "A 52662-2019")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 52662-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 52662-2019.png", "A 52662-2019")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 52662-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 52662-2019.docx", "A 52662-2019")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 52662-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 52662-2019.docx", "A 52662-2019")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 52662-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 52662-2019.docx", "A 52662-2019")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 52662-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 52662-2019.docx", "A 52662-2019")</f>
         <v/>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
         <v>43766</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2697,27 +2697,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 56905-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 56905-2019.xlsx", "A 56905-2019")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 56905-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 56905-2019.png", "A 56905-2019")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 56905-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 56905-2019.docx", "A 56905-2019")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 56905-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 56905-2019.docx", "A 56905-2019")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 56905-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 56905-2019.docx", "A 56905-2019")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 56905-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 56905-2019.docx", "A 56905-2019")</f>
         <v/>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
         <v>43773</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2787,27 +2787,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 58472-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 58472-2019.xlsx", "A 58472-2019")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 58472-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 58472-2019.png", "A 58472-2019")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 58472-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 58472-2019.docx", "A 58472-2019")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 58472-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 58472-2019.docx", "A 58472-2019")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 58472-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 58472-2019.docx", "A 58472-2019")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 58472-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 58472-2019.docx", "A 58472-2019")</f>
         <v/>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
         <v>43936</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2877,27 +2877,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 19090-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 19090-2020.xlsx", "A 19090-2020")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 19090-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 19090-2020.png", "A 19090-2020")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 19090-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 19090-2020.docx", "A 19090-2020")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 19090-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 19090-2020.docx", "A 19090-2020")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 19090-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 19090-2020.docx", "A 19090-2020")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 19090-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 19090-2020.docx", "A 19090-2020")</f>
         <v/>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
         <v>44320</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2967,27 +2967,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 21181-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 21181-2021.xlsx", "A 21181-2021")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 21181-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 21181-2021.png", "A 21181-2021")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 21181-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 21181-2021.docx", "A 21181-2021")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 21181-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 21181-2021.docx", "A 21181-2021")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 21181-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 21181-2021.docx", "A 21181-2021")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 21181-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 21181-2021.docx", "A 21181-2021")</f>
         <v/>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
         <v>44484</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3052,27 +3052,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 57809-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 57809-2021.xlsx", "A 57809-2021")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 57809-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 57809-2021.png", "A 57809-2021")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 57809-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 57809-2021.docx", "A 57809-2021")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 57809-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 57809-2021.docx", "A 57809-2021")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 57809-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 57809-2021.docx", "A 57809-2021")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 57809-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 57809-2021.docx", "A 57809-2021")</f>
         <v/>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
         <v>44512</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3137,27 +3137,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 64874-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 64874-2021.xlsx", "A 64874-2021")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 64874-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 64874-2021.png", "A 64874-2021")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 64874-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 64874-2021.docx", "A 64874-2021")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 64874-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 64874-2021.docx", "A 64874-2021")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 64874-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 64874-2021.docx", "A 64874-2021")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 64874-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 64874-2021.docx", "A 64874-2021")</f>
         <v/>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
         <v>44522</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3222,27 +3222,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 67013-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 67013-2021.xlsx", "A 67013-2021")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 67013-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 67013-2021.png", "A 67013-2021")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 67013-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 67013-2021.docx", "A 67013-2021")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 67013-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 67013-2021.docx", "A 67013-2021")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 67013-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 67013-2021.docx", "A 67013-2021")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 67013-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 67013-2021.docx", "A 67013-2021")</f>
         <v/>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
         <v>44536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3307,31 +3307,31 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 70466-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 70466-2021.xlsx", "A 70466-2021")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 70466-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 70466-2021.png", "A 70466-2021")</f>
         <v/>
       </c>
       <c r="U32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/knärot/A 70466-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/knärot/A 70466-2021.png", "A 70466-2021")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 70466-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 70466-2021.docx", "A 70466-2021")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 70466-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 70466-2021.docx", "A 70466-2021")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 70466-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 70466-2021.docx", "A 70466-2021")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 70466-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 70466-2021.docx", "A 70466-2021")</f>
         <v/>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
         <v>44789</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3396,27 +3396,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 33574-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 33574-2022.xlsx", "A 33574-2022")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 33574-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 33574-2022.png", "A 33574-2022")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 33574-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 33574-2022.docx", "A 33574-2022")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 33574-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 33574-2022.docx", "A 33574-2022")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 33574-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 33574-2022.docx", "A 33574-2022")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 33574-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 33574-2022.docx", "A 33574-2022")</f>
         <v/>
       </c>
     </row>
@@ -3430,7 +3430,7 @@
         <v>44979</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3481,27 +3481,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 8950-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 8950-2023.xlsx", "A 8950-2023")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 8950-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 8950-2023.png", "A 8950-2023")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 8950-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 8950-2023.docx", "A 8950-2023")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 8950-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 8950-2023.docx", "A 8950-2023")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 8950-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 8950-2023.docx", "A 8950-2023")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 8950-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 8950-2023.docx", "A 8950-2023")</f>
         <v/>
       </c>
     </row>
@@ -3515,7 +3515,7 @@
         <v>45075</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3571,27 +3571,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 23153-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 23153-2023.xlsx", "A 23153-2023")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 23153-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 23153-2023.png", "A 23153-2023")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 23153-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 23153-2023.docx", "A 23153-2023")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 23153-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 23153-2023.docx", "A 23153-2023")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 23153-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 23153-2023.docx", "A 23153-2023")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 23153-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 23153-2023.docx", "A 23153-2023")</f>
         <v/>
       </c>
     </row>
@@ -3605,7 +3605,7 @@
         <v>45075</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3661,27 +3661,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 23107-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 23107-2023.xlsx", "A 23107-2023")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 23107-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 23107-2023.png", "A 23107-2023")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 23107-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 23107-2023.docx", "A 23107-2023")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 23107-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 23107-2023.docx", "A 23107-2023")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 23107-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 23107-2023.docx", "A 23107-2023")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 23107-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 23107-2023.docx", "A 23107-2023")</f>
         <v/>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
         <v>45099</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3751,27 +3751,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 28033-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 28033-2023.xlsx", "A 28033-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 28033-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 28033-2023.png", "A 28033-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 28033-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 28033-2023.docx", "A 28033-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 28033-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 28033-2023.docx", "A 28033-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 28033-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 28033-2023.docx", "A 28033-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 28033-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 28033-2023.docx", "A 28033-2023")</f>
         <v/>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
         <v>45099</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3841,27 +3841,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 28035-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 28035-2023.xlsx", "A 28035-2023")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 28035-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 28035-2023.png", "A 28035-2023")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 28035-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 28035-2023.docx", "A 28035-2023")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 28035-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 28035-2023.docx", "A 28035-2023")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 28035-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 28035-2023.docx", "A 28035-2023")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 28035-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 28035-2023.docx", "A 28035-2023")</f>
         <v/>
       </c>
     </row>
@@ -3875,7 +3875,7 @@
         <v>45138</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3931,27 +3931,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 34292-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 34292-2023.xlsx", "A 34292-2023")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 34292-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 34292-2023.png", "A 34292-2023")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 34292-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 34292-2023.docx", "A 34292-2023")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 34292-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 34292-2023.docx", "A 34292-2023")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 34292-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 34292-2023.docx", "A 34292-2023")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 34292-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 34292-2023.docx", "A 34292-2023")</f>
         <v/>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
         <v>45138</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4021,27 +4021,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 34239-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 34239-2023.xlsx", "A 34239-2023")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 34239-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 34239-2023.png", "A 34239-2023")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 34239-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 34239-2023.docx", "A 34239-2023")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 34239-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 34239-2023.docx", "A 34239-2023")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 34239-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 34239-2023.docx", "A 34239-2023")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 34239-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 34239-2023.docx", "A 34239-2023")</f>
         <v/>
       </c>
     </row>
@@ -4055,7 +4055,7 @@
         <v>45160</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4111,27 +4111,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 37915-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/artfynd/A 37915-2023.xlsx", "A 37915-2023")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 37915-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/kartor/A 37915-2023.png", "A 37915-2023")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 37915-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 37915-2023.docx", "A 37915-2023")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 37915-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 37915-2023.docx", "A 37915-2023")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 37915-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 37915-2023.docx", "A 37915-2023")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 37915-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 37915-2023.docx", "A 37915-2023")</f>
         <v/>
       </c>
     </row>
@@ -4145,7 +4145,7 @@
         <v>43339</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43374</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43390</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43390</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43409</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>43423</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>43429</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43441</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43444</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43444</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43453</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43467</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43467</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43468</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43468</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43468</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43479</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43494</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43497</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43500</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43521</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43523</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43524</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43526</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43529</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>43535</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>43538</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43539</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>43544</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43551</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43553</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43557</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43560</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43560</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43563</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43564</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43567</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43570</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43571</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43571</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43579</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43580</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43581</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43588</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43588</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>43588</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43588</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43592</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43592</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43594</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43594</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43594</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43598</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43598</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43599</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43599</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43599</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43600</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43601</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43601</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43601</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43605</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43605</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43606</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43608</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43612</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43612</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43616</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43619</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43626</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>43628</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43630</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43633</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43633</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43634</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43634</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43635</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43636</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>43642</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43642</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>43643</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43643</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43643</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43643</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43643</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12858,7 +12858,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43644</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>43655</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>43656</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>43661</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>43661</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>43663</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>43669</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43671</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43678</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43679</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43680</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43680</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43683</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43684</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43685</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43689</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43691</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43693</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43699</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43699</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43699</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43710</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43713</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43713</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43713</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43717</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>43720</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>43720</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>43723</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>43725</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43725</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43731</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>43731</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>43734</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>43734</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>43734</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>43738</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>43738</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>43740</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>43740</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>43740</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>43740</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>43745</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>43745</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>43746</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>43749</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>43749</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>43752</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>43752</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43755</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43755</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>43761</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>43762</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>43762</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>43764</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>43766</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>43766</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>43766</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>43766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>43767</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>43767</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>43773</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>43780</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>43786</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>43786</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>43788</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>43788</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43790</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43790</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43792</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43800</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43800</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43804</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43805</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43805</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43809</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43810</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43817</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43826</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43837</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43844</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43845</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43857</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43860</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43860</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>43861</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>43865</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>43866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>43867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>43871</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>43871</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43872</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>43875</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43885</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43892</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43895</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>43895</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>43897</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43899</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>43900</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>43900</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>43902</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>43904</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43904</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>43904</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>43907</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43910</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>43913</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>43914</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43921</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43923</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43923</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>43929</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>43930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>43941</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>43947</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20485,7 +20485,7 @@
         <v>43948</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43948</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43957</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43958</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43962</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43962</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43962</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43962</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43966</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>43969</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>43969</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>43971</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>43984</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>43984</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>43993</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>43999</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44000</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44000</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44000</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44004</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44005</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         <v>44006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>44006</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21940,7 +21940,7 @@
         <v>44006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21997,7 +21997,7 @@
         <v>44006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>44007</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44007</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44013</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44016</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44016</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44018</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>44018</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         <v>44018</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>44018</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>44018</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22639,7 +22639,7 @@
         <v>44020</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44046</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44047</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44049</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>44053</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44063</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44063</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44064</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44067</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44069</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>44069</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>44069</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>44069</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>44069</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44071</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44073</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>44076</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>44076</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44083</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>44085</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>44085</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44088</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>44088</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>44088</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>44091</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44091</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>44098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>44102</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>44102</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>44104</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>44107</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44113</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44113</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44113</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44114</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44116</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>44123</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>44123</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24959,7 +24959,7 @@
         <v>44124</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25016,7 +25016,7 @@
         <v>44124</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>44126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44126</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44126</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44130</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44133</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44145</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44150</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44151</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44151</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44154</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44161</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25715,7 +25715,7 @@
         <v>44162</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25772,7 +25772,7 @@
         <v>44162</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>44162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>44167</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>44169</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44169</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44171</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44175</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44176</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>44176</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44179</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44179</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>44183</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44187</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26558,7 +26558,7 @@
         <v>44187</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26615,7 +26615,7 @@
         <v>44197</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26672,7 +26672,7 @@
         <v>44201</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26729,7 +26729,7 @@
         <v>44208</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44210</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44224</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44227</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44228</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44231</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44236</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27118,23 +27118,23 @@
       </c>
       <c r="R435" s="2" t="inlineStr"/>
       <c r="U435">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/knärot/A 6752-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/knärot/A 6752-2021.png", "A 6752-2021")</f>
         <v/>
       </c>
       <c r="V435">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 6752-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomål/A 6752-2021.docx", "A 6752-2021")</f>
         <v/>
       </c>
       <c r="W435">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 6752-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/klagomålsmail/A 6752-2021.docx", "A 6752-2021")</f>
         <v/>
       </c>
       <c r="X435">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 6752-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsyn/A 6752-2021.docx", "A 6752-2021")</f>
         <v/>
       </c>
       <c r="Y435">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 6752-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LINDESBERG/tillsynsmail/A 6752-2021.docx", "A 6752-2021")</f>
         <v/>
       </c>
     </row>
@@ -27148,7 +27148,7 @@
         <v>44242</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44242</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44257</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>44258</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44258</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44259</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44259</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44259</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44263</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44267</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44267</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27780,7 +27780,7 @@
         <v>44267</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         <v>44271</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27894,7 +27894,7 @@
         <v>44273</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>44276</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28008,7 +28008,7 @@
         <v>44276</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28065,7 +28065,7 @@
         <v>44280</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>44281</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>44298</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>44300</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28298,7 +28298,7 @@
         <v>44300</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28355,7 +28355,7 @@
         <v>44301</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>44305</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>44308</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44319</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44325</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44326</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44327</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44332</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44348</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44348</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>44355</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44357</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>44361</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>44363</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>44375</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>44375</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44375</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>44375</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>44375</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>44376</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>44377</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>44377</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>44378</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29711,7 +29711,7 @@
         <v>44383</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>44386</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>44389</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>44389</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>44389</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>44389</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30068,7 +30068,7 @@
         <v>44389</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>44389</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>44389</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30244,7 +30244,7 @@
         <v>44389</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         <v>44420</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30363,7 +30363,7 @@
         <v>44420</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30420,7 +30420,7 @@
         <v>44425</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30482,7 +30482,7 @@
         <v>44425</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>44425</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44431</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44431</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44432</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30782,7 +30782,7 @@
         <v>44434</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30839,7 +30839,7 @@
         <v>44438</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30901,7 +30901,7 @@
         <v>44445</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30963,7 +30963,7 @@
         <v>44445</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31025,7 +31025,7 @@
         <v>44446</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31082,7 +31082,7 @@
         <v>44447</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31139,7 +31139,7 @@
         <v>44447</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>44449</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31253,7 +31253,7 @@
         <v>44449</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31310,7 +31310,7 @@
         <v>44451</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31367,7 +31367,7 @@
         <v>44452</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>44453</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31481,7 +31481,7 @@
         <v>44453</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31538,7 +31538,7 @@
         <v>44456</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>44457</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44460</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44461</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>44462</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31828,7 +31828,7 @@
         <v>44463</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31885,7 +31885,7 @@
         <v>44481</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31942,7 +31942,7 @@
         <v>44484</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31999,7 +31999,7 @@
         <v>44484</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32056,7 +32056,7 @@
         <v>44490</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32113,7 +32113,7 @@
         <v>44490</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32170,7 +32170,7 @@
         <v>44491</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32227,7 +32227,7 @@
         <v>44491</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32284,7 +32284,7 @@
         <v>44494</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32341,7 +32341,7 @@
         <v>44497</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32398,7 +32398,7 @@
         <v>44501</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32455,7 +32455,7 @@
         <v>44502</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32512,7 +32512,7 @@
         <v>44503</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32569,7 +32569,7 @@
         <v>44503</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         <v>44505</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32683,7 +32683,7 @@
         <v>44508</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32740,7 +32740,7 @@
         <v>44511</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32797,7 +32797,7 @@
         <v>44517</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32854,7 +32854,7 @@
         <v>44522</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>44523</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32973,7 +32973,7 @@
         <v>44526</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>44533</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33087,7 +33087,7 @@
         <v>44536</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33144,7 +33144,7 @@
         <v>44536</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33201,7 +33201,7 @@
         <v>44539</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33258,7 +33258,7 @@
         <v>44544</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
         <v>44545</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33372,7 +33372,7 @@
         <v>44551</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33429,7 +33429,7 @@
         <v>44564</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44566</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33543,7 +33543,7 @@
         <v>44585</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33600,7 +33600,7 @@
         <v>44594</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33657,7 +33657,7 @@
         <v>44602</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33714,7 +33714,7 @@
         <v>44603</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>44603</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>44608</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33895,7 +33895,7 @@
         <v>44613</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44613</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>44618</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44619</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>44627</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>44627</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>44629</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>44629</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44630</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44638</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44648</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44665</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44665</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44665</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44665</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44665</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44665</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44671</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>44671</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>44672</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>44673</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>44675</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35211,7 +35211,7 @@
         <v>44675</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44676</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44679</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44683</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44684</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>44685</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>44686</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>44690</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>44691</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>44691</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>44691</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>44691</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>44697</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35962,7 +35962,7 @@
         <v>44701</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         <v>44701</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>44714</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44728</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>44728</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>44742</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36304,7 +36304,7 @@
         <v>44753</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
         <v>44754</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36418,7 +36418,7 @@
         <v>44777</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36475,7 +36475,7 @@
         <v>44784</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44789</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>44789</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>44789</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>44790</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36760,7 +36760,7 @@
         <v>44791</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36817,7 +36817,7 @@
         <v>44796</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36874,7 +36874,7 @@
         <v>44806</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36931,7 +36931,7 @@
         <v>44810</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36988,7 +36988,7 @@
         <v>44819</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37045,7 +37045,7 @@
         <v>44820</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37102,7 +37102,7 @@
         <v>44822</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37159,7 +37159,7 @@
         <v>44825</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44833</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44837</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>44841</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37397,7 +37397,7 @@
         <v>44841</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>44846</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37511,7 +37511,7 @@
         <v>44860</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>44860</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37630,7 +37630,7 @@
         <v>44860</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37692,7 +37692,7 @@
         <v>44862</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37754,7 +37754,7 @@
         <v>44862</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
         <v>44872</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37873,7 +37873,7 @@
         <v>44883</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37930,7 +37930,7 @@
         <v>44883</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37987,7 +37987,7 @@
         <v>44889</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38044,7 +38044,7 @@
         <v>44893</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38101,7 +38101,7 @@
         <v>44894</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38158,7 +38158,7 @@
         <v>44895</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38215,7 +38215,7 @@
         <v>44900</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38272,7 +38272,7 @@
         <v>44902</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38329,7 +38329,7 @@
         <v>44902</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         <v>44902</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38448,7 +38448,7 @@
         <v>44902</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38510,7 +38510,7 @@
         <v>44902</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38567,7 +38567,7 @@
         <v>44904</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38624,7 +38624,7 @@
         <v>44909</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38681,7 +38681,7 @@
         <v>44911</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38738,7 +38738,7 @@
         <v>44916</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38795,7 +38795,7 @@
         <v>44924</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38852,7 +38852,7 @@
         <v>44927</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38909,7 +38909,7 @@
         <v>44928</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38966,7 +38966,7 @@
         <v>44945</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39023,7 +39023,7 @@
         <v>44945</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39080,7 +39080,7 @@
         <v>44946</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39137,7 +39137,7 @@
         <v>44949</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39194,7 +39194,7 @@
         <v>44949</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>44949</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39308,7 +39308,7 @@
         <v>44950</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39365,7 +39365,7 @@
         <v>44957</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>44963</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39479,7 +39479,7 @@
         <v>44970</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39536,7 +39536,7 @@
         <v>44974</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39593,7 +39593,7 @@
         <v>44974</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39650,7 +39650,7 @@
         <v>44977</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39712,7 +39712,7 @@
         <v>44978</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39769,7 +39769,7 @@
         <v>44978</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         <v>44979</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39883,7 +39883,7 @@
         <v>44979</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39940,7 +39940,7 @@
         <v>44981</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39997,7 +39997,7 @@
         <v>44981</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40054,7 +40054,7 @@
         <v>44981</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40111,7 +40111,7 @@
         <v>44984</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40168,7 +40168,7 @@
         <v>44988</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40230,7 +40230,7 @@
         <v>44990</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40287,7 +40287,7 @@
         <v>44990</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40344,7 +40344,7 @@
         <v>44993</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>45005</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>45005</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>45005</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>45005</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>45007</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>45008</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40768,7 +40768,7 @@
         <v>45016</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40825,7 +40825,7 @@
         <v>45021</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>45025</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>45027</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>45030</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41058,7 +41058,7 @@
         <v>45035</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41115,7 +41115,7 @@
         <v>45036</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41172,7 +41172,7 @@
         <v>45040</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41234,7 +41234,7 @@
         <v>45043</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41291,7 +41291,7 @@
         <v>45048</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41348,7 +41348,7 @@
         <v>45050</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41405,7 +41405,7 @@
         <v>45054</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41462,7 +41462,7 @@
         <v>45054</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>45054</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>45054</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>45054</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>45056</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45057</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41804,7 +41804,7 @@
         <v>45061</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41861,7 +41861,7 @@
         <v>45063</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41918,7 +41918,7 @@
         <v>45068</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41975,7 +41975,7 @@
         <v>45068</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42032,7 +42032,7 @@
         <v>45071</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42094,7 +42094,7 @@
         <v>45071</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42156,7 +42156,7 @@
         <v>45072</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45072</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42280,7 +42280,7 @@
         <v>45072</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42342,7 +42342,7 @@
         <v>45072</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42404,7 +42404,7 @@
         <v>45074</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42461,7 +42461,7 @@
         <v>45075</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42523,7 +42523,7 @@
         <v>45075</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>45077</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42647,7 +42647,7 @@
         <v>45077</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42709,7 +42709,7 @@
         <v>45077</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42771,7 +42771,7 @@
         <v>45077</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42833,7 +42833,7 @@
         <v>45079</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>45079</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         <v>45079</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43019,7 +43019,7 @@
         <v>45082</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43081,7 +43081,7 @@
         <v>45085</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43138,7 +43138,7 @@
         <v>45095</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43195,7 +43195,7 @@
         <v>45095</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43252,7 +43252,7 @@
         <v>45096</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43314,7 +43314,7 @@
         <v>45096</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43376,7 +43376,7 @@
         <v>45099</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>45103</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43495,7 +43495,7 @@
         <v>45103</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43552,7 +43552,7 @@
         <v>45104</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43614,7 +43614,7 @@
         <v>45106</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43671,7 +43671,7 @@
         <v>45107</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45107</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45107</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45107</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43909,7 +43909,7 @@
         <v>45110</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43971,7 +43971,7 @@
         <v>45111</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44028,7 +44028,7 @@
         <v>45113</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44085,7 +44085,7 @@
         <v>45113</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44142,7 +44142,7 @@
         <v>45119</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>45119</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>45119</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>45119</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>45119</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44452,7 +44452,7 @@
         <v>45121</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>45131</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>45138</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>45140</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>45142</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>45142</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>45145</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>45147</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45148</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45149</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45149</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45166,7 +45166,7 @@
         <v>45152</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45152</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45290,7 +45290,7 @@
         <v>45155</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>45170</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45409,7 +45409,7 @@
         <v>45170</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45471,7 +45471,7 @@
         <v>45181</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45528,7 +45528,7 @@
         <v>45181</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>

--- a/Översikt LINDESBERG.xlsx
+++ b/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43746</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43759</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44406</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         <v>43766</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43759</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44060</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43732</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43732</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>43878</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44280</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>44320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>44472</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44484</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45021</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43526</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43560</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43588</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43737</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43746</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43746</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43766</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43773</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43936</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44320</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44484</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44512</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44522</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>44536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44789</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44979</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>45075</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45075</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45099</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>45099</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>45138</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45138</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>45160</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43339</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43374</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43390</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43390</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43409</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>43423</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>43429</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43441</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43444</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43444</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43453</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43467</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43467</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43468</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43468</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43468</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43479</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43494</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43497</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43500</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43521</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43523</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43524</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43526</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43529</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>43535</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>43538</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43539</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>43544</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43551</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43553</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43557</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43560</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43560</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43563</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43564</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43567</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43570</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43571</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43571</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43579</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43580</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43581</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43588</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43588</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>43588</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43588</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43592</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43592</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43594</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43594</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43594</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43598</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43598</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43599</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43599</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43599</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43600</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43601</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43601</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43601</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43605</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43605</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43606</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43608</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43612</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43612</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43616</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43619</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43626</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>43628</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43630</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43633</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43633</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43634</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43634</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43635</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43636</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>43642</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43642</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>43643</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43643</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43643</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43643</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43643</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12858,7 +12858,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43644</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>43655</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>43656</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>43661</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>43661</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>43663</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>43669</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43671</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43678</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43679</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43680</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43680</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43683</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43684</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43685</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43689</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43691</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43693</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43699</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43699</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43699</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43710</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43713</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43713</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43713</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43717</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>43720</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>43720</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>43723</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>43725</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43725</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43731</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>43731</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>43734</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>43734</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>43734</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>43738</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>43738</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>43740</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>43740</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>43740</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>43740</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>43745</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>43745</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>43746</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>43749</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>43749</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>43752</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>43752</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43755</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43755</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>43761</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>43762</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>43762</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>43764</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>43766</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>43766</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>43766</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>43766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>43767</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>43767</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>43773</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>43780</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>43786</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>43786</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>43788</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>43788</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43790</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43790</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43792</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43800</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43800</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43804</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43805</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43805</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43809</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43810</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43817</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43826</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43837</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43844</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43845</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43857</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43860</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43860</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>43861</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>43865</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>43866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>43867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>43871</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>43871</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43872</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>43875</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43885</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43892</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43895</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>43895</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>43897</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43899</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>43900</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>43900</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>43902</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>43904</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43904</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>43904</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>43907</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43910</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>43913</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>43914</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43921</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43923</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43923</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>43929</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>43930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>43941</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>43947</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20485,7 +20485,7 @@
         <v>43948</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43948</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43957</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43958</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43962</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43962</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43962</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43962</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43966</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>43969</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>43969</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>43971</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>43984</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>43984</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>43993</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>43999</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44000</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44000</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44000</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44004</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44005</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         <v>44006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>44006</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21940,7 +21940,7 @@
         <v>44006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21997,7 +21997,7 @@
         <v>44006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>44007</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44007</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44013</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44016</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44016</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44018</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>44018</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         <v>44018</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>44018</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>44018</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22639,7 +22639,7 @@
         <v>44020</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44046</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44047</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44049</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>44053</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44063</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44063</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44064</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44067</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44069</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>44069</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>44069</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>44069</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>44069</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44071</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44073</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>44076</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>44076</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44083</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>44085</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>44085</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44088</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>44088</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>44088</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>44091</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44091</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>44098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>44102</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>44102</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>44104</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>44107</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44113</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44113</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44113</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44114</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44116</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>44123</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>44123</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24959,7 +24959,7 @@
         <v>44124</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25016,7 +25016,7 @@
         <v>44124</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>44126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44126</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44126</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44130</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44133</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44145</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44150</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44151</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44151</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44154</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44161</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25715,7 +25715,7 @@
         <v>44162</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25772,7 +25772,7 @@
         <v>44162</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>44162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>44167</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>44169</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44169</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44171</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44175</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44176</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>44176</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44179</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44179</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>44183</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44187</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26558,7 +26558,7 @@
         <v>44187</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26615,7 +26615,7 @@
         <v>44197</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26672,7 +26672,7 @@
         <v>44201</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26729,7 +26729,7 @@
         <v>44208</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44210</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44224</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44227</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44228</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44231</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44236</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44242</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44242</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44257</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>44258</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44258</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44259</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44259</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44259</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44263</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44267</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44267</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27780,7 +27780,7 @@
         <v>44267</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         <v>44271</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27894,7 +27894,7 @@
         <v>44273</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>44276</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28008,7 +28008,7 @@
         <v>44276</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28065,7 +28065,7 @@
         <v>44280</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>44281</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>44298</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>44300</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28298,7 +28298,7 @@
         <v>44300</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28355,7 +28355,7 @@
         <v>44301</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>44305</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>44308</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44319</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44325</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44326</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44327</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44332</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44348</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44348</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>44355</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44357</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>44361</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>44363</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>44375</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>44375</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44375</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>44375</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>44375</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>44376</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>44377</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>44377</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>44378</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29711,7 +29711,7 @@
         <v>44383</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>44386</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>44389</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>44389</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>44389</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>44389</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30068,7 +30068,7 @@
         <v>44389</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>44389</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>44389</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30244,7 +30244,7 @@
         <v>44389</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         <v>44420</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30363,7 +30363,7 @@
         <v>44420</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30420,7 +30420,7 @@
         <v>44425</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30482,7 +30482,7 @@
         <v>44425</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>44425</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44431</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44431</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44432</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30782,7 +30782,7 @@
         <v>44434</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30839,7 +30839,7 @@
         <v>44438</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30901,7 +30901,7 @@
         <v>44445</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30963,7 +30963,7 @@
         <v>44445</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31025,7 +31025,7 @@
         <v>44446</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31082,7 +31082,7 @@
         <v>44447</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31139,7 +31139,7 @@
         <v>44447</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>44449</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31253,7 +31253,7 @@
         <v>44449</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31310,7 +31310,7 @@
         <v>44451</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31367,7 +31367,7 @@
         <v>44452</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>44453</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31481,7 +31481,7 @@
         <v>44453</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31538,7 +31538,7 @@
         <v>44456</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>44457</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44460</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44461</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>44462</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31828,7 +31828,7 @@
         <v>44463</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31885,7 +31885,7 @@
         <v>44481</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31942,7 +31942,7 @@
         <v>44484</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31999,7 +31999,7 @@
         <v>44484</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32056,7 +32056,7 @@
         <v>44490</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32113,7 +32113,7 @@
         <v>44490</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32170,7 +32170,7 @@
         <v>44491</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32227,7 +32227,7 @@
         <v>44491</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32284,7 +32284,7 @@
         <v>44494</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32341,7 +32341,7 @@
         <v>44497</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32398,7 +32398,7 @@
         <v>44501</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32455,7 +32455,7 @@
         <v>44502</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32512,7 +32512,7 @@
         <v>44503</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32569,7 +32569,7 @@
         <v>44503</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         <v>44505</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32683,7 +32683,7 @@
         <v>44508</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32740,7 +32740,7 @@
         <v>44511</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32797,7 +32797,7 @@
         <v>44517</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32854,7 +32854,7 @@
         <v>44522</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>44523</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32973,7 +32973,7 @@
         <v>44526</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>44533</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33087,7 +33087,7 @@
         <v>44536</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33144,7 +33144,7 @@
         <v>44536</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33201,7 +33201,7 @@
         <v>44539</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33258,7 +33258,7 @@
         <v>44544</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
         <v>44545</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33372,7 +33372,7 @@
         <v>44551</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33429,7 +33429,7 @@
         <v>44564</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44566</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33543,7 +33543,7 @@
         <v>44585</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33600,7 +33600,7 @@
         <v>44594</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33657,7 +33657,7 @@
         <v>44602</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33714,7 +33714,7 @@
         <v>44603</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>44603</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>44608</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33895,7 +33895,7 @@
         <v>44613</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44613</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>44618</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44619</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>44627</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>44627</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>44629</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>44629</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44630</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44638</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44648</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44665</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44665</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44665</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44665</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44665</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44665</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44671</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>44671</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>44672</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>44673</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>44675</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35211,7 +35211,7 @@
         <v>44675</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44676</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44679</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44683</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44684</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>44685</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>44686</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>44690</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>44691</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>44691</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>44691</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>44691</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>44697</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35962,7 +35962,7 @@
         <v>44701</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         <v>44701</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>44714</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44728</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>44728</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>44742</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36304,7 +36304,7 @@
         <v>44753</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
         <v>44754</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36418,7 +36418,7 @@
         <v>44777</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36475,7 +36475,7 @@
         <v>44784</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44789</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>44789</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>44789</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>44790</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36760,7 +36760,7 @@
         <v>44791</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36817,7 +36817,7 @@
         <v>44796</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36874,7 +36874,7 @@
         <v>44806</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36931,7 +36931,7 @@
         <v>44810</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36988,7 +36988,7 @@
         <v>44819</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37045,7 +37045,7 @@
         <v>44820</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37102,7 +37102,7 @@
         <v>44822</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37159,7 +37159,7 @@
         <v>44825</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44833</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44837</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>44841</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37397,7 +37397,7 @@
         <v>44841</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>44846</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37511,7 +37511,7 @@
         <v>44860</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>44860</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37630,7 +37630,7 @@
         <v>44860</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37692,7 +37692,7 @@
         <v>44862</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37754,7 +37754,7 @@
         <v>44862</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
         <v>44872</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37873,7 +37873,7 @@
         <v>44883</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37930,7 +37930,7 @@
         <v>44883</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37987,7 +37987,7 @@
         <v>44889</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38044,7 +38044,7 @@
         <v>44893</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38101,7 +38101,7 @@
         <v>44894</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38158,7 +38158,7 @@
         <v>44895</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38215,7 +38215,7 @@
         <v>44900</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38272,7 +38272,7 @@
         <v>44902</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38329,7 +38329,7 @@
         <v>44902</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         <v>44902</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38448,7 +38448,7 @@
         <v>44902</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38510,7 +38510,7 @@
         <v>44902</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38567,7 +38567,7 @@
         <v>44904</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38624,7 +38624,7 @@
         <v>44909</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38681,7 +38681,7 @@
         <v>44911</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38738,7 +38738,7 @@
         <v>44916</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38795,7 +38795,7 @@
         <v>44924</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38852,7 +38852,7 @@
         <v>44927</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38909,7 +38909,7 @@
         <v>44928</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38966,7 +38966,7 @@
         <v>44945</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39023,7 +39023,7 @@
         <v>44945</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39080,7 +39080,7 @@
         <v>44946</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39137,7 +39137,7 @@
         <v>44949</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39194,7 +39194,7 @@
         <v>44949</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>44949</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39308,7 +39308,7 @@
         <v>44950</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39365,7 +39365,7 @@
         <v>44957</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>44963</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39479,7 +39479,7 @@
         <v>44970</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39536,7 +39536,7 @@
         <v>44974</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39593,7 +39593,7 @@
         <v>44974</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39650,7 +39650,7 @@
         <v>44977</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39712,7 +39712,7 @@
         <v>44978</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39769,7 +39769,7 @@
         <v>44978</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         <v>44979</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39883,7 +39883,7 @@
         <v>44979</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39940,7 +39940,7 @@
         <v>44981</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39997,7 +39997,7 @@
         <v>44981</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40054,7 +40054,7 @@
         <v>44981</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40111,7 +40111,7 @@
         <v>44984</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40168,7 +40168,7 @@
         <v>44988</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40230,7 +40230,7 @@
         <v>44990</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40287,7 +40287,7 @@
         <v>44990</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40344,7 +40344,7 @@
         <v>44993</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>45005</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>45005</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>45005</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>45005</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>45007</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>45008</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40768,7 +40768,7 @@
         <v>45016</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40825,7 +40825,7 @@
         <v>45021</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>45025</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>45027</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>45030</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41058,7 +41058,7 @@
         <v>45035</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41115,7 +41115,7 @@
         <v>45036</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41172,7 +41172,7 @@
         <v>45040</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41234,7 +41234,7 @@
         <v>45043</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41291,7 +41291,7 @@
         <v>45048</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41348,7 +41348,7 @@
         <v>45050</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41405,7 +41405,7 @@
         <v>45054</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41462,7 +41462,7 @@
         <v>45054</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>45054</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>45054</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>45054</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>45056</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45057</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41804,7 +41804,7 @@
         <v>45061</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41861,7 +41861,7 @@
         <v>45063</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41918,7 +41918,7 @@
         <v>45068</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41975,7 +41975,7 @@
         <v>45068</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42032,7 +42032,7 @@
         <v>45071</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42094,7 +42094,7 @@
         <v>45071</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42156,7 +42156,7 @@
         <v>45072</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45072</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42280,7 +42280,7 @@
         <v>45072</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42342,7 +42342,7 @@
         <v>45072</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42404,7 +42404,7 @@
         <v>45074</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42461,7 +42461,7 @@
         <v>45075</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42523,7 +42523,7 @@
         <v>45075</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>45077</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42647,7 +42647,7 @@
         <v>45077</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42709,7 +42709,7 @@
         <v>45077</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42771,7 +42771,7 @@
         <v>45077</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42833,7 +42833,7 @@
         <v>45079</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>45079</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         <v>45079</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43019,7 +43019,7 @@
         <v>45082</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43081,7 +43081,7 @@
         <v>45085</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43138,7 +43138,7 @@
         <v>45095</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43195,7 +43195,7 @@
         <v>45095</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43252,7 +43252,7 @@
         <v>45096</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43314,7 +43314,7 @@
         <v>45096</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43376,7 +43376,7 @@
         <v>45099</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>45103</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43495,7 +43495,7 @@
         <v>45103</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43552,7 +43552,7 @@
         <v>45104</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43614,7 +43614,7 @@
         <v>45106</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43671,7 +43671,7 @@
         <v>45107</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45107</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45107</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45107</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43909,7 +43909,7 @@
         <v>45110</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43971,7 +43971,7 @@
         <v>45111</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44028,7 +44028,7 @@
         <v>45113</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44085,7 +44085,7 @@
         <v>45113</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44142,7 +44142,7 @@
         <v>45119</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>45119</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>45119</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>45119</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>45119</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44452,7 +44452,7 @@
         <v>45121</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>45131</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>45138</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>45140</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>45142</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>45142</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>45145</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>45147</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45148</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45149</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45149</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45166,7 +45166,7 @@
         <v>45152</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45152</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45290,7 +45290,7 @@
         <v>45155</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>45170</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45409,7 +45409,7 @@
         <v>45170</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45471,7 +45471,7 @@
         <v>45181</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45528,7 +45528,7 @@
         <v>45181</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>

--- a/Översikt LINDESBERG.xlsx
+++ b/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43746</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43759</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44406</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         <v>43766</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43759</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44060</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43732</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43732</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>43878</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44280</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>44320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>44472</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44484</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45021</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43526</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43560</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43588</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43737</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43746</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43746</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43766</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43773</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43936</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44320</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44484</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44512</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44522</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>44536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44789</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44979</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>45075</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45075</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45099</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>45099</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>45138</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45138</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>45160</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43339</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43374</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43390</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43390</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43409</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>43423</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>43429</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43441</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43444</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43444</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43453</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43467</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43467</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43468</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43468</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43468</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43479</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43494</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43497</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43500</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43521</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43523</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43524</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43526</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43529</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>43535</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>43538</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43539</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>43544</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43551</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43553</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43557</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43560</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43560</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43563</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43564</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43567</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43570</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43571</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43571</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43579</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43580</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43581</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43588</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43588</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>43588</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43588</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43592</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43592</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43594</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43594</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43594</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43598</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43598</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43599</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43599</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43599</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43600</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43601</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43601</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43601</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43605</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43605</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43606</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43608</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43612</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43612</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43616</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43619</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43626</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>43628</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43630</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43633</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43633</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43634</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43634</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43635</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43636</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>43642</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43642</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>43643</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43643</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43643</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43643</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43643</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12858,7 +12858,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43644</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>43655</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>43656</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>43661</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>43661</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>43663</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>43669</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43671</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43678</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43679</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43680</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43680</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43683</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43684</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43685</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43689</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43691</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43693</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43699</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43699</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43699</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43710</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43713</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43713</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43713</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43717</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>43720</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>43720</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>43723</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>43725</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43725</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43731</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>43731</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>43734</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>43734</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>43734</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>43738</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>43738</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>43740</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>43740</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>43740</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>43740</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>43745</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>43745</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>43746</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>43749</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>43749</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>43752</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>43752</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43755</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43755</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>43761</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>43762</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>43762</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>43764</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>43766</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>43766</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>43766</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>43766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>43767</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>43767</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>43773</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>43780</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>43786</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>43786</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>43788</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>43788</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43790</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43790</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43792</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43800</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43800</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43804</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43805</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43805</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43809</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43810</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43817</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43826</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43837</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43844</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43845</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43857</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43860</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43860</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>43861</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>43865</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>43866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>43867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>43871</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>43871</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43872</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>43875</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43885</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43892</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43895</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>43895</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>43897</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43899</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>43900</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>43900</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>43902</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>43904</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43904</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>43904</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>43907</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43910</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>43913</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>43914</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43921</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43923</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43923</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>43929</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>43930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>43941</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>43947</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20485,7 +20485,7 @@
         <v>43948</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43948</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43957</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43958</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43962</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43962</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43962</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43962</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43966</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>43969</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>43969</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>43971</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>43984</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>43984</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>43993</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>43999</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44000</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44000</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44000</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44004</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44005</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         <v>44006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>44006</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21940,7 +21940,7 @@
         <v>44006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21997,7 +21997,7 @@
         <v>44006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>44007</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44007</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44013</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44016</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44016</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44018</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>44018</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         <v>44018</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>44018</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>44018</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22639,7 +22639,7 @@
         <v>44020</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44046</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44047</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44049</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>44053</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44063</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44063</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44064</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44067</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44069</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>44069</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>44069</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>44069</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>44069</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44071</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44073</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>44076</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>44076</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44083</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>44085</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>44085</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44088</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>44088</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>44088</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>44091</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44091</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>44098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>44102</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>44102</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>44104</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>44107</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44113</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44113</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44113</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44114</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44116</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>44123</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>44123</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24959,7 +24959,7 @@
         <v>44124</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25016,7 +25016,7 @@
         <v>44124</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>44126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44126</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44126</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44130</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44133</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44145</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44150</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44151</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44151</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44154</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44161</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25715,7 +25715,7 @@
         <v>44162</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25772,7 +25772,7 @@
         <v>44162</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>44162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>44167</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>44169</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44169</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44171</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44175</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44176</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>44176</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44179</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44179</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>44183</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44187</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26558,7 +26558,7 @@
         <v>44187</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26615,7 +26615,7 @@
         <v>44197</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26672,7 +26672,7 @@
         <v>44201</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26729,7 +26729,7 @@
         <v>44208</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44210</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44224</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44227</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44228</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44231</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44236</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44242</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44242</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44257</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>44258</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44258</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44259</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44259</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44259</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44263</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44267</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44267</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27780,7 +27780,7 @@
         <v>44267</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         <v>44271</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27894,7 +27894,7 @@
         <v>44273</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>44276</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28008,7 +28008,7 @@
         <v>44276</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28065,7 +28065,7 @@
         <v>44280</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>44281</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>44298</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>44300</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28298,7 +28298,7 @@
         <v>44300</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28355,7 +28355,7 @@
         <v>44301</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>44305</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>44308</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44319</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44325</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44326</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44327</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44332</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44348</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44348</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>44355</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44357</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>44361</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>44363</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>44375</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>44375</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44375</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>44375</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>44375</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>44376</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>44377</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>44377</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>44378</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29711,7 +29711,7 @@
         <v>44383</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>44386</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>44389</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>44389</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>44389</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>44389</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30068,7 +30068,7 @@
         <v>44389</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>44389</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>44389</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30244,7 +30244,7 @@
         <v>44389</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         <v>44420</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30363,7 +30363,7 @@
         <v>44420</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30420,7 +30420,7 @@
         <v>44425</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30482,7 +30482,7 @@
         <v>44425</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>44425</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44431</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44431</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44432</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30782,7 +30782,7 @@
         <v>44434</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30839,7 +30839,7 @@
         <v>44438</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30901,7 +30901,7 @@
         <v>44445</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30963,7 +30963,7 @@
         <v>44445</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31025,7 +31025,7 @@
         <v>44446</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31082,7 +31082,7 @@
         <v>44447</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31139,7 +31139,7 @@
         <v>44447</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>44449</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31253,7 +31253,7 @@
         <v>44449</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31310,7 +31310,7 @@
         <v>44451</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31367,7 +31367,7 @@
         <v>44452</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>44453</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31481,7 +31481,7 @@
         <v>44453</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31538,7 +31538,7 @@
         <v>44456</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>44457</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44460</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44461</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>44462</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31828,7 +31828,7 @@
         <v>44463</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31885,7 +31885,7 @@
         <v>44481</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31942,7 +31942,7 @@
         <v>44484</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31999,7 +31999,7 @@
         <v>44484</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32056,7 +32056,7 @@
         <v>44490</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32113,7 +32113,7 @@
         <v>44490</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32170,7 +32170,7 @@
         <v>44491</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32227,7 +32227,7 @@
         <v>44491</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32284,7 +32284,7 @@
         <v>44494</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32341,7 +32341,7 @@
         <v>44497</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32398,7 +32398,7 @@
         <v>44501</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32455,7 +32455,7 @@
         <v>44502</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32512,7 +32512,7 @@
         <v>44503</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32569,7 +32569,7 @@
         <v>44503</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         <v>44505</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32683,7 +32683,7 @@
         <v>44508</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32740,7 +32740,7 @@
         <v>44511</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32797,7 +32797,7 @@
         <v>44517</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32854,7 +32854,7 @@
         <v>44522</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>44523</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32973,7 +32973,7 @@
         <v>44526</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>44533</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33087,7 +33087,7 @@
         <v>44536</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33144,7 +33144,7 @@
         <v>44536</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33201,7 +33201,7 @@
         <v>44539</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33258,7 +33258,7 @@
         <v>44544</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
         <v>44545</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33372,7 +33372,7 @@
         <v>44551</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33429,7 +33429,7 @@
         <v>44564</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44566</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33543,7 +33543,7 @@
         <v>44585</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33600,7 +33600,7 @@
         <v>44594</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33657,7 +33657,7 @@
         <v>44602</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33714,7 +33714,7 @@
         <v>44603</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>44603</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>44608</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33895,7 +33895,7 @@
         <v>44613</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44613</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>44618</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44619</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>44627</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>44627</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>44629</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>44629</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44630</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44638</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44648</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44665</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44665</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44665</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44665</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44665</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44665</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44671</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>44671</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>44672</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>44673</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>44675</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35211,7 +35211,7 @@
         <v>44675</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44676</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44679</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44683</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44684</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>44685</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>44686</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>44690</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>44691</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>44691</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>44691</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>44691</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>44697</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35962,7 +35962,7 @@
         <v>44701</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         <v>44701</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>44714</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44728</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>44728</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>44742</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36304,7 +36304,7 @@
         <v>44753</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
         <v>44754</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36418,7 +36418,7 @@
         <v>44777</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36475,7 +36475,7 @@
         <v>44784</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44789</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>44789</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>44789</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>44790</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36760,7 +36760,7 @@
         <v>44791</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36817,7 +36817,7 @@
         <v>44796</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36874,7 +36874,7 @@
         <v>44806</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36931,7 +36931,7 @@
         <v>44810</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36988,7 +36988,7 @@
         <v>44819</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37045,7 +37045,7 @@
         <v>44820</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37102,7 +37102,7 @@
         <v>44822</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37159,7 +37159,7 @@
         <v>44825</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44833</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44837</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>44841</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37397,7 +37397,7 @@
         <v>44841</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>44846</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37511,7 +37511,7 @@
         <v>44860</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>44860</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37630,7 +37630,7 @@
         <v>44860</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37692,7 +37692,7 @@
         <v>44862</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37754,7 +37754,7 @@
         <v>44862</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
         <v>44872</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37873,7 +37873,7 @@
         <v>44883</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37930,7 +37930,7 @@
         <v>44883</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37987,7 +37987,7 @@
         <v>44889</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38044,7 +38044,7 @@
         <v>44893</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38101,7 +38101,7 @@
         <v>44894</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38158,7 +38158,7 @@
         <v>44895</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38215,7 +38215,7 @@
         <v>44900</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38272,7 +38272,7 @@
         <v>44902</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38329,7 +38329,7 @@
         <v>44902</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         <v>44902</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38448,7 +38448,7 @@
         <v>44902</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38510,7 +38510,7 @@
         <v>44902</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38567,7 +38567,7 @@
         <v>44904</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38624,7 +38624,7 @@
         <v>44909</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38681,7 +38681,7 @@
         <v>44911</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38738,7 +38738,7 @@
         <v>44916</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38795,7 +38795,7 @@
         <v>44924</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38852,7 +38852,7 @@
         <v>44927</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38909,7 +38909,7 @@
         <v>44928</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38966,7 +38966,7 @@
         <v>44945</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39023,7 +39023,7 @@
         <v>44945</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39080,7 +39080,7 @@
         <v>44946</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39137,7 +39137,7 @@
         <v>44949</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39194,7 +39194,7 @@
         <v>44949</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>44949</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39308,7 +39308,7 @@
         <v>44950</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39365,7 +39365,7 @@
         <v>44957</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>44963</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39479,7 +39479,7 @@
         <v>44970</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39536,7 +39536,7 @@
         <v>44974</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39593,7 +39593,7 @@
         <v>44974</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39650,7 +39650,7 @@
         <v>44977</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39712,7 +39712,7 @@
         <v>44978</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39769,7 +39769,7 @@
         <v>44978</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         <v>44979</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39883,7 +39883,7 @@
         <v>44979</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39940,7 +39940,7 @@
         <v>44981</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39997,7 +39997,7 @@
         <v>44981</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40054,7 +40054,7 @@
         <v>44981</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40111,7 +40111,7 @@
         <v>44984</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40168,7 +40168,7 @@
         <v>44988</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40230,7 +40230,7 @@
         <v>44990</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40287,7 +40287,7 @@
         <v>44990</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40344,7 +40344,7 @@
         <v>44993</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>45005</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>45005</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>45005</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>45005</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>45007</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>45008</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40768,7 +40768,7 @@
         <v>45016</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40825,7 +40825,7 @@
         <v>45021</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>45025</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>45027</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>45030</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41058,7 +41058,7 @@
         <v>45035</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41115,7 +41115,7 @@
         <v>45036</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41172,7 +41172,7 @@
         <v>45040</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41234,7 +41234,7 @@
         <v>45043</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41291,7 +41291,7 @@
         <v>45048</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41348,7 +41348,7 @@
         <v>45050</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41405,7 +41405,7 @@
         <v>45054</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41462,7 +41462,7 @@
         <v>45054</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>45054</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>45054</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>45054</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>45056</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45057</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41804,7 +41804,7 @@
         <v>45061</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41861,7 +41861,7 @@
         <v>45063</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41918,7 +41918,7 @@
         <v>45068</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41975,7 +41975,7 @@
         <v>45068</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42032,7 +42032,7 @@
         <v>45071</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42094,7 +42094,7 @@
         <v>45071</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42156,7 +42156,7 @@
         <v>45072</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45072</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42280,7 +42280,7 @@
         <v>45072</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42342,7 +42342,7 @@
         <v>45072</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42404,7 +42404,7 @@
         <v>45074</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42461,7 +42461,7 @@
         <v>45075</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42523,7 +42523,7 @@
         <v>45075</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>45077</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42647,7 +42647,7 @@
         <v>45077</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42709,7 +42709,7 @@
         <v>45077</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42771,7 +42771,7 @@
         <v>45077</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42833,7 +42833,7 @@
         <v>45079</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>45079</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         <v>45079</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43019,7 +43019,7 @@
         <v>45082</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43081,7 +43081,7 @@
         <v>45085</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43138,7 +43138,7 @@
         <v>45095</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43195,7 +43195,7 @@
         <v>45095</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43252,7 +43252,7 @@
         <v>45096</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43314,7 +43314,7 @@
         <v>45096</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43376,7 +43376,7 @@
         <v>45099</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>45103</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43495,7 +43495,7 @@
         <v>45103</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43552,7 +43552,7 @@
         <v>45104</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43614,7 +43614,7 @@
         <v>45106</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43671,7 +43671,7 @@
         <v>45107</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45107</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45107</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45107</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43909,7 +43909,7 @@
         <v>45110</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43971,7 +43971,7 @@
         <v>45111</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44028,7 +44028,7 @@
         <v>45113</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44085,7 +44085,7 @@
         <v>45113</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44142,7 +44142,7 @@
         <v>45119</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>45119</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>45119</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>45119</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>45119</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44452,7 +44452,7 @@
         <v>45121</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>45131</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>45138</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>45140</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>45142</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>45142</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>45145</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>45147</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45148</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45149</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45149</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45166,7 +45166,7 @@
         <v>45152</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45152</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45290,7 +45290,7 @@
         <v>45155</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>45170</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45409,7 +45409,7 @@
         <v>45170</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45471,7 +45471,7 @@
         <v>45181</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45528,7 +45528,7 @@
         <v>45181</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>

--- a/Översikt LINDESBERG.xlsx
+++ b/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43746</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43759</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44406</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         <v>43766</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43759</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44060</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43732</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43732</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>43878</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44280</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>44320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>44472</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44484</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45021</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43526</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43560</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43588</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43737</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43746</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43746</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43766</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43773</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43936</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44320</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44484</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44512</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44522</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>44536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44789</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44979</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>45075</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45075</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45099</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>45099</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>45138</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45138</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>45160</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43339</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43374</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43390</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43390</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43409</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>43423</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>43429</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43441</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43444</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43444</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43453</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43467</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43467</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43468</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43468</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43468</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43479</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43494</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43497</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43500</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43521</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43523</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43524</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43526</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43529</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>43535</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>43538</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43539</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>43544</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43551</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43553</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43557</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43560</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43560</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43563</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43564</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43567</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43570</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43571</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43571</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43579</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43580</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43581</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43588</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43588</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>43588</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43588</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43592</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43592</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43594</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43594</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43594</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43598</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43598</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43599</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43599</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43599</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43600</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43601</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43601</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43601</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43605</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43605</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43606</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43608</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43612</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43612</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43616</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43619</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43626</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>43628</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43630</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43633</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43633</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43634</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43634</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43635</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43636</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>43642</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43642</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>43643</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43643</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43643</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43643</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43643</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12858,7 +12858,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43644</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>43655</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>43656</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>43661</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>43661</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>43663</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>43669</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43671</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43678</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43679</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43680</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43680</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43683</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43684</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43685</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43689</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43691</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43693</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43699</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43699</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43699</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43710</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43713</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43713</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43713</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43717</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>43720</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>43720</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>43723</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>43725</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43725</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43731</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>43731</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>43734</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>43734</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>43734</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>43738</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>43738</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>43740</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>43740</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>43740</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>43740</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>43745</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>43745</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>43746</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16125,7 +16125,7 @@
         <v>43749</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>43749</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>43752</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16301,7 +16301,7 @@
         <v>43752</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>43755</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43755</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>43761</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         <v>43762</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>43762</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>43764</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>43766</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>43766</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>43766</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>43766</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>43767</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>43767</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>43773</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>43780</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>43786</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>43786</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>43788</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>43788</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>43790</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>43790</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17553,7 +17553,7 @@
         <v>43792</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17610,7 +17610,7 @@
         <v>43800</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         <v>43800</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17724,7 +17724,7 @@
         <v>43803</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17781,7 +17781,7 @@
         <v>43804</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
         <v>43805</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17895,7 +17895,7 @@
         <v>43805</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>43809</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18009,7 +18009,7 @@
         <v>43810</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         <v>43815</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43817</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>43826</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>43837</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>43844</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>43845</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>43853</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>43857</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>43860</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>43860</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>43861</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>43865</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18760,7 +18760,7 @@
         <v>43866</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18817,7 +18817,7 @@
         <v>43867</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
         <v>43871</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>43871</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>43872</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19045,7 +19045,7 @@
         <v>43875</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43885</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43892</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43895</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>43895</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>43897</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>43899</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>43900</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>43900</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>43902</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>43904</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>43904</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>43904</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>43907</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>43910</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19967,7 +19967,7 @@
         <v>43913</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>43914</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>43921</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>43923</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>43923</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>43929</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>43930</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>43941</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>43947</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20485,7 +20485,7 @@
         <v>43948</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>43948</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>43957</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>43958</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43962</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>43962</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20832,7 +20832,7 @@
         <v>43962</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
         <v>43962</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         <v>43963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>43966</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>43969</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21122,7 +21122,7 @@
         <v>43969</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>43971</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21246,7 +21246,7 @@
         <v>43984</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>43984</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>43993</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21427,7 +21427,7 @@
         <v>43999</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21484,7 +21484,7 @@
         <v>44000</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21541,7 +21541,7 @@
         <v>44000</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21598,7 +21598,7 @@
         <v>44000</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21655,7 +21655,7 @@
         <v>44000</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21712,7 +21712,7 @@
         <v>44004</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21769,7 +21769,7 @@
         <v>44005</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         <v>44006</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>44006</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21940,7 +21940,7 @@
         <v>44006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21997,7 +21997,7 @@
         <v>44006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22054,7 +22054,7 @@
         <v>44007</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
         <v>44007</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22173,7 +22173,7 @@
         <v>44013</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22230,7 +22230,7 @@
         <v>44016</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22287,7 +22287,7 @@
         <v>44016</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22344,7 +22344,7 @@
         <v>44018</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22406,7 +22406,7 @@
         <v>44018</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
         <v>44018</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22520,7 +22520,7 @@
         <v>44018</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22577,7 +22577,7 @@
         <v>44018</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22639,7 +22639,7 @@
         <v>44020</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44046</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22753,7 +22753,7 @@
         <v>44047</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44049</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22867,7 +22867,7 @@
         <v>44053</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
         <v>44063</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
         <v>44063</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
         <v>44064</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44067</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44068</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
         <v>44069</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>44069</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>44069</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>44069</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>44069</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44071</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23561,7 +23561,7 @@
         <v>44073</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>44076</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>44076</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44083</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>44085</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>44085</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44088</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>44088</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>44088</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>44091</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44091</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>44098</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>44102</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24312,7 +24312,7 @@
         <v>44102</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>44104</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24426,7 +24426,7 @@
         <v>44107</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24483,7 +24483,7 @@
         <v>44113</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24540,7 +24540,7 @@
         <v>44113</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>44113</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24654,7 +24654,7 @@
         <v>44114</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>44116</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24773,7 +24773,7 @@
         <v>44117</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>44123</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24897,7 +24897,7 @@
         <v>44123</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24959,7 +24959,7 @@
         <v>44124</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25016,7 +25016,7 @@
         <v>44124</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25073,7 +25073,7 @@
         <v>44126</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44126</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25187,7 +25187,7 @@
         <v>44126</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25244,7 +25244,7 @@
         <v>44130</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25301,7 +25301,7 @@
         <v>44133</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44145</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44150</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44151</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44151</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44154</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44161</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25715,7 +25715,7 @@
         <v>44162</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25772,7 +25772,7 @@
         <v>44162</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>44162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>44167</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>44169</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>44169</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26077,7 +26077,7 @@
         <v>44171</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26134,7 +26134,7 @@
         <v>44175</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26191,7 +26191,7 @@
         <v>44176</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>44176</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44179</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44179</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>44183</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26501,7 +26501,7 @@
         <v>44187</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26558,7 +26558,7 @@
         <v>44187</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26615,7 +26615,7 @@
         <v>44197</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26672,7 +26672,7 @@
         <v>44201</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26729,7 +26729,7 @@
         <v>44208</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44210</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44224</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44227</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44228</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44231</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44236</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>44242</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>44242</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>44257</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>44258</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>44258</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27438,7 +27438,7 @@
         <v>44259</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         <v>44259</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27552,7 +27552,7 @@
         <v>44259</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27609,7 +27609,7 @@
         <v>44263</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         <v>44267</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27723,7 +27723,7 @@
         <v>44267</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27780,7 +27780,7 @@
         <v>44267</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         <v>44271</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27894,7 +27894,7 @@
         <v>44273</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>44276</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28008,7 +28008,7 @@
         <v>44276</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28065,7 +28065,7 @@
         <v>44280</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
         <v>44281</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>44298</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>44300</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28298,7 +28298,7 @@
         <v>44300</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28355,7 +28355,7 @@
         <v>44301</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>44305</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>44308</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44319</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44325</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44326</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44327</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44332</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>44348</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44348</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28950,7 +28950,7 @@
         <v>44355</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>44357</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>44361</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>44363</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>44375</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>44375</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44375</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         <v>44375</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>44375</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>44376</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29540,7 +29540,7 @@
         <v>44377</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29597,7 +29597,7 @@
         <v>44377</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29654,7 +29654,7 @@
         <v>44378</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29711,7 +29711,7 @@
         <v>44383</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>44386</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>44389</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29887,7 +29887,7 @@
         <v>44389</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29949,7 +29949,7 @@
         <v>44389</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30006,7 +30006,7 @@
         <v>44389</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30068,7 +30068,7 @@
         <v>44389</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>44389</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>44389</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30244,7 +30244,7 @@
         <v>44389</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         <v>44420</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30363,7 +30363,7 @@
         <v>44420</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30420,7 +30420,7 @@
         <v>44425</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30482,7 +30482,7 @@
         <v>44425</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>44425</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>44431</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44431</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44432</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30782,7 +30782,7 @@
         <v>44434</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30839,7 +30839,7 @@
         <v>44438</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30901,7 +30901,7 @@
         <v>44445</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30963,7 +30963,7 @@
         <v>44445</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31025,7 +31025,7 @@
         <v>44446</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31082,7 +31082,7 @@
         <v>44447</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31139,7 +31139,7 @@
         <v>44447</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>44449</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31253,7 +31253,7 @@
         <v>44449</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31310,7 +31310,7 @@
         <v>44451</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31367,7 +31367,7 @@
         <v>44452</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>44453</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31481,7 +31481,7 @@
         <v>44453</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31538,7 +31538,7 @@
         <v>44456</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>44457</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44460</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44461</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>44462</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31828,7 +31828,7 @@
         <v>44463</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31885,7 +31885,7 @@
         <v>44481</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31942,7 +31942,7 @@
         <v>44484</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31999,7 +31999,7 @@
         <v>44484</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32056,7 +32056,7 @@
         <v>44490</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32113,7 +32113,7 @@
         <v>44490</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32170,7 +32170,7 @@
         <v>44491</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32227,7 +32227,7 @@
         <v>44491</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32284,7 +32284,7 @@
         <v>44494</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32341,7 +32341,7 @@
         <v>44497</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32398,7 +32398,7 @@
         <v>44501</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32455,7 +32455,7 @@
         <v>44502</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32512,7 +32512,7 @@
         <v>44503</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32569,7 +32569,7 @@
         <v>44503</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         <v>44505</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32683,7 +32683,7 @@
         <v>44508</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32740,7 +32740,7 @@
         <v>44511</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32797,7 +32797,7 @@
         <v>44517</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32854,7 +32854,7 @@
         <v>44522</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>44523</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32973,7 +32973,7 @@
         <v>44526</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>44533</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33087,7 +33087,7 @@
         <v>44536</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33144,7 +33144,7 @@
         <v>44536</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33201,7 +33201,7 @@
         <v>44539</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33258,7 +33258,7 @@
         <v>44544</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
         <v>44545</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33372,7 +33372,7 @@
         <v>44551</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33429,7 +33429,7 @@
         <v>44564</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>44566</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33543,7 +33543,7 @@
         <v>44585</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33600,7 +33600,7 @@
         <v>44594</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33657,7 +33657,7 @@
         <v>44602</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33714,7 +33714,7 @@
         <v>44603</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
         <v>44603</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33833,7 +33833,7 @@
         <v>44608</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33895,7 +33895,7 @@
         <v>44613</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>44613</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>44618</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>44619</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>44627</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34180,7 +34180,7 @@
         <v>44627</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>44629</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>44629</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34351,7 +34351,7 @@
         <v>44629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44630</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34465,7 +34465,7 @@
         <v>44638</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34522,7 +34522,7 @@
         <v>44648</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         <v>44665</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34636,7 +34636,7 @@
         <v>44665</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>44665</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34750,7 +34750,7 @@
         <v>44665</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34807,7 +34807,7 @@
         <v>44665</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34864,7 +34864,7 @@
         <v>44665</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34921,7 +34921,7 @@
         <v>44671</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34978,7 +34978,7 @@
         <v>44671</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35035,7 +35035,7 @@
         <v>44672</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35092,7 +35092,7 @@
         <v>44673</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35149,7 +35149,7 @@
         <v>44675</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35211,7 +35211,7 @@
         <v>44675</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>44676</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>44679</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>44683</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>44684</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>44685</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>44686</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>44690</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>44691</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>44691</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>44691</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>44691</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>44697</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35962,7 +35962,7 @@
         <v>44701</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         <v>44701</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>44714</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44728</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>44728</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>44742</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36304,7 +36304,7 @@
         <v>44753</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
         <v>44754</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36418,7 +36418,7 @@
         <v>44777</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36475,7 +36475,7 @@
         <v>44784</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>44789</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>44789</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>44789</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>44790</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36760,7 +36760,7 @@
         <v>44791</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36817,7 +36817,7 @@
         <v>44796</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36874,7 +36874,7 @@
         <v>44806</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36931,7 +36931,7 @@
         <v>44810</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36988,7 +36988,7 @@
         <v>44819</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37045,7 +37045,7 @@
         <v>44820</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37102,7 +37102,7 @@
         <v>44822</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37159,7 +37159,7 @@
         <v>44825</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>44833</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>44837</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>44841</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37397,7 +37397,7 @@
         <v>44841</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>44846</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37511,7 +37511,7 @@
         <v>44860</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>44860</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37630,7 +37630,7 @@
         <v>44860</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37692,7 +37692,7 @@
         <v>44862</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37754,7 +37754,7 @@
         <v>44862</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
         <v>44872</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37873,7 +37873,7 @@
         <v>44883</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37930,7 +37930,7 @@
         <v>44883</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37987,7 +37987,7 @@
         <v>44889</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38044,7 +38044,7 @@
         <v>44893</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38101,7 +38101,7 @@
         <v>44894</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38158,7 +38158,7 @@
         <v>44895</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38215,7 +38215,7 @@
         <v>44900</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38272,7 +38272,7 @@
         <v>44902</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38329,7 +38329,7 @@
         <v>44902</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         <v>44902</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38448,7 +38448,7 @@
         <v>44902</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38510,7 +38510,7 @@
         <v>44902</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38567,7 +38567,7 @@
         <v>44904</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38624,7 +38624,7 @@
         <v>44909</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38681,7 +38681,7 @@
         <v>44911</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38738,7 +38738,7 @@
         <v>44916</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38795,7 +38795,7 @@
         <v>44924</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38852,7 +38852,7 @@
         <v>44927</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38909,7 +38909,7 @@
         <v>44928</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38966,7 +38966,7 @@
         <v>44945</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39023,7 +39023,7 @@
         <v>44945</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39080,7 +39080,7 @@
         <v>44946</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39137,7 +39137,7 @@
         <v>44949</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39194,7 +39194,7 @@
         <v>44949</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>44949</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39308,7 +39308,7 @@
         <v>44950</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39365,7 +39365,7 @@
         <v>44957</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39422,7 +39422,7 @@
         <v>44963</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39479,7 +39479,7 @@
         <v>44970</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39536,7 +39536,7 @@
         <v>44974</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39593,7 +39593,7 @@
         <v>44974</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39650,7 +39650,7 @@
         <v>44977</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39712,7 +39712,7 @@
         <v>44978</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39769,7 +39769,7 @@
         <v>44978</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         <v>44979</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39883,7 +39883,7 @@
         <v>44979</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39940,7 +39940,7 @@
         <v>44981</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39997,7 +39997,7 @@
         <v>44981</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40054,7 +40054,7 @@
         <v>44981</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40111,7 +40111,7 @@
         <v>44984</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40168,7 +40168,7 @@
         <v>44988</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40230,7 +40230,7 @@
         <v>44990</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40287,7 +40287,7 @@
         <v>44990</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40344,7 +40344,7 @@
         <v>44993</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>45005</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40463,7 +40463,7 @@
         <v>45005</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>45005</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>45005</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>45007</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>45008</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40768,7 +40768,7 @@
         <v>45016</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40825,7 +40825,7 @@
         <v>45021</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>45025</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>45027</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>45030</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41058,7 +41058,7 @@
         <v>45035</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41115,7 +41115,7 @@
         <v>45036</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41172,7 +41172,7 @@
         <v>45040</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41234,7 +41234,7 @@
         <v>45043</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41291,7 +41291,7 @@
         <v>45048</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41348,7 +41348,7 @@
         <v>45050</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41405,7 +41405,7 @@
         <v>45054</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41462,7 +41462,7 @@
         <v>45054</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41519,7 +41519,7 @@
         <v>45054</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>45054</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>45054</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41690,7 +41690,7 @@
         <v>45056</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41747,7 +41747,7 @@
         <v>45057</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41804,7 +41804,7 @@
         <v>45061</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41861,7 +41861,7 @@
         <v>45063</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41918,7 +41918,7 @@
         <v>45068</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41975,7 +41975,7 @@
         <v>45068</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42032,7 +42032,7 @@
         <v>45071</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42094,7 +42094,7 @@
         <v>45071</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42156,7 +42156,7 @@
         <v>45072</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42218,7 +42218,7 @@
         <v>45072</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42280,7 +42280,7 @@
         <v>45072</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42342,7 +42342,7 @@
         <v>45072</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42404,7 +42404,7 @@
         <v>45074</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42461,7 +42461,7 @@
         <v>45075</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42523,7 +42523,7 @@
         <v>45075</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>45077</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42647,7 +42647,7 @@
         <v>45077</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42709,7 +42709,7 @@
         <v>45077</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42771,7 +42771,7 @@
         <v>45077</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42833,7 +42833,7 @@
         <v>45079</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>45079</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42957,7 +42957,7 @@
         <v>45079</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43019,7 +43019,7 @@
         <v>45082</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43081,7 +43081,7 @@
         <v>45085</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43138,7 +43138,7 @@
         <v>45095</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43195,7 +43195,7 @@
         <v>45095</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43252,7 +43252,7 @@
         <v>45096</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43314,7 +43314,7 @@
         <v>45096</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43376,7 +43376,7 @@
         <v>45099</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43438,7 +43438,7 @@
         <v>45103</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43495,7 +43495,7 @@
         <v>45103</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43552,7 +43552,7 @@
         <v>45104</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43614,7 +43614,7 @@
         <v>45106</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43671,7 +43671,7 @@
         <v>45107</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43733,7 +43733,7 @@
         <v>45107</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43790,7 +43790,7 @@
         <v>45107</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43847,7 +43847,7 @@
         <v>45107</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43909,7 +43909,7 @@
         <v>45110</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43971,7 +43971,7 @@
         <v>45111</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44028,7 +44028,7 @@
         <v>45113</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44085,7 +44085,7 @@
         <v>45113</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44142,7 +44142,7 @@
         <v>45119</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44204,7 +44204,7 @@
         <v>45119</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44266,7 +44266,7 @@
         <v>45119</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>45119</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44390,7 +44390,7 @@
         <v>45119</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44452,7 +44452,7 @@
         <v>45121</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>45131</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44571,7 +44571,7 @@
         <v>45138</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>45140</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>45142</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>45142</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45145</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44861,7 +44861,7 @@
         <v>45145</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>45147</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45148</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45149</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45149</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45166,7 +45166,7 @@
         <v>45152</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45228,7 +45228,7 @@
         <v>45152</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45290,7 +45290,7 @@
         <v>45155</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>45170</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45409,7 +45409,7 @@
         <v>45170</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45471,7 +45471,7 @@
         <v>45181</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45528,7 +45528,7 @@
         <v>45181</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>

--- a/Översikt LINDESBERG.xlsx
+++ b/Översikt LINDESBERG.xlsx
@@ -572,7 +572,7 @@
         <v>43746</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>43759</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>44375</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>44406</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         <v>43766</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43759</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>44060</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>45138</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         <v>43608</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>43732</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43732</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>43878</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>44280</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>44320</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>44472</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>44484</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>45021</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43526</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>43560</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43588</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>43737</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>43746</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2556,7 +2556,7 @@
         <v>43746</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43766</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>43773</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43936</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44320</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44484</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>44512</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>44522</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>44536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>44789</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44979</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>45075</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45075</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45099</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>45099</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         <v>45138</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>45138</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>45160</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43339</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43361</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43374</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43390</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43390</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43397</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>43400</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>43406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>43409</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         <v>43409</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43410</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>43417</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>43417</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>43423</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>43423</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>43427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>43428</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>43429</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>43430</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>43430</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>43430</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43431</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43431</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>43431</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6393,7 +6393,7 @@
         <v>43431</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43433</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43441</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43444</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43444</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         <v>43445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43452</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43453</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43467</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43467</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>43468</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>43468</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         <v>43468</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         <v>43472</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43472</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43473</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43473</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43474</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43474</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43476</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43479</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43480</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43482</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>43482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>43482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>43494</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>43497</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>43500</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43504</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43508</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43510</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43510</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43514</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43514</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43521</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43523</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43524</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43526</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43529</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>43535</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>43538</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>43539</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>43544</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8988,7 +8988,7 @@
         <v>43550</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         <v>43551</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>43553</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43557</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9278,7 +9278,7 @@
         <v>43560</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
         <v>43560</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
         <v>43563</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9449,7 +9449,7 @@
         <v>43564</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>43567</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43570</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43571</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>43571</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43573</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>43579</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>43580</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>43581</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>43588</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43588</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43588</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>43588</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>43588</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43592</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43592</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>43594</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         <v>43594</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43594</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>43598</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
         <v>43598</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43599</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43599</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43599</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         <v>43600</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         <v>43601</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>43601</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>43601</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>43605</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43605</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43606</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43608</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43612</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43612</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>43616</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>43619</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>43626</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         <v>43628</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>43629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43630</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43633</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>43633</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43634</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>43634</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>43635</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43636</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>43642</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>43642</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>43643</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>43643</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>43643</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>43643</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>43643</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12858,7 +12858,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>43644</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>43644</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>43655</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>43656</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>43661</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>43661</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>43663</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>43669</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>43671</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>43672</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>43678</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>43679</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>43680</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13753,7 +13753,7 @@
         <v>43680</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43683</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43684</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>43685</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>43689</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>43691</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>43693</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>43699</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>43699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>43699</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>43699</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>43710</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>43711</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>43711</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>43713</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43713</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43713</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43717</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>43718</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43718</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43719</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>43720</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>43720</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>43723</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>43725</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>43725</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>43731</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>43731</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>43734</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>43734</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>43734</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>43734</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         <v>43738</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>43738</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>43740</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>43740</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>43740</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>43740</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>43745</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>43745</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v